--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="1662">
   <si>
     <t>owner</t>
   </si>
@@ -6379,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6563,8 +6563,8 @@
       <c r="D3" s="5">
         <v>43700.501516203702</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
+      <c r="E3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>95935</v>

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1662">
   <si>
     <t>owner</t>
   </si>
@@ -6379,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="E521" sqref="E521:E633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6633,8 +6633,8 @@
       <c r="D4" s="5">
         <v>43693.861296296294</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>70</v>
+      <c r="E4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>701207</v>
@@ -6703,8 +6703,8 @@
       <c r="D5" s="5">
         <v>43699.393645833334</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>70</v>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <v>134042</v>
@@ -6773,8 +6773,8 @@
       <c r="D6" s="5">
         <v>44282.049768518518</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>70</v>
+      <c r="E6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <v>36699</v>
@@ -6843,8 +6843,8 @@
       <c r="D7" s="5">
         <v>44274.848194444443</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
+      <c r="E7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>122634</v>
@@ -6913,8 +6913,8 @@
       <c r="D8" s="5">
         <v>43699.402048611111</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
+      <c r="E8" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <v>13243</v>
@@ -6983,8 +6983,8 @@
       <c r="D9" s="5">
         <v>43700.27134259259</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>70</v>
+      <c r="E9" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>53852</v>
@@ -7053,8 +7053,8 @@
       <c r="D10" s="5">
         <v>43700.401666666665</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>70</v>
+      <c r="E10" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>7055</v>
@@ -7123,8 +7123,8 @@
       <c r="D11" s="5">
         <v>43700.369270833333</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>70</v>
+      <c r="E11" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>4285</v>
@@ -7193,8 +7193,8 @@
       <c r="D12" s="5">
         <v>43700.498784722222</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>70</v>
+      <c r="E12" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F12" s="6">
         <v>19342</v>
@@ -7263,8 +7263,8 @@
       <c r="D13" s="5">
         <v>43700.301018518519</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>70</v>
+      <c r="E13" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>80486</v>
@@ -7333,8 +7333,8 @@
       <c r="D14" s="5">
         <v>44281.45820601852</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>70</v>
+      <c r="E14" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F14" s="6">
         <v>44802</v>
@@ -7403,8 +7403,8 @@
       <c r="D15" s="5">
         <v>43700.294814814813</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>70</v>
+      <c r="E15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>112811</v>
@@ -7473,8 +7473,8 @@
       <c r="D16" s="5">
         <v>43699.905613425923</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
+      <c r="E16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F16" s="6">
         <v>63227</v>
@@ -7543,8 +7543,8 @@
       <c r="D17" s="5">
         <v>43655.528668981482</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>70</v>
+      <c r="E17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <v>7523</v>
@@ -7613,8 +7613,8 @@
       <c r="D18" s="5">
         <v>43700.242037037038</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>70</v>
+      <c r="E18" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F18" s="6">
         <v>4300</v>
@@ -7683,8 +7683,8 @@
       <c r="D19" s="11">
         <v>43695.668356481481</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>70</v>
+      <c r="E19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F19" s="12">
         <v>49582</v>
@@ -7753,8 +7753,8 @@
       <c r="D20" s="5">
         <v>43619.625532407408</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>70</v>
+      <c r="E20" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F20" s="6">
         <v>22289</v>
@@ -7823,8 +7823,8 @@
       <c r="D21" s="5">
         <v>44281.968472222223</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F21" s="6">
         <v>607807</v>
@@ -7893,8 +7893,8 @@
       <c r="D22" s="5">
         <v>43699.285995370374</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>70</v>
+      <c r="E22" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F22" s="6">
         <v>85737</v>
@@ -7963,8 +7963,8 @@
       <c r="D23" s="5">
         <v>43699.536122685182</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>70</v>
+      <c r="E23" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F23" s="6">
         <v>111469</v>
@@ -8033,8 +8033,8 @@
       <c r="D24" s="5">
         <v>43700.328738425924</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>70</v>
+      <c r="E24" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F24" s="6">
         <v>33200</v>
@@ -8103,8 +8103,8 @@
       <c r="D25" s="5">
         <v>43700.413761574076</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>70</v>
+      <c r="E25" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F25" s="6">
         <v>62651</v>
@@ -8173,8 +8173,8 @@
       <c r="D26" s="5">
         <v>43698.697060185186</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>70</v>
+      <c r="E26" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F26" s="6">
         <v>131594</v>
@@ -8243,8 +8243,8 @@
       <c r="D27" s="5">
         <v>44195.844918981478</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>70</v>
+      <c r="E27" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F27" s="6">
         <v>35988</v>
@@ -8313,8 +8313,8 @@
       <c r="D28" s="11">
         <v>43700.406736111108</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>70</v>
+      <c r="E28" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <v>20084</v>
@@ -8453,8 +8453,8 @@
       <c r="D30" s="5">
         <v>43700.584768518522</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>70</v>
+      <c r="E30" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F30" s="6">
         <v>257428</v>
@@ -8523,8 +8523,8 @@
       <c r="D31" s="5">
         <v>43700.441550925927</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
+      <c r="E31" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>145291</v>
@@ -8593,8 +8593,8 @@
       <c r="D32" s="5">
         <v>43700.568738425929</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>70</v>
+      <c r="E32" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F32" s="6">
         <v>479302</v>
@@ -8733,8 +8733,8 @@
       <c r="D34" s="5">
         <v>43700.497164351851</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>70</v>
+      <c r="E34" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F34" s="6">
         <v>51542</v>
@@ -8803,8 +8803,8 @@
       <c r="D35" s="5">
         <v>43700.499826388892</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>70</v>
+      <c r="E35" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F35" s="6">
         <v>186581</v>
@@ -8873,8 +8873,8 @@
       <c r="D36" s="11">
         <v>44272.644641203704</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>70</v>
+      <c r="E36" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F36" s="12">
         <v>43190</v>
@@ -9153,8 +9153,8 @@
       <c r="D40" s="5">
         <v>44282.531377314815</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>70</v>
+      <c r="E40" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F40" s="6">
         <v>86211</v>
@@ -9293,8 +9293,8 @@
       <c r="D42" s="5">
         <v>43700.54650462963</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>70</v>
+      <c r="E42" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F42" s="6">
         <v>114093</v>
@@ -9363,8 +9363,8 @@
       <c r="D43" s="5">
         <v>43699.525902777779</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>70</v>
+      <c r="E43" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F43" s="6">
         <v>97230</v>
@@ -9433,8 +9433,8 @@
       <c r="D44" s="5">
         <v>43700.156689814816</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>70</v>
+      <c r="E44" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F44" s="6">
         <v>224039</v>
@@ -16361,7 +16361,7 @@
       <c r="D143" s="11">
         <v>43699.409803240742</v>
       </c>
-      <c r="E143" s="12" t="s">
+      <c r="E143" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F143" s="12">
@@ -19791,7 +19791,7 @@
       <c r="D192" s="11">
         <v>43693.357789351852</v>
       </c>
-      <c r="E192" s="12" t="s">
+      <c r="E192" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F192" s="12">
@@ -20071,7 +20071,7 @@
       <c r="D196" s="11">
         <v>43693.293946759259</v>
       </c>
-      <c r="E196" s="12" t="s">
+      <c r="E196" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F196" s="12">
@@ -20629,7 +20629,7 @@
       <c r="D204" s="11">
         <v>43700.238402777781</v>
       </c>
-      <c r="E204" s="12" t="s">
+      <c r="E204" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F204" s="12">
@@ -20699,7 +20699,7 @@
       <c r="D205" s="11">
         <v>43700.237476851849</v>
       </c>
-      <c r="E205" s="12" t="s">
+      <c r="E205" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F205" s="12">
@@ -23219,7 +23219,7 @@
       <c r="D241" s="11">
         <v>43699.190428240741</v>
       </c>
-      <c r="E241" s="12" t="s">
+      <c r="E241" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F241" s="12">
@@ -24477,7 +24477,7 @@
       <c r="D259" s="11">
         <v>43699.42627314815</v>
       </c>
-      <c r="E259" s="12" t="s">
+      <c r="E259" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F259" s="12">
@@ -26367,7 +26367,7 @@
       <c r="D286" s="11">
         <v>43699.996111111112</v>
       </c>
-      <c r="E286" s="12" t="s">
+      <c r="E286" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F286" s="12">
@@ -26577,7 +26577,7 @@
       <c r="D289" s="11">
         <v>44266.292893518519</v>
       </c>
-      <c r="E289" s="12" t="s">
+      <c r="E289" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F289" s="12">
@@ -27067,7 +27067,7 @@
       <c r="D296" s="11">
         <v>43677.552291666667</v>
       </c>
-      <c r="E296" s="12" t="s">
+      <c r="E296" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F296" s="12">
@@ -27347,7 +27347,7 @@
       <c r="D300" s="11">
         <v>43699.310196759259</v>
       </c>
-      <c r="E300" s="12" t="s">
+      <c r="E300" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F300" s="12">
@@ -28537,7 +28537,7 @@
       <c r="D317" s="11">
         <v>43699.59752314815</v>
       </c>
-      <c r="E317" s="12" t="s">
+      <c r="E317" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F317" s="12">
@@ -31127,7 +31127,7 @@
       <c r="D354" s="11">
         <v>44281.708194444444</v>
       </c>
-      <c r="E354" s="12" t="s">
+      <c r="E354" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F354" s="12">
@@ -31967,7 +31967,7 @@
       <c r="D366" s="11">
         <v>44278.696192129632</v>
       </c>
-      <c r="E366" s="12" t="s">
+      <c r="E366" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F366" s="12">
@@ -32037,7 +32037,7 @@
       <c r="D367" s="11">
         <v>43684.262372685182</v>
       </c>
-      <c r="E367" s="12" t="s">
+      <c r="E367" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F367" s="12">
@@ -33995,7 +33995,7 @@
       <c r="D395" s="11">
         <v>44277.224456018521</v>
       </c>
-      <c r="E395" s="12" t="s">
+      <c r="E395" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F395" s="12">
@@ -36583,7 +36583,7 @@
       <c r="D432" s="19">
         <v>43697.414247685185</v>
       </c>
-      <c r="E432" s="20" t="s">
+      <c r="E432" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F432" s="20">
@@ -36653,7 +36653,7 @@
       <c r="D433" s="19">
         <v>43700.202233796299</v>
       </c>
-      <c r="E433" s="20" t="s">
+      <c r="E433" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F433" s="20">
@@ -37843,7 +37843,7 @@
       <c r="D450" s="19">
         <v>44281.881319444445</v>
       </c>
-      <c r="E450" s="20" t="s">
+      <c r="E450" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F450" s="20">
@@ -37913,7 +37913,7 @@
       <c r="D451" s="19">
         <v>43699.436238425929</v>
       </c>
-      <c r="E451" s="20" t="s">
+      <c r="E451" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F451" s="20">
@@ -39733,7 +39733,7 @@
       <c r="D477" s="19">
         <v>43700.356053240743</v>
       </c>
-      <c r="E477" s="20" t="s">
+      <c r="E477" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F477" s="20">
@@ -39803,7 +39803,7 @@
       <c r="D478" s="19">
         <v>44281.373020833336</v>
       </c>
-      <c r="E478" s="20" t="s">
+      <c r="E478" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F478" s="20">
@@ -40363,7 +40363,7 @@
       <c r="D486" s="19">
         <v>43699.377928240741</v>
       </c>
-      <c r="E486" s="20" t="s">
+      <c r="E486" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F486" s="20">
@@ -40573,7 +40573,7 @@
       <c r="D489" s="19">
         <v>44280.643101851849</v>
       </c>
-      <c r="E489" s="20" t="s">
+      <c r="E489" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F489" s="20">
@@ -44281,7 +44281,7 @@
       <c r="D542" s="23">
         <v>43699.579745370371</v>
       </c>
-      <c r="E542" s="24" t="s">
+      <c r="E542" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F542" s="24">
@@ -44351,7 +44351,7 @@
       <c r="D543" s="23">
         <v>44282.3440162037</v>
       </c>
-      <c r="E543" s="24" t="s">
+      <c r="E543" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F543" s="24">
@@ -44561,7 +44561,7 @@
       <c r="D546" s="23">
         <v>43700.420902777776</v>
       </c>
-      <c r="E546" s="24" t="s">
+      <c r="E546" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F546" s="24">
@@ -44631,7 +44631,7 @@
       <c r="D547" s="23">
         <v>43686.615428240744</v>
       </c>
-      <c r="E547" s="24" t="s">
+      <c r="E547" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F547" s="24">
@@ -44701,7 +44701,7 @@
       <c r="D548" s="23">
         <v>43695.388229166667</v>
       </c>
-      <c r="E548" s="24" t="s">
+      <c r="E548" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F548" s="24">
@@ -44771,7 +44771,7 @@
       <c r="D549" s="23">
         <v>43699.879664351851</v>
       </c>
-      <c r="E549" s="24" t="s">
+      <c r="E549" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F549" s="24">
@@ -44911,7 +44911,7 @@
       <c r="D551" s="23">
         <v>44281.84746527778</v>
       </c>
-      <c r="E551" s="24" t="s">
+      <c r="E551" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F551" s="24">
@@ -44981,7 +44981,7 @@
       <c r="D552" s="23">
         <v>44281.712465277778</v>
       </c>
-      <c r="E552" s="24" t="s">
+      <c r="E552" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F552" s="24">
@@ -45051,7 +45051,7 @@
       <c r="D553" s="23">
         <v>43699.447291666664</v>
       </c>
-      <c r="E553" s="24" t="s">
+      <c r="E553" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F553" s="24">
@@ -45121,7 +45121,7 @@
       <c r="D554" s="23">
         <v>43696.337071759262</v>
       </c>
-      <c r="E554" s="24" t="s">
+      <c r="E554" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F554" s="24">
@@ -45191,7 +45191,7 @@
       <c r="D555" s="23">
         <v>44282.318981481483</v>
       </c>
-      <c r="E555" s="24" t="s">
+      <c r="E555" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F555" s="24">

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$633</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="1661">
   <si>
     <t>owner</t>
   </si>
@@ -6380,7 +6380,7 @@
   <dimension ref="A1:W633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9573,8 +9573,8 @@
       <c r="D46" s="5">
         <v>43699.636296296296</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>70</v>
+      <c r="E46" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F46" s="6">
         <v>86153</v>
@@ -9643,8 +9643,8 @@
       <c r="D47" s="5">
         <v>43700.486863425926</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>70</v>
+      <c r="E47" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F47" s="6">
         <v>132948</v>
@@ -9853,8 +9853,8 @@
       <c r="D50" s="5">
         <v>43700.554328703707</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>70</v>
+      <c r="E50" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F50" s="6">
         <v>294421</v>
@@ -9923,8 +9923,8 @@
       <c r="D51" s="5">
         <v>43698.035486111112</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>70</v>
+      <c r="E51" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F51" s="6">
         <v>36695</v>
@@ -9993,8 +9993,8 @@
       <c r="D52" s="5">
         <v>43700.366157407407</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>70</v>
+      <c r="E52" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F52" s="6">
         <v>477243</v>

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$633</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="1661">
   <si>
     <t>owner</t>
   </si>
@@ -6563,8 +6563,8 @@
       <c r="D3" s="5">
         <v>43700.501516203702</v>
       </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F3" s="6">
         <v>95935</v>
@@ -6633,8 +6633,8 @@
       <c r="D4" s="5">
         <v>43693.861296296294</v>
       </c>
-      <c r="E4" s="6" t="b">
-        <v>0</v>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="6">
         <v>701207</v>
@@ -6703,8 +6703,8 @@
       <c r="D5" s="5">
         <v>43699.393645833334</v>
       </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
+      <c r="E5" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F5" s="6">
         <v>134042</v>
@@ -6773,8 +6773,8 @@
       <c r="D6" s="5">
         <v>44282.049768518518</v>
       </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="6">
         <v>36699</v>
@@ -6843,8 +6843,8 @@
       <c r="D7" s="5">
         <v>44274.848194444443</v>
       </c>
-      <c r="E7" s="6" t="b">
-        <v>0</v>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="6">
         <v>122634</v>
@@ -6913,8 +6913,8 @@
       <c r="D8" s="5">
         <v>43699.402048611111</v>
       </c>
-      <c r="E8" s="6" t="b">
-        <v>0</v>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F8" s="6">
         <v>13243</v>
@@ -6983,8 +6983,8 @@
       <c r="D9" s="5">
         <v>43700.27134259259</v>
       </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
+      <c r="E9" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F9" s="6">
         <v>53852</v>
@@ -7053,8 +7053,8 @@
       <c r="D10" s="5">
         <v>43700.401666666665</v>
       </c>
-      <c r="E10" s="6" t="b">
-        <v>0</v>
+      <c r="E10" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="6">
         <v>7055</v>
@@ -7123,8 +7123,8 @@
       <c r="D11" s="5">
         <v>43700.369270833333</v>
       </c>
-      <c r="E11" s="6" t="b">
-        <v>0</v>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F11" s="6">
         <v>4285</v>
@@ -7193,8 +7193,8 @@
       <c r="D12" s="5">
         <v>43700.498784722222</v>
       </c>
-      <c r="E12" s="6" t="b">
-        <v>0</v>
+      <c r="E12" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F12" s="6">
         <v>19342</v>
@@ -7263,8 +7263,8 @@
       <c r="D13" s="5">
         <v>43700.301018518519</v>
       </c>
-      <c r="E13" s="6" t="b">
-        <v>0</v>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="6">
         <v>80486</v>
@@ -7333,8 +7333,8 @@
       <c r="D14" s="5">
         <v>44281.45820601852</v>
       </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F14" s="6">
         <v>44802</v>
@@ -7403,8 +7403,8 @@
       <c r="D15" s="5">
         <v>43700.294814814813</v>
       </c>
-      <c r="E15" s="6" t="b">
-        <v>0</v>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="6">
         <v>112811</v>
@@ -7473,8 +7473,8 @@
       <c r="D16" s="5">
         <v>43699.905613425923</v>
       </c>
-      <c r="E16" s="6" t="b">
-        <v>0</v>
+      <c r="E16" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="6">
         <v>63227</v>
@@ -7543,8 +7543,8 @@
       <c r="D17" s="5">
         <v>43655.528668981482</v>
       </c>
-      <c r="E17" s="6" t="b">
-        <v>0</v>
+      <c r="E17" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="6">
         <v>7523</v>
@@ -7613,8 +7613,8 @@
       <c r="D18" s="5">
         <v>43700.242037037038</v>
       </c>
-      <c r="E18" s="6" t="b">
-        <v>0</v>
+      <c r="E18" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="6">
         <v>4300</v>
@@ -7683,8 +7683,8 @@
       <c r="D19" s="11">
         <v>43695.668356481481</v>
       </c>
-      <c r="E19" s="6" t="b">
-        <v>0</v>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="12">
         <v>49582</v>
@@ -7753,8 +7753,8 @@
       <c r="D20" s="5">
         <v>43619.625532407408</v>
       </c>
-      <c r="E20" s="6" t="b">
-        <v>0</v>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F20" s="6">
         <v>22289</v>
@@ -7823,8 +7823,8 @@
       <c r="D21" s="5">
         <v>44281.968472222223</v>
       </c>
-      <c r="E21" s="6" t="b">
-        <v>0</v>
+      <c r="E21" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F21" s="6">
         <v>607807</v>
@@ -7893,8 +7893,8 @@
       <c r="D22" s="5">
         <v>43699.285995370374</v>
       </c>
-      <c r="E22" s="6" t="b">
-        <v>0</v>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F22" s="6">
         <v>85737</v>
@@ -7963,8 +7963,8 @@
       <c r="D23" s="5">
         <v>43699.536122685182</v>
       </c>
-      <c r="E23" s="6" t="b">
-        <v>0</v>
+      <c r="E23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="6">
         <v>111469</v>
@@ -8033,8 +8033,8 @@
       <c r="D24" s="5">
         <v>43700.328738425924</v>
       </c>
-      <c r="E24" s="6" t="b">
-        <v>0</v>
+      <c r="E24" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="6">
         <v>33200</v>
@@ -8103,8 +8103,8 @@
       <c r="D25" s="5">
         <v>43700.413761574076</v>
       </c>
-      <c r="E25" s="6" t="b">
-        <v>0</v>
+      <c r="E25" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F25" s="6">
         <v>62651</v>
@@ -8173,8 +8173,8 @@
       <c r="D26" s="5">
         <v>43698.697060185186</v>
       </c>
-      <c r="E26" s="6" t="b">
-        <v>0</v>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F26" s="6">
         <v>131594</v>
@@ -8243,8 +8243,8 @@
       <c r="D27" s="5">
         <v>44195.844918981478</v>
       </c>
-      <c r="E27" s="6" t="b">
-        <v>0</v>
+      <c r="E27" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F27" s="6">
         <v>35988</v>
@@ -8313,8 +8313,8 @@
       <c r="D28" s="11">
         <v>43700.406736111108</v>
       </c>
-      <c r="E28" s="6" t="b">
-        <v>0</v>
+      <c r="E28" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F28" s="12">
         <v>20084</v>
@@ -8453,8 +8453,8 @@
       <c r="D30" s="5">
         <v>43700.584768518522</v>
       </c>
-      <c r="E30" s="6" t="b">
-        <v>0</v>
+      <c r="E30" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F30" s="6">
         <v>257428</v>
@@ -8523,8 +8523,8 @@
       <c r="D31" s="5">
         <v>43700.441550925927</v>
       </c>
-      <c r="E31" s="6" t="b">
-        <v>0</v>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="6">
         <v>145291</v>
@@ -8593,8 +8593,8 @@
       <c r="D32" s="5">
         <v>43700.568738425929</v>
       </c>
-      <c r="E32" s="6" t="b">
-        <v>0</v>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F32" s="6">
         <v>479302</v>
@@ -8733,8 +8733,8 @@
       <c r="D34" s="5">
         <v>43700.497164351851</v>
       </c>
-      <c r="E34" s="6" t="b">
-        <v>0</v>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F34" s="6">
         <v>51542</v>
@@ -8803,8 +8803,8 @@
       <c r="D35" s="5">
         <v>43700.499826388892</v>
       </c>
-      <c r="E35" s="6" t="b">
-        <v>0</v>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F35" s="6">
         <v>186581</v>
@@ -8873,8 +8873,8 @@
       <c r="D36" s="11">
         <v>44272.644641203704</v>
       </c>
-      <c r="E36" s="6" t="b">
-        <v>0</v>
+      <c r="E36" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F36" s="12">
         <v>43190</v>
@@ -9153,8 +9153,8 @@
       <c r="D40" s="5">
         <v>44282.531377314815</v>
       </c>
-      <c r="E40" s="6" t="b">
-        <v>0</v>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F40" s="6">
         <v>86211</v>
@@ -9293,8 +9293,8 @@
       <c r="D42" s="5">
         <v>43700.54650462963</v>
       </c>
-      <c r="E42" s="6" t="b">
-        <v>0</v>
+      <c r="E42" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F42" s="6">
         <v>114093</v>
@@ -9363,8 +9363,8 @@
       <c r="D43" s="5">
         <v>43699.525902777779</v>
       </c>
-      <c r="E43" s="6" t="b">
-        <v>0</v>
+      <c r="E43" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F43" s="6">
         <v>97230</v>
@@ -9433,8 +9433,8 @@
       <c r="D44" s="5">
         <v>43700.156689814816</v>
       </c>
-      <c r="E44" s="6" t="b">
-        <v>0</v>
+      <c r="E44" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F44" s="6">
         <v>224039</v>
@@ -9573,8 +9573,8 @@
       <c r="D46" s="5">
         <v>43699.636296296296</v>
       </c>
-      <c r="E46" s="6" t="b">
-        <v>0</v>
+      <c r="E46" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F46" s="6">
         <v>86153</v>
@@ -9643,8 +9643,8 @@
       <c r="D47" s="5">
         <v>43700.486863425926</v>
       </c>
-      <c r="E47" s="6" t="b">
-        <v>0</v>
+      <c r="E47" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F47" s="6">
         <v>132948</v>
@@ -9853,8 +9853,8 @@
       <c r="D50" s="5">
         <v>43700.554328703707</v>
       </c>
-      <c r="E50" s="6" t="b">
-        <v>0</v>
+      <c r="E50" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F50" s="6">
         <v>294421</v>
@@ -9923,8 +9923,8 @@
       <c r="D51" s="5">
         <v>43698.035486111112</v>
       </c>
-      <c r="E51" s="6" t="b">
-        <v>0</v>
+      <c r="E51" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F51" s="6">
         <v>36695</v>
@@ -9993,8 +9993,8 @@
       <c r="D52" s="5">
         <v>43700.366157407407</v>
       </c>
-      <c r="E52" s="6" t="b">
-        <v>0</v>
+      <c r="E52" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F52" s="6">
         <v>477243</v>
@@ -11603,7 +11603,7 @@
       <c r="D75" s="11">
         <v>44282.1327662037</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F75" s="12">
@@ -11673,7 +11673,7 @@
       <c r="D76" s="11">
         <v>44280.628958333335</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F76" s="12">

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1664">
   <si>
     <t>owner</t>
   </si>
@@ -5022,6 +5022,18 @@
   </si>
   <si>
     <t>ZXing ("Zebra Crossing") barcode scanning library for Java, Android</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -5031,7 +5043,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5054,6 +5066,11 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -5135,7 +5152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5210,6 +5227,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6376,8 +6394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="U626" sqref="U626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20117,7 +20135,9 @@
       <c r="T196" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U196" s="12"/>
+      <c r="U196" s="12" t="s">
+        <v>1660</v>
+      </c>
       <c r="V196" s="12"/>
       <c r="W196" s="10" t="s">
         <v>544</v>
@@ -36629,7 +36649,9 @@
       <c r="T432" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U432" s="20"/>
+      <c r="U432" s="20" t="s">
+        <v>1661</v>
+      </c>
       <c r="V432" s="20" t="s">
         <v>29</v>
       </c>
@@ -36699,7 +36721,9 @@
       <c r="T433" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U433" s="20"/>
+      <c r="U433" s="20" t="s">
+        <v>1661</v>
+      </c>
       <c r="V433" s="20" t="s">
         <v>29</v>
       </c>
@@ -42787,7 +42811,9 @@
       <c r="T520" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U520" s="6"/>
+      <c r="U520" s="6" t="s">
+        <v>1662</v>
+      </c>
       <c r="V520" s="15" t="s">
         <v>66</v>
       </c>
@@ -43907,7 +43933,9 @@
       <c r="T536" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U536" s="6"/>
+      <c r="U536" s="6" t="s">
+        <v>1663</v>
+      </c>
       <c r="V536" s="15" t="s">
         <v>478</v>
       </c>
@@ -48667,7 +48695,9 @@
       <c r="T604" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U604" s="6"/>
+      <c r="U604" s="26" t="s">
+        <v>1660</v>
+      </c>
       <c r="V604" s="6" t="s">
         <v>164</v>
       </c>
@@ -50417,7 +50447,9 @@
       <c r="T629" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U629" s="6"/>
+      <c r="U629" s="6" t="s">
+        <v>1663</v>
+      </c>
       <c r="V629" s="6" t="s">
         <v>27</v>
       </c>

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilapaiva/Documents/GitHub/db-mining/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EB123D-A8CA-42B5-8E06-853359E04F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,15 +39,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1669">
   <si>
     <t>owner</t>
   </si>
@@ -5040,16 +5039,28 @@
   </si>
   <si>
     <t>ZXing ("Zebra Crossing") barcode scanning library for Java, Android</t>
+  </si>
+  <si>
+    <t>analysys</t>
+  </si>
+  <si>
+    <t>EasyScheduler</t>
+  </si>
+  <si>
+    <t>http://www.github.com/analysys/EasyScheduler</t>
+  </si>
+  <si>
+    <t>Easy Scheduler is a distributed visual workflow scheduling system, which focuses on solving the problem of "complex task dependencies". Easy Scheduler assembles tasks in a DAG graph to monitor the running status of tasks in real time. In addition, it supports retries from specified nodes, recovery failures, suspension and termination of tasks . . . 中文描述：Easy Scheduler是一个分布式工作流任务调度系统(大数据任务调度)，主要解决"错综复杂的任务依赖关系，而不能直观监控任务健康状态等问题"。Easy Scheduler以DAG流式的方式将Task组装起来，并可实时监控任务的运行状态，同时支持重试、从指定节点恢复失败、暂停及Kill任务等操作。EasyScheduler由在工作流任务调度方面工作多年的多位小伙伴研发而成，致力于成为大数据平台的中流砥柱，使大数据调度变得更加容易，更可以从其中文名“易调度”看出我们的初衷，如果你对目前市面上的调度不够满意，非常欢迎使用易调度！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5269,7 +5280,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="106">
     <dxf>
@@ -6429,40 +6440,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W633"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="K613" workbookViewId="0">
+      <selection activeCell="U637" sqref="U637"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="64.28515625" customWidth="1"/>
+    <col min="23" max="23" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6603,7 +6614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -6673,7 +6684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -6813,7 +6824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -6883,7 +6894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -6953,7 +6964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -7023,7 +7034,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -7093,7 +7104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -7163,7 +7174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -7233,7 +7244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -7373,7 +7384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -7443,7 +7454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -7513,7 +7524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -7583,7 +7594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
@@ -7653,7 +7664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -7723,7 +7734,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
@@ -7793,7 +7804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -7863,7 +7874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -7933,7 +7944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -8003,7 +8014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -8143,7 +8154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>95</v>
       </c>
@@ -8212,7 +8223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>99</v>
       </c>
@@ -8282,7 +8293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -8352,7 +8363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>105</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
@@ -8492,7 +8503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
@@ -8562,7 +8573,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>105</v>
       </c>
@@ -8632,7 +8643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>105</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
@@ -8842,7 +8853,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>105</v>
       </c>
@@ -8912,7 +8923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>105</v>
       </c>
@@ -8982,7 +8993,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>105</v>
       </c>
@@ -9052,7 +9063,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>105</v>
       </c>
@@ -9122,7 +9133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
@@ -9192,7 +9203,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
@@ -9262,7 +9273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>105</v>
       </c>
@@ -9332,7 +9343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>105</v>
       </c>
@@ -9402,7 +9413,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>105</v>
       </c>
@@ -9472,7 +9483,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>105</v>
       </c>
@@ -9542,7 +9553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>105</v>
       </c>
@@ -9612,7 +9623,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
@@ -9682,7 +9693,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -9752,7 +9763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>105</v>
       </c>
@@ -9822,7 +9833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
@@ -9892,7 +9903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
@@ -9962,7 +9973,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>105</v>
       </c>
@@ -10032,7 +10043,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -10102,7 +10113,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>105</v>
       </c>
@@ -10172,7 +10183,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
@@ -10242,7 +10253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>105</v>
       </c>
@@ -10312,7 +10323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>105</v>
       </c>
@@ -10382,7 +10393,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>105</v>
       </c>
@@ -10452,7 +10463,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
@@ -10522,7 +10533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>105</v>
       </c>
@@ -10592,7 +10603,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>105</v>
       </c>
@@ -10662,7 +10673,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>105</v>
       </c>
@@ -10732,7 +10743,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>105</v>
       </c>
@@ -10802,7 +10813,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>105</v>
       </c>
@@ -10872,7 +10883,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>105</v>
       </c>
@@ -10942,7 +10953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>105</v>
       </c>
@@ -11012,7 +11023,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>105</v>
       </c>
@@ -11082,7 +11093,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>105</v>
       </c>
@@ -11152,7 +11163,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>105</v>
       </c>
@@ -11222,7 +11233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>105</v>
       </c>
@@ -11292,7 +11303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>105</v>
       </c>
@@ -11362,7 +11373,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>105</v>
       </c>
@@ -11432,7 +11443,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>105</v>
       </c>
@@ -11502,7 +11513,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>105</v>
       </c>
@@ -11572,7 +11583,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>105</v>
       </c>
@@ -11642,7 +11653,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>105</v>
       </c>
@@ -11712,7 +11723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>105</v>
       </c>
@@ -11782,7 +11793,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>105</v>
       </c>
@@ -11852,7 +11863,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>105</v>
       </c>
@@ -11922,7 +11933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>105</v>
       </c>
@@ -11992,7 +12003,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
@@ -12062,7 +12073,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>105</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>105</v>
       </c>
@@ -12202,7 +12213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>105</v>
       </c>
@@ -12272,7 +12283,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>105</v>
       </c>
@@ -12342,7 +12353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>105</v>
       </c>
@@ -12412,7 +12423,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>105</v>
       </c>
@@ -12482,7 +12493,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>105</v>
       </c>
@@ -12552,7 +12563,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>232</v>
       </c>
@@ -12622,7 +12633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>235</v>
       </c>
@@ -12692,7 +12703,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>237</v>
       </c>
@@ -12762,7 +12773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>241</v>
       </c>
@@ -12832,7 +12843,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>244</v>
       </c>
@@ -12902,7 +12913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>247</v>
       </c>
@@ -12972,7 +12983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>250</v>
       </c>
@@ -13042,7 +13053,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>253</v>
       </c>
@@ -13112,7 +13123,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>256</v>
       </c>
@@ -13182,7 +13193,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>259</v>
       </c>
@@ -13252,7 +13263,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>261</v>
       </c>
@@ -13322,7 +13333,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>264</v>
       </c>
@@ -13392,7 +13403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>264</v>
       </c>
@@ -13462,7 +13473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>269</v>
       </c>
@@ -13532,7 +13543,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>272</v>
       </c>
@@ -13602,7 +13613,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>275</v>
       </c>
@@ -13672,7 +13683,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>277</v>
       </c>
@@ -13742,7 +13753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>279</v>
       </c>
@@ -13812,7 +13823,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>279</v>
       </c>
@@ -13882,7 +13893,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>285</v>
       </c>
@@ -13952,7 +13963,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>288</v>
       </c>
@@ -14022,7 +14033,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>291</v>
       </c>
@@ -14092,7 +14103,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>295</v>
       </c>
@@ -14162,7 +14173,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>298</v>
       </c>
@@ -14232,7 +14243,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>301</v>
       </c>
@@ -14302,7 +14313,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>303</v>
       </c>
@@ -14372,7 +14383,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>307</v>
       </c>
@@ -14442,7 +14453,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>309</v>
       </c>
@@ -14512,7 +14523,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>311</v>
       </c>
@@ -14582,7 +14593,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>314</v>
       </c>
@@ -14652,7 +14663,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>317</v>
       </c>
@@ -14722,7 +14733,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>320</v>
       </c>
@@ -14792,7 +14803,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>322</v>
       </c>
@@ -14862,7 +14873,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>325</v>
       </c>
@@ -14932,7 +14943,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>328</v>
       </c>
@@ -15002,7 +15013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>331</v>
       </c>
@@ -15072,7 +15083,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>334</v>
       </c>
@@ -15142,7 +15153,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>336</v>
       </c>
@@ -15212,7 +15223,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>339</v>
       </c>
@@ -15282,7 +15293,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>342</v>
       </c>
@@ -15352,7 +15363,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>344</v>
       </c>
@@ -15422,7 +15433,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>346</v>
       </c>
@@ -15492,7 +15503,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>349</v>
       </c>
@@ -15562,7 +15573,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>352</v>
       </c>
@@ -15632,7 +15643,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>355</v>
       </c>
@@ -15702,7 +15713,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>358</v>
       </c>
@@ -15772,7 +15783,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>361</v>
       </c>
@@ -15842,7 +15853,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>364</v>
       </c>
@@ -15912,7 +15923,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>367</v>
       </c>
@@ -15982,7 +15993,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>370</v>
       </c>
@@ -16052,7 +16063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>372</v>
       </c>
@@ -16122,7 +16133,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>374</v>
       </c>
@@ -16192,7 +16203,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>377</v>
       </c>
@@ -16262,7 +16273,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>380</v>
       </c>
@@ -16330,7 +16341,7 @@
       </c>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>382</v>
       </c>
@@ -16400,7 +16411,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>385</v>
       </c>
@@ -16470,7 +16481,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>387</v>
       </c>
@@ -16540,7 +16551,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>389</v>
       </c>
@@ -16610,7 +16621,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>392</v>
       </c>
@@ -16680,7 +16691,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>395</v>
       </c>
@@ -16750,7 +16761,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>398</v>
       </c>
@@ -16820,7 +16831,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>401</v>
       </c>
@@ -16890,7 +16901,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>404</v>
       </c>
@@ -16960,7 +16971,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>404</v>
       </c>
@@ -17030,7 +17041,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>404</v>
       </c>
@@ -17100,7 +17111,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>404</v>
       </c>
@@ -17170,7 +17181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>413</v>
       </c>
@@ -17240,7 +17251,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>415</v>
       </c>
@@ -17310,7 +17321,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>418</v>
       </c>
@@ -17380,7 +17391,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>420</v>
       </c>
@@ -17450,7 +17461,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>422</v>
       </c>
@@ -17520,7 +17531,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>425</v>
       </c>
@@ -17590,7 +17601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>425</v>
       </c>
@@ -17660,7 +17671,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>430</v>
       </c>
@@ -17730,7 +17741,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>433</v>
       </c>
@@ -17800,7 +17811,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>436</v>
       </c>
@@ -17870,7 +17881,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>439</v>
       </c>
@@ -17940,7 +17951,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>442</v>
       </c>
@@ -18010,7 +18021,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>445</v>
       </c>
@@ -18080,7 +18091,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>447</v>
       </c>
@@ -18150,7 +18161,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>449</v>
       </c>
@@ -18220,7 +18231,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>452</v>
       </c>
@@ -18290,7 +18301,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>455</v>
       </c>
@@ -18360,7 +18371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>458</v>
       </c>
@@ -18430,7 +18441,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>461</v>
       </c>
@@ -18500,7 +18511,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>464</v>
       </c>
@@ -18570,7 +18581,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>467</v>
       </c>
@@ -18640,7 +18651,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>470</v>
       </c>
@@ -18710,7 +18721,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>473</v>
       </c>
@@ -18780,7 +18791,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>476</v>
       </c>
@@ -18850,7 +18861,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>476</v>
       </c>
@@ -18920,7 +18931,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>480</v>
       </c>
@@ -18990,7 +19001,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>480</v>
       </c>
@@ -19060,7 +19071,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>485</v>
       </c>
@@ -19130,7 +19141,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>488</v>
       </c>
@@ -19200,7 +19211,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>491</v>
       </c>
@@ -19270,7 +19281,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>491</v>
       </c>
@@ -19340,7 +19351,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>491</v>
       </c>
@@ -19410,7 +19421,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>491</v>
       </c>
@@ -19480,7 +19491,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>500</v>
       </c>
@@ -19550,7 +19561,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>503</v>
       </c>
@@ -19620,7 +19631,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>506</v>
       </c>
@@ -19690,7 +19701,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>506</v>
       </c>
@@ -19760,7 +19771,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>511</v>
       </c>
@@ -19830,7 +19841,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>514</v>
       </c>
@@ -19900,7 +19911,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>516</v>
       </c>
@@ -19970,7 +19981,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>519</v>
       </c>
@@ -20040,7 +20051,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>522</v>
       </c>
@@ -20110,7 +20121,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>525</v>
       </c>
@@ -20180,7 +20191,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>529</v>
       </c>
@@ -20250,7 +20261,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>532</v>
       </c>
@@ -20320,7 +20331,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>532</v>
       </c>
@@ -20390,7 +20401,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>537</v>
       </c>
@@ -20460,7 +20471,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>537</v>
       </c>
@@ -20530,7 +20541,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>537</v>
       </c>
@@ -20600,7 +20611,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>537</v>
       </c>
@@ -20670,7 +20681,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="10" t="s">
         <v>546</v>
       </c>
@@ -20740,7 +20751,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>546</v>
       </c>
@@ -20810,7 +20821,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>551</v>
       </c>
@@ -20880,7 +20891,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>554</v>
       </c>
@@ -20950,7 +20961,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>557</v>
       </c>
@@ -21020,7 +21031,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>559</v>
       </c>
@@ -21090,7 +21101,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>559</v>
       </c>
@@ -21160,7 +21171,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>564</v>
       </c>
@@ -21232,7 +21243,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>567</v>
       </c>
@@ -21302,7 +21313,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>570</v>
       </c>
@@ -21372,7 +21383,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>573</v>
       </c>
@@ -21442,7 +21453,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>576</v>
       </c>
@@ -21512,7 +21523,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>578</v>
       </c>
@@ -21582,7 +21593,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>578</v>
       </c>
@@ -21652,7 +21663,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>578</v>
       </c>
@@ -21722,7 +21733,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>578</v>
       </c>
@@ -21792,7 +21803,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>587</v>
       </c>
@@ -21862,7 +21873,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>590</v>
       </c>
@@ -21932,7 +21943,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>593</v>
       </c>
@@ -22002,7 +22013,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>595</v>
       </c>
@@ -22072,7 +22083,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>598</v>
       </c>
@@ -22142,7 +22153,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>601</v>
       </c>
@@ -22212,7 +22223,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>604</v>
       </c>
@@ -22282,7 +22293,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>607</v>
       </c>
@@ -22352,7 +22363,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>609</v>
       </c>
@@ -22422,7 +22433,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>611</v>
       </c>
@@ -22492,7 +22503,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>613</v>
       </c>
@@ -22562,7 +22573,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>616</v>
       </c>
@@ -22632,7 +22643,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>619</v>
       </c>
@@ -22702,7 +22713,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>621</v>
       </c>
@@ -22772,7 +22783,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>624</v>
       </c>
@@ -22842,7 +22853,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>627</v>
       </c>
@@ -22912,7 +22923,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>629</v>
       </c>
@@ -22982,7 +22993,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>629</v>
       </c>
@@ -23052,7 +23063,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>629</v>
       </c>
@@ -23122,7 +23133,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>629</v>
       </c>
@@ -23192,7 +23203,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>629</v>
       </c>
@@ -23262,7 +23273,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
         <v>629</v>
       </c>
@@ -23332,7 +23343,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>629</v>
       </c>
@@ -23402,7 +23413,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>629</v>
       </c>
@@ -23472,7 +23483,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>629</v>
       </c>
@@ -23542,7 +23553,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>629</v>
       </c>
@@ -23612,7 +23623,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>629</v>
       </c>
@@ -23680,7 +23691,7 @@
       <c r="V246" s="6"/>
       <c r="W246" s="4"/>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>629</v>
       </c>
@@ -23750,7 +23761,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>629</v>
       </c>
@@ -23820,7 +23831,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>629</v>
       </c>
@@ -23890,7 +23901,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>657</v>
       </c>
@@ -23960,7 +23971,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>657</v>
       </c>
@@ -24030,7 +24041,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>657</v>
       </c>
@@ -24100,7 +24111,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>664</v>
       </c>
@@ -24170,7 +24181,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>664</v>
       </c>
@@ -24240,7 +24251,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>669</v>
       </c>
@@ -24310,7 +24321,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>672</v>
       </c>
@@ -24380,7 +24391,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>675</v>
       </c>
@@ -24450,7 +24461,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>675</v>
       </c>
@@ -24520,7 +24531,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>679</v>
       </c>
@@ -24590,7 +24601,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>681</v>
       </c>
@@ -24660,7 +24671,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>684</v>
       </c>
@@ -24730,7 +24741,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>687</v>
       </c>
@@ -24800,7 +24811,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>690</v>
       </c>
@@ -24870,7 +24881,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>693</v>
       </c>
@@ -24940,7 +24951,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>696</v>
       </c>
@@ -25010,7 +25021,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>698</v>
       </c>
@@ -25080,7 +25091,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>701</v>
       </c>
@@ -25150,7 +25161,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>704</v>
       </c>
@@ -25220,7 +25231,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>707</v>
       </c>
@@ -25290,7 +25301,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>710</v>
       </c>
@@ -25360,7 +25371,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>713</v>
       </c>
@@ -25430,7 +25441,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>716</v>
       </c>
@@ -25500,7 +25511,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>718</v>
       </c>
@@ -25570,7 +25581,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>720</v>
       </c>
@@ -25640,7 +25651,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>723</v>
       </c>
@@ -25710,7 +25721,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>726</v>
       </c>
@@ -25780,7 +25791,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>729</v>
       </c>
@@ -25850,7 +25861,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>732</v>
       </c>
@@ -25920,7 +25931,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>736</v>
       </c>
@@ -25990,7 +26001,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>739</v>
       </c>
@@ -26060,7 +26071,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>741</v>
       </c>
@@ -26130,7 +26141,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>744</v>
       </c>
@@ -26200,7 +26211,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>747</v>
       </c>
@@ -26270,7 +26281,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>747</v>
       </c>
@@ -26340,7 +26351,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>752</v>
       </c>
@@ -26410,7 +26421,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
         <v>755</v>
       </c>
@@ -26480,7 +26491,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>757</v>
       </c>
@@ -26550,7 +26561,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>760</v>
       </c>
@@ -26620,7 +26631,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>763</v>
       </c>
@@ -26690,7 +26701,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>766</v>
       </c>
@@ -26760,7 +26771,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>769</v>
       </c>
@@ -26830,7 +26841,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>772</v>
       </c>
@@ -26900,7 +26911,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>775</v>
       </c>
@@ -26970,7 +26981,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>778</v>
       </c>
@@ -27040,7 +27051,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>781</v>
       </c>
@@ -27110,7 +27121,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>785</v>
       </c>
@@ -27180,7 +27191,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>788</v>
       </c>
@@ -27250,7 +27261,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>791</v>
       </c>
@@ -27320,7 +27331,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>794</v>
       </c>
@@ -27390,7 +27401,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>796</v>
       </c>
@@ -27462,7 +27473,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>800</v>
       </c>
@@ -27532,7 +27543,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>803</v>
       </c>
@@ -27602,7 +27613,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>806</v>
       </c>
@@ -27672,7 +27683,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>809</v>
       </c>
@@ -27742,7 +27753,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>812</v>
       </c>
@@ -27812,7 +27823,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>815</v>
       </c>
@@ -27882,7 +27893,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>817</v>
       </c>
@@ -27952,7 +27963,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>819</v>
       </c>
@@ -28022,7 +28033,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>822</v>
       </c>
@@ -28092,7 +28103,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>825</v>
       </c>
@@ -28162,7 +28173,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>827</v>
       </c>
@@ -28232,7 +28243,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>827</v>
       </c>
@@ -28302,7 +28313,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>827</v>
       </c>
@@ -28372,7 +28383,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>827</v>
       </c>
@@ -28442,7 +28453,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>836</v>
       </c>
@@ -28512,7 +28523,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>839</v>
       </c>
@@ -28582,7 +28593,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
         <v>842</v>
       </c>
@@ -28654,7 +28665,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>845</v>
       </c>
@@ -28724,7 +28735,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>845</v>
       </c>
@@ -28794,7 +28805,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>845</v>
       </c>
@@ -28864,7 +28875,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>845</v>
       </c>
@@ -28934,7 +28945,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>854</v>
       </c>
@@ -29004,7 +29015,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>857</v>
       </c>
@@ -29074,7 +29085,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>860</v>
       </c>
@@ -29144,7 +29155,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>863</v>
       </c>
@@ -29214,7 +29225,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>863</v>
       </c>
@@ -29284,7 +29295,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>867</v>
       </c>
@@ -29354,7 +29365,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>870</v>
       </c>
@@ -29424,7 +29435,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>873</v>
       </c>
@@ -29494,7 +29505,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>874</v>
       </c>
@@ -29564,7 +29575,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>877</v>
       </c>
@@ -29634,7 +29645,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>878</v>
       </c>
@@ -29704,7 +29715,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>881</v>
       </c>
@@ -29774,7 +29785,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>884</v>
       </c>
@@ -29844,7 +29855,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>887</v>
       </c>
@@ -29914,7 +29925,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>890</v>
       </c>
@@ -29984,7 +29995,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>893</v>
       </c>
@@ -30054,7 +30065,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>896</v>
       </c>
@@ -30124,7 +30135,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>899</v>
       </c>
@@ -30194,7 +30205,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>902</v>
       </c>
@@ -30264,7 +30275,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>902</v>
       </c>
@@ -30334,7 +30345,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>907</v>
       </c>
@@ -30404,7 +30415,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>910</v>
       </c>
@@ -30474,7 +30485,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>913</v>
       </c>
@@ -30544,7 +30555,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>916</v>
       </c>
@@ -30614,7 +30625,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>919</v>
       </c>
@@ -30684,7 +30695,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>922</v>
       </c>
@@ -30754,7 +30765,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>924</v>
       </c>
@@ -30824,7 +30835,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>927</v>
       </c>
@@ -30894,7 +30905,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>930</v>
       </c>
@@ -30964,7 +30975,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>932</v>
       </c>
@@ -31034,7 +31045,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>936</v>
       </c>
@@ -31104,7 +31115,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>936</v>
       </c>
@@ -31174,7 +31185,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
         <v>936</v>
       </c>
@@ -31244,7 +31255,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>944</v>
       </c>
@@ -31314,7 +31325,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>947</v>
       </c>
@@ -31384,7 +31395,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>947</v>
       </c>
@@ -31454,7 +31465,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>952</v>
       </c>
@@ -31524,7 +31535,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>955</v>
       </c>
@@ -31594,7 +31605,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>958</v>
       </c>
@@ -31664,7 +31675,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>961</v>
       </c>
@@ -31734,7 +31745,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>964</v>
       </c>
@@ -31804,7 +31815,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>533</v>
       </c>
@@ -31874,7 +31885,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>969</v>
       </c>
@@ -31944,7 +31955,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>972</v>
       </c>
@@ -32014,7 +32025,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>975</v>
       </c>
@@ -32084,7 +32095,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="10" t="s">
         <v>978</v>
       </c>
@@ -32154,7 +32165,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>981</v>
       </c>
@@ -32224,7 +32235,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>984</v>
       </c>
@@ -32294,7 +32305,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>986</v>
       </c>
@@ -32364,7 +32375,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>989</v>
       </c>
@@ -32432,7 +32443,7 @@
       </c>
       <c r="W371" s="4"/>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>991</v>
       </c>
@@ -32502,7 +32513,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>994</v>
       </c>
@@ -32572,7 +32583,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>994</v>
       </c>
@@ -32642,7 +32653,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>999</v>
       </c>
@@ -32712,7 +32723,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>1002</v>
       </c>
@@ -32782,7 +32793,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>1004</v>
       </c>
@@ -32852,7 +32863,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>1007</v>
       </c>
@@ -32922,7 +32933,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>1010</v>
       </c>
@@ -32992,7 +33003,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>1013</v>
       </c>
@@ -33062,7 +33073,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>1016</v>
       </c>
@@ -33132,7 +33143,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>1019</v>
       </c>
@@ -33202,7 +33213,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>1022</v>
       </c>
@@ -33272,7 +33283,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>1025</v>
       </c>
@@ -33342,7 +33353,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>1028</v>
       </c>
@@ -33412,7 +33423,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>1030</v>
       </c>
@@ -33482,7 +33493,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>1032</v>
       </c>
@@ -33552,7 +33563,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>1035</v>
       </c>
@@ -33622,7 +33633,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>1038</v>
       </c>
@@ -33692,7 +33703,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>1040</v>
       </c>
@@ -33762,7 +33773,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>1043</v>
       </c>
@@ -33832,7 +33843,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>1046</v>
       </c>
@@ -33902,7 +33913,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>1049</v>
       </c>
@@ -33972,7 +33983,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>1051</v>
       </c>
@@ -34042,7 +34053,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" s="10" t="s">
         <v>1054</v>
       </c>
@@ -34112,7 +34123,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>1055</v>
       </c>
@@ -34182,7 +34193,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>1057</v>
       </c>
@@ -34252,7 +34263,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>1060</v>
       </c>
@@ -34322,7 +34333,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>1060</v>
       </c>
@@ -34392,7 +34403,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>1065</v>
       </c>
@@ -34462,7 +34473,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>1068</v>
       </c>
@@ -34532,7 +34543,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>1071</v>
       </c>
@@ -34602,7 +34613,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>1074</v>
       </c>
@@ -34672,7 +34683,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>1077</v>
       </c>
@@ -34742,7 +34753,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>1080</v>
       </c>
@@ -34812,7 +34823,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>1083</v>
       </c>
@@ -34882,7 +34893,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>1083</v>
       </c>
@@ -34952,7 +34963,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>1088</v>
       </c>
@@ -35020,7 +35031,7 @@
       <c r="V408" s="6"/>
       <c r="W408" s="4"/>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>1090</v>
       </c>
@@ -35090,7 +35101,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>1093</v>
       </c>
@@ -35160,7 +35171,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>1093</v>
       </c>
@@ -35230,7 +35241,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>1098</v>
       </c>
@@ -35300,7 +35311,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>1101</v>
       </c>
@@ -35370,7 +35381,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>1103</v>
       </c>
@@ -35440,7 +35451,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35510,7 +35521,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35580,7 +35591,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="417" spans="1:23">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35650,7 +35661,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="418" spans="1:23">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35720,7 +35731,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="419" spans="1:23">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35790,7 +35801,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="420" spans="1:23">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>1106</v>
       </c>
@@ -35860,7 +35871,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="421" spans="1:23">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>1119</v>
       </c>
@@ -35930,7 +35941,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>1121</v>
       </c>
@@ -36000,7 +36011,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>1124</v>
       </c>
@@ -36070,7 +36081,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>1126</v>
       </c>
@@ -36140,7 +36151,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="425" spans="1:23">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>1129</v>
       </c>
@@ -36210,7 +36221,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="426" spans="1:23">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>1132</v>
       </c>
@@ -36280,7 +36291,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="427" spans="1:23">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>1135</v>
       </c>
@@ -36350,7 +36361,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="428" spans="1:23">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>1138</v>
       </c>
@@ -36420,7 +36431,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="429" spans="1:23">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>1140</v>
       </c>
@@ -36490,7 +36501,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="430" spans="1:23">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>1143</v>
       </c>
@@ -36560,7 +36571,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="431" spans="1:23">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>1145</v>
       </c>
@@ -36630,7 +36641,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="432" spans="1:23">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" s="17" t="s">
         <v>1148</v>
       </c>
@@ -36702,7 +36713,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="433" spans="1:23">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" s="17" t="s">
         <v>1148</v>
       </c>
@@ -36774,7 +36785,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="434" spans="1:23">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>1154</v>
       </c>
@@ -36844,7 +36855,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>1154</v>
       </c>
@@ -36914,7 +36925,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>1159</v>
       </c>
@@ -36984,7 +36995,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>1161</v>
       </c>
@@ -37054,7 +37065,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="438" spans="1:23">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>1164</v>
       </c>
@@ -37124,7 +37135,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="439" spans="1:23">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>1167</v>
       </c>
@@ -37194,7 +37205,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="440" spans="1:23">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>1170</v>
       </c>
@@ -37264,7 +37275,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>1173</v>
       </c>
@@ -37334,7 +37345,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="442" spans="1:23">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>1173</v>
       </c>
@@ -37404,7 +37415,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>1178</v>
       </c>
@@ -37474,7 +37485,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="444" spans="1:23">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>1178</v>
       </c>
@@ -37544,7 +37555,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>1178</v>
       </c>
@@ -37614,7 +37625,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>1185</v>
       </c>
@@ -37684,7 +37695,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="447" spans="1:23">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>1188</v>
       </c>
@@ -37754,7 +37765,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="448" spans="1:23">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>1191</v>
       </c>
@@ -37824,7 +37835,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>1194</v>
       </c>
@@ -37894,7 +37905,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" s="17" t="s">
         <v>1196</v>
       </c>
@@ -37964,7 +37975,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="451" spans="1:23">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" s="17" t="s">
         <v>1196</v>
       </c>
@@ -38036,7 +38047,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="452" spans="1:23">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>1199</v>
       </c>
@@ -38106,7 +38117,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="453" spans="1:23">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>1201</v>
       </c>
@@ -38176,7 +38187,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="454" spans="1:23">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>1203</v>
       </c>
@@ -38246,7 +38257,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="455" spans="1:23">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>1205</v>
       </c>
@@ -38316,7 +38327,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="456" spans="1:23">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>1207</v>
       </c>
@@ -38386,7 +38397,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="457" spans="1:23">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>1210</v>
       </c>
@@ -38456,7 +38467,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="458" spans="1:23">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>1213</v>
       </c>
@@ -38526,7 +38537,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="459" spans="1:23">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>1216</v>
       </c>
@@ -38596,7 +38607,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="460" spans="1:23">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>1219</v>
       </c>
@@ -38666,7 +38677,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="461" spans="1:23">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>1222</v>
       </c>
@@ -38736,7 +38747,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="462" spans="1:23">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>1225</v>
       </c>
@@ -38806,7 +38817,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="463" spans="1:23">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>1227</v>
       </c>
@@ -38876,7 +38887,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="464" spans="1:23">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>1230</v>
       </c>
@@ -38946,7 +38957,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="465" spans="1:23">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>1232</v>
       </c>
@@ -39016,7 +39027,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="466" spans="1:23">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>1234</v>
       </c>
@@ -39086,7 +39097,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="467" spans="1:23">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>1237</v>
       </c>
@@ -39156,7 +39167,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="468" spans="1:23">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>1239</v>
       </c>
@@ -39226,7 +39237,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="469" spans="1:23">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>1241</v>
       </c>
@@ -39296,7 +39307,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="470" spans="1:23">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>1243</v>
       </c>
@@ -39366,7 +39377,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="471" spans="1:23">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>1245</v>
       </c>
@@ -39436,7 +39447,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="472" spans="1:23">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>1248</v>
       </c>
@@ -39506,7 +39517,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="473" spans="1:23">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>1251</v>
       </c>
@@ -39576,7 +39587,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="474" spans="1:23">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>1254</v>
       </c>
@@ -39646,7 +39657,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="475" spans="1:23">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
         <v>1254</v>
       </c>
@@ -39716,7 +39727,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="476" spans="1:23">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>1259</v>
       </c>
@@ -39786,7 +39797,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="477" spans="1:23">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="17" t="s">
         <v>1262</v>
       </c>
@@ -39856,7 +39867,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="478" spans="1:23">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" s="17" t="s">
         <v>1262</v>
       </c>
@@ -39926,7 +39937,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="479" spans="1:23">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>1267</v>
       </c>
@@ -39996,7 +40007,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="480" spans="1:23">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>1269</v>
       </c>
@@ -40066,7 +40077,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="481" spans="1:23">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>1271</v>
       </c>
@@ -40136,7 +40147,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="482" spans="1:23">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>1274</v>
       </c>
@@ -40206,7 +40217,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="483" spans="1:23">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>1276</v>
       </c>
@@ -40276,7 +40287,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="484" spans="1:23">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>1279</v>
       </c>
@@ -40346,7 +40357,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="485" spans="1:23">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>1281</v>
       </c>
@@ -40416,7 +40427,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="486" spans="1:23">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" s="17" t="s">
         <v>1281</v>
       </c>
@@ -40486,7 +40497,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="487" spans="1:23">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>1281</v>
       </c>
@@ -40556,7 +40567,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="488" spans="1:23">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>1286</v>
       </c>
@@ -40626,7 +40637,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="489" spans="1:23">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" s="17" t="s">
         <v>1284</v>
       </c>
@@ -40696,7 +40707,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="490" spans="1:23">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1288</v>
       </c>
@@ -40766,7 +40777,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="491" spans="1:23">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>1291</v>
       </c>
@@ -40836,7 +40847,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="492" spans="1:23">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>1291</v>
       </c>
@@ -40906,7 +40917,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="493" spans="1:23">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>1296</v>
       </c>
@@ -40976,7 +40987,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="494" spans="1:23">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>1296</v>
       </c>
@@ -41046,7 +41057,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="495" spans="1:23">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>1296</v>
       </c>
@@ -41116,7 +41127,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="496" spans="1:23">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>1303</v>
       </c>
@@ -41186,7 +41197,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="497" spans="1:23">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>1306</v>
       </c>
@@ -41256,7 +41267,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="498" spans="1:23">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>1308</v>
       </c>
@@ -41326,7 +41337,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="499" spans="1:23">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>1311</v>
       </c>
@@ -41396,7 +41407,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="500" spans="1:23">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>1312</v>
       </c>
@@ -41466,7 +41477,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="501" spans="1:23">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
         <v>1315</v>
       </c>
@@ -41536,7 +41547,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="502" spans="1:23">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
         <v>1317</v>
       </c>
@@ -41606,7 +41617,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="503" spans="1:23">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="4" t="s">
         <v>1320</v>
       </c>
@@ -41676,7 +41687,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="504" spans="1:23">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
         <v>1322</v>
       </c>
@@ -41746,7 +41757,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="505" spans="1:23">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
         <v>1324</v>
       </c>
@@ -41814,7 +41825,7 @@
       <c r="V505" s="14"/>
       <c r="W505" s="4"/>
     </row>
-    <row r="506" spans="1:23">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>1327</v>
       </c>
@@ -41884,7 +41895,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="507" spans="1:23">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" s="4" t="s">
         <v>1329</v>
       </c>
@@ -41954,7 +41965,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="508" spans="1:23">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
         <v>1331</v>
       </c>
@@ -42024,7 +42035,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="509" spans="1:23">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" s="4" t="s">
         <v>1334</v>
       </c>
@@ -42094,7 +42105,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="510" spans="1:23">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
         <v>1337</v>
       </c>
@@ -42164,7 +42175,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="511" spans="1:23">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="4" t="s">
         <v>1340</v>
       </c>
@@ -42234,7 +42245,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="512" spans="1:23">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>1343</v>
       </c>
@@ -42304,7 +42315,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="513" spans="1:23">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
         <v>1346</v>
       </c>
@@ -42374,7 +42385,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="514" spans="1:23">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
         <v>1348</v>
       </c>
@@ -42444,7 +42455,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="515" spans="1:23">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>1351</v>
       </c>
@@ -42514,7 +42525,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="516" spans="1:23">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
         <v>1353</v>
       </c>
@@ -42584,7 +42595,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="517" spans="1:23" s="30" customFormat="1">
+    <row r="517" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A517" s="26" t="s">
         <v>1356</v>
       </c>
@@ -42656,7 +42667,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="518" spans="1:23">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>1358</v>
       </c>
@@ -42726,7 +42737,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="519" spans="1:23">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
         <v>1361</v>
       </c>
@@ -42796,7 +42807,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="520" spans="1:23">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>1364</v>
       </c>
@@ -42868,7 +42879,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="521" spans="1:23">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
         <v>1368</v>
       </c>
@@ -42938,7 +42949,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="522" spans="1:23">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
         <v>1371</v>
       </c>
@@ -43008,7 +43019,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="523" spans="1:23">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
         <v>1374</v>
       </c>
@@ -43078,7 +43089,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="524" spans="1:23">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
         <v>1377</v>
       </c>
@@ -43148,7 +43159,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="525" spans="1:23">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
         <v>1380</v>
       </c>
@@ -43218,7 +43229,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="526" spans="1:23">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1383</v>
       </c>
@@ -43288,7 +43299,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="527" spans="1:23">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
         <v>1386</v>
       </c>
@@ -43358,7 +43369,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="528" spans="1:23">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
         <v>1387</v>
       </c>
@@ -43428,7 +43439,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="529" spans="1:23">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
         <v>1390</v>
       </c>
@@ -43498,7 +43509,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="530" spans="1:23">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>1392</v>
       </c>
@@ -43568,7 +43579,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="531" spans="1:23">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
         <v>1395</v>
       </c>
@@ -43638,7 +43649,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="532" spans="1:23">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
         <v>1398</v>
       </c>
@@ -43708,7 +43719,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="533" spans="1:23">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
         <v>1398</v>
       </c>
@@ -43778,7 +43789,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="534" spans="1:23">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>1403</v>
       </c>
@@ -43848,7 +43859,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="535" spans="1:23">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
         <v>1405</v>
       </c>
@@ -43918,7 +43929,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="536" spans="1:23">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
         <v>1405</v>
       </c>
@@ -43990,7 +44001,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="537" spans="1:23">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
         <v>1411</v>
       </c>
@@ -44060,7 +44071,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="538" spans="1:23">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
         <v>1411</v>
       </c>
@@ -44130,7 +44141,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="539" spans="1:23">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="4" t="s">
         <v>1411</v>
       </c>
@@ -44200,7 +44211,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="540" spans="1:23">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
         <v>1411</v>
       </c>
@@ -44270,7 +44281,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="541" spans="1:23">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
         <v>1420</v>
       </c>
@@ -44340,7 +44351,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="542" spans="1:23">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" s="21" t="s">
         <v>1420</v>
       </c>
@@ -44410,7 +44421,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="543" spans="1:23">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="21" t="s">
         <v>1420</v>
       </c>
@@ -44480,7 +44491,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="544" spans="1:23">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>1427</v>
       </c>
@@ -44550,7 +44561,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="545" spans="1:23">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
         <v>1427</v>
       </c>
@@ -44620,7 +44631,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="546" spans="1:23">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" s="21" t="s">
         <v>1427</v>
       </c>
@@ -44690,7 +44701,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="547" spans="1:23">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="21" t="s">
         <v>1427</v>
       </c>
@@ -44760,7 +44771,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="548" spans="1:23">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" s="21" t="s">
         <v>1427</v>
       </c>
@@ -44830,7 +44841,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="549" spans="1:23">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="21" t="s">
         <v>1427</v>
       </c>
@@ -44900,7 +44911,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="550" spans="1:23">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
         <v>1427</v>
       </c>
@@ -44970,7 +44981,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="551" spans="1:23">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" s="21" t="s">
         <v>1427</v>
       </c>
@@ -45040,7 +45051,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="552" spans="1:23">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552" s="21" t="s">
         <v>1427</v>
       </c>
@@ -45110,7 +45121,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="553" spans="1:23">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" s="21" t="s">
         <v>1427</v>
       </c>
@@ -45180,7 +45191,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="554" spans="1:23">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554" s="21" t="s">
         <v>1427</v>
       </c>
@@ -45250,7 +45261,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="555" spans="1:23">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="21" t="s">
         <v>1450</v>
       </c>
@@ -45320,7 +45331,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="556" spans="1:23">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>1453</v>
       </c>
@@ -45390,7 +45401,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="557" spans="1:23">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="4" t="s">
         <v>1456</v>
       </c>
@@ -45460,7 +45471,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="558" spans="1:23">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
         <v>1458</v>
       </c>
@@ -45530,7 +45541,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="559" spans="1:23">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
         <v>1461</v>
       </c>
@@ -45600,7 +45611,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="560" spans="1:23">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>1461</v>
       </c>
@@ -45670,7 +45681,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="561" spans="1:23">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
         <v>1461</v>
       </c>
@@ -45740,7 +45751,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="562" spans="1:23">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
         <v>1461</v>
       </c>
@@ -45810,7 +45821,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="563" spans="1:23">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>1461</v>
       </c>
@@ -45880,7 +45891,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="564" spans="1:23">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
         <v>1472</v>
       </c>
@@ -45950,7 +45961,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="565" spans="1:23">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
         <v>1473</v>
       </c>
@@ -46020,7 +46031,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="566" spans="1:23">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
         <v>1475</v>
       </c>
@@ -46090,7 +46101,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="567" spans="1:23">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
         <v>1478</v>
       </c>
@@ -46160,7 +46171,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="568" spans="1:23">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
         <v>1481</v>
       </c>
@@ -46230,7 +46241,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="569" spans="1:23">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
         <v>1484</v>
       </c>
@@ -46300,7 +46311,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="570" spans="1:23">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>1487</v>
       </c>
@@ -46370,7 +46381,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="571" spans="1:23">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
         <v>1490</v>
       </c>
@@ -46440,7 +46451,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="572" spans="1:23">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
         <v>1493</v>
       </c>
@@ -46510,7 +46521,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="573" spans="1:23">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
         <v>1495</v>
       </c>
@@ -46580,7 +46591,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="574" spans="1:23">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
         <v>1498</v>
       </c>
@@ -46650,7 +46661,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="575" spans="1:23">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575" s="4" t="s">
         <v>1501</v>
       </c>
@@ -46720,7 +46731,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="576" spans="1:23">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
         <v>1504</v>
       </c>
@@ -46790,7 +46801,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="577" spans="1:23">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577" s="4" t="s">
         <v>1507</v>
       </c>
@@ -46860,7 +46871,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="578" spans="1:23">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
         <v>1510</v>
       </c>
@@ -46930,7 +46941,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="579" spans="1:23">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" s="4" t="s">
         <v>1513</v>
       </c>
@@ -47000,7 +47011,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="580" spans="1:23">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>1516</v>
       </c>
@@ -47070,7 +47081,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="581" spans="1:23">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
         <v>1519</v>
       </c>
@@ -47140,7 +47151,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="582" spans="1:23">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
         <v>1522</v>
       </c>
@@ -47210,7 +47221,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="583" spans="1:23">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
         <v>1524</v>
       </c>
@@ -47280,7 +47291,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="584" spans="1:23">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
         <v>1526</v>
       </c>
@@ -47350,7 +47361,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="585" spans="1:23">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
         <v>1529</v>
       </c>
@@ -47420,7 +47431,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="586" spans="1:23">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
         <v>1531</v>
       </c>
@@ -47490,7 +47501,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="587" spans="1:23">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
         <v>1534</v>
       </c>
@@ -47560,7 +47571,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="588" spans="1:23">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
         <v>1537</v>
       </c>
@@ -47630,7 +47641,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="589" spans="1:23">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
         <v>1540</v>
       </c>
@@ -47700,7 +47711,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="590" spans="1:23">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
         <v>1542</v>
       </c>
@@ -47770,7 +47781,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="591" spans="1:23">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
         <v>1545</v>
       </c>
@@ -47840,7 +47851,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="592" spans="1:23">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
         <v>1548</v>
       </c>
@@ -47910,7 +47921,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="593" spans="1:23">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
         <v>1548</v>
       </c>
@@ -47980,7 +47991,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="594" spans="1:23">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>1553</v>
       </c>
@@ -48050,7 +48061,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="595" spans="1:23">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
         <v>1555</v>
       </c>
@@ -48120,7 +48131,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="596" spans="1:23">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>1558</v>
       </c>
@@ -48190,7 +48201,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="597" spans="1:23">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
         <v>1561</v>
       </c>
@@ -48260,7 +48271,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="598" spans="1:23">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
         <v>1564</v>
       </c>
@@ -48330,7 +48341,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="599" spans="1:23">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
         <v>1567</v>
       </c>
@@ -48400,7 +48411,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="600" spans="1:23">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
         <v>1570</v>
       </c>
@@ -48470,7 +48481,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="601" spans="1:23">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
         <v>1572</v>
       </c>
@@ -48540,7 +48551,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="602" spans="1:23">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
         <v>1575</v>
       </c>
@@ -48610,7 +48621,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="603" spans="1:23">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
         <v>1577</v>
       </c>
@@ -48680,7 +48691,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="604" spans="1:23">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
         <v>1580</v>
       </c>
@@ -48752,7 +48763,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="605" spans="1:23">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
         <v>1583</v>
       </c>
@@ -48822,7 +48833,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="606" spans="1:23">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
         <v>1586</v>
       </c>
@@ -48892,7 +48903,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="607" spans="1:23">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" s="4" t="s">
         <v>1589</v>
       </c>
@@ -48962,7 +48973,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="608" spans="1:23">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
         <v>1592</v>
       </c>
@@ -49032,7 +49043,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="609" spans="1:23">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="4" t="s">
         <v>1595</v>
       </c>
@@ -49102,7 +49113,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="610" spans="1:23">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>1598</v>
       </c>
@@ -49172,7 +49183,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="611" spans="1:23">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
         <v>1600</v>
       </c>
@@ -49242,7 +49253,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="612" spans="1:23">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>1602</v>
       </c>
@@ -49312,7 +49323,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="613" spans="1:23">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
         <v>1605</v>
       </c>
@@ -49382,7 +49393,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="614" spans="1:23">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614" s="4" t="s">
         <v>1608</v>
       </c>
@@ -49452,7 +49463,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="615" spans="1:23">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
         <v>1610</v>
       </c>
@@ -49522,7 +49533,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="616" spans="1:23">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
         <v>1613</v>
       </c>
@@ -49592,7 +49603,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="617" spans="1:23">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
         <v>1616</v>
       </c>
@@ -49662,7 +49673,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="618" spans="1:23">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1619</v>
       </c>
@@ -49732,7 +49743,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="619" spans="1:23">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
         <v>1622</v>
       </c>
@@ -49802,7 +49813,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="620" spans="1:23">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
         <v>1624</v>
       </c>
@@ -49872,7 +49883,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="621" spans="1:23">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
         <v>1627</v>
       </c>
@@ -49942,7 +49953,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="622" spans="1:23">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
         <v>1630</v>
       </c>
@@ -50012,7 +50023,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="623" spans="1:23">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
         <v>1634</v>
       </c>
@@ -50082,7 +50093,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="624" spans="1:23">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
         <v>1637</v>
       </c>
@@ -50152,7 +50163,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="625" spans="1:23">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>1640</v>
       </c>
@@ -50222,7 +50233,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="626" spans="1:23">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
         <v>1643</v>
       </c>
@@ -50292,7 +50303,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="627" spans="1:23">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627" s="4" t="s">
         <v>1646</v>
       </c>
@@ -50362,7 +50373,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="628" spans="1:23">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>1649</v>
       </c>
@@ -50432,7 +50443,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="629" spans="1:23">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" s="4" t="s">
         <v>1652</v>
       </c>
@@ -50504,7 +50515,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="630" spans="1:23">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>1655</v>
       </c>
@@ -50574,7 +50585,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="631" spans="1:23">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
         <v>1657</v>
       </c>
@@ -50644,7 +50655,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="632" spans="1:23">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
         <v>1660</v>
       </c>
@@ -50714,7 +50725,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="633" spans="1:23">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
         <v>1663</v>
       </c>
@@ -50782,6 +50793,75 @@
       <c r="V633" s="6"/>
       <c r="W633" s="4" t="s">
         <v>1664</v>
+      </c>
+    </row>
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A634" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C634" s="5">
+        <v>43525.694039351853</v>
+      </c>
+      <c r="D634" s="5">
+        <v>43700.345891203702</v>
+      </c>
+      <c r="E634" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F634" s="6">
+        <v>67459</v>
+      </c>
+      <c r="G634" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H634" s="6">
+        <v>10</v>
+      </c>
+      <c r="I634" s="6">
+        <v>23</v>
+      </c>
+      <c r="J634" s="6">
+        <v>120</v>
+      </c>
+      <c r="K634" s="6">
+        <v>1587</v>
+      </c>
+      <c r="L634" s="6">
+        <v>542</v>
+      </c>
+      <c r="M634" s="6">
+        <v>335</v>
+      </c>
+      <c r="N634" s="6">
+        <v>1362</v>
+      </c>
+      <c r="O634" s="6">
+        <v>391</v>
+      </c>
+      <c r="P634" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q634" s="6">
+        <v>8</v>
+      </c>
+      <c r="R634" s="6">
+        <v>6</v>
+      </c>
+      <c r="S634" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="T634" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U634" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V634" s="6"/>
+      <c r="W634" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -51316,9 +51396,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="W543" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B543" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B373" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="W543" r:id="rId1"/>
+    <hyperlink ref="B543" r:id="rId2"/>
+    <hyperlink ref="B373" r:id="rId3"/>
+    <hyperlink ref="S634" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1672">
   <si>
     <t>owner</t>
   </si>
@@ -5071,6 +5071,15 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>Partii</t>
+  </si>
+  <si>
+    <t>PartI</t>
+  </si>
+  <si>
+    <t>PartII</t>
   </si>
 </sst>
 </file>
@@ -5504,14 +5513,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D426" sqref="D426"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U264" sqref="U264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5611,7 +5620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -5744,12 +5753,14 @@
       <c r="U3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="9"/>
+      <c r="V3" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -5886,12 +5897,14 @@
       <c r="U5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="9"/>
+      <c r="V5" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -5959,7 +5972,7 @@
       </c>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
@@ -6092,12 +6105,14 @@
       <c r="U8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -6302,7 +6317,9 @@
       <c r="U11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="9"/>
+      <c r="V11" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W11" s="9" t="s">
         <v>57</v>
       </c>
@@ -6372,12 +6389,14 @@
       <c r="U12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="9"/>
+      <c r="V12" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W12" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -6510,7 +6529,9 @@
       <c r="U14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="9"/>
+      <c r="V14" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W14" s="9" t="s">
         <v>57</v>
       </c>
@@ -6580,7 +6601,9 @@
       <c r="U15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="9"/>
+      <c r="V15" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W15" s="9" t="s">
         <v>60</v>
       </c>
@@ -6650,7 +6673,9 @@
       <c r="U16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="9"/>
+      <c r="V16" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W16" s="9" t="s">
         <v>40</v>
       </c>
@@ -6720,7 +6745,9 @@
       <c r="U17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="9"/>
+      <c r="V17" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W17" s="9" t="s">
         <v>76</v>
       </c>
@@ -6790,12 +6817,14 @@
       <c r="U18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V18" s="9"/>
+      <c r="V18" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -6867,7 +6896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
@@ -6939,7 +6968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>88</v>
       </c>
@@ -7007,7 +7036,7 @@
       </c>
       <c r="W21" s="9"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
@@ -7075,7 +7104,7 @@
       </c>
       <c r="W22" s="9"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
@@ -7147,7 +7176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -7280,7 +7309,9 @@
       <c r="U25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="9"/>
+      <c r="V25" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W25" s="9" t="s">
         <v>101</v>
       </c>
@@ -7350,7 +7381,9 @@
       <c r="U26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V26" s="9"/>
+      <c r="V26" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W26" s="9" t="s">
         <v>36</v>
       </c>
@@ -7420,12 +7453,14 @@
       <c r="U27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="9"/>
+      <c r="V27" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W27" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
@@ -7562,7 +7597,9 @@
       <c r="U29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="9"/>
+      <c r="V29" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W29" s="9" t="s">
         <v>60</v>
       </c>
@@ -7632,7 +7669,9 @@
       <c r="U30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="9"/>
+      <c r="V30" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W30" s="9" t="s">
         <v>60</v>
       </c>
@@ -7702,7 +7741,9 @@
       <c r="U31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V31" s="9"/>
+      <c r="V31" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W31" s="9" t="s">
         <v>60</v>
       </c>
@@ -7772,12 +7813,14 @@
       <c r="U32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V32" s="9"/>
+      <c r="V32" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W32" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -7914,7 +7957,9 @@
       <c r="U34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="9"/>
+      <c r="V34" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W34" s="9" t="s">
         <v>87</v>
       </c>
@@ -7984,7 +8029,9 @@
       <c r="U35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V35" s="9"/>
+      <c r="V35" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W35" s="9" t="s">
         <v>95</v>
       </c>
@@ -8054,7 +8101,9 @@
       <c r="U36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V36" s="9"/>
+      <c r="V36" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W36" s="9" t="s">
         <v>57</v>
       </c>
@@ -8124,7 +8173,9 @@
       <c r="U37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V37" s="9"/>
+      <c r="V37" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W37" s="9" t="s">
         <v>60</v>
       </c>
@@ -8194,12 +8245,14 @@
       <c r="U38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="9"/>
+      <c r="V38" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W38" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>111</v>
       </c>
@@ -8336,7 +8389,9 @@
       <c r="U40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="9"/>
+      <c r="V40" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W40" s="9" t="s">
         <v>60</v>
       </c>
@@ -8406,7 +8461,9 @@
       <c r="U41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V41" s="9"/>
+      <c r="V41" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W41" s="9" t="s">
         <v>57</v>
       </c>
@@ -8476,7 +8533,9 @@
       <c r="U42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V42" s="9"/>
+      <c r="V42" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W42" s="10" t="s">
         <v>36</v>
       </c>
@@ -8546,7 +8605,9 @@
       <c r="U43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V43" s="9"/>
+      <c r="V43" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W43" s="9" t="s">
         <v>60</v>
       </c>
@@ -8616,12 +8677,14 @@
       <c r="U44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V44" s="9"/>
+      <c r="V44" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W44" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -8754,7 +8817,9 @@
       <c r="U46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V46" s="9"/>
+      <c r="V46" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W46" s="10" t="s">
         <v>76</v>
       </c>
@@ -8824,7 +8889,9 @@
       <c r="U47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V47" s="9"/>
+      <c r="V47" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W47" s="9" t="s">
         <v>60</v>
       </c>
@@ -8894,7 +8961,9 @@
       <c r="U48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V48" s="9"/>
+      <c r="V48" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W48" s="10" t="s">
         <v>57</v>
       </c>
@@ -8964,7 +9033,9 @@
       <c r="U49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="10"/>
+      <c r="V49" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W49" s="9" t="s">
         <v>60</v>
       </c>
@@ -9034,12 +9105,14 @@
       <c r="U50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V50" s="9"/>
+      <c r="V50" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W50" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
@@ -9107,7 +9180,7 @@
       </c>
       <c r="W51" s="9"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>111</v>
       </c>
@@ -9240,12 +9313,14 @@
       <c r="U53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V53" s="9"/>
+      <c r="V53" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W53" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>111</v>
       </c>
@@ -9378,7 +9453,9 @@
       <c r="U55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V55" s="10"/>
+      <c r="V55" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W55" s="9" t="s">
         <v>60</v>
       </c>
@@ -9448,7 +9525,9 @@
       <c r="U56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V56" s="9"/>
+      <c r="V56" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W56" s="9" t="s">
         <v>169</v>
       </c>
@@ -9518,7 +9597,9 @@
       <c r="U57" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V57" s="9"/>
+      <c r="V57" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W57" s="9" t="s">
         <v>60</v>
       </c>
@@ -9588,12 +9669,14 @@
       <c r="U58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V58" s="9"/>
+      <c r="V58" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W58" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>111</v>
       </c>
@@ -9730,7 +9813,9 @@
       <c r="U60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V60" s="9"/>
+      <c r="V60" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W60" s="9" t="s">
         <v>36</v>
       </c>
@@ -9800,7 +9885,9 @@
       <c r="U61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V61" s="9"/>
+      <c r="V61" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W61" s="9" t="s">
         <v>60</v>
       </c>
@@ -9870,12 +9957,14 @@
       <c r="U62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V62" s="9"/>
+      <c r="V62" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W62" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>111</v>
       </c>
@@ -10012,12 +10101,14 @@
       <c r="U64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V64" s="9"/>
+      <c r="V64" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W64" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>111</v>
       </c>
@@ -10154,12 +10245,14 @@
       <c r="U66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V66" s="10"/>
+      <c r="V66" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W66" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>111</v>
       </c>
@@ -10296,7 +10389,9 @@
       <c r="U68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V68" s="9"/>
+      <c r="V68" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W68" s="9" t="s">
         <v>36</v>
       </c>
@@ -10366,7 +10461,9 @@
       <c r="U69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V69" s="9"/>
+      <c r="V69" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W69" s="10" t="s">
         <v>60</v>
       </c>
@@ -10436,7 +10533,9 @@
       <c r="U70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V70" s="9"/>
+      <c r="V70" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W70" s="9" t="s">
         <v>76</v>
       </c>
@@ -10506,7 +10605,9 @@
       <c r="U71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="9"/>
+      <c r="V71" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W71" s="9" t="s">
         <v>36</v>
       </c>
@@ -10576,7 +10677,9 @@
       <c r="U72" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V72" s="9"/>
+      <c r="V72" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W72" s="9" t="s">
         <v>36</v>
       </c>
@@ -10646,7 +10749,9 @@
       <c r="U73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V73" s="9"/>
+      <c r="V73" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W73" s="9" t="s">
         <v>36</v>
       </c>
@@ -10716,7 +10821,9 @@
       <c r="U74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V74" s="10"/>
+      <c r="V74" s="10" t="s">
+        <v>1670</v>
+      </c>
       <c r="W74" s="10" t="s">
         <v>60</v>
       </c>
@@ -10786,7 +10893,9 @@
       <c r="U75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V75" s="9"/>
+      <c r="V75" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W75" s="9" t="s">
         <v>36</v>
       </c>
@@ -10856,12 +10965,14 @@
       <c r="U76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V76" s="9"/>
+      <c r="V76" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W76" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>111</v>
       </c>
@@ -10994,7 +11105,9 @@
       <c r="U78" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V78" s="9"/>
+      <c r="V78" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W78" s="10" t="s">
         <v>60</v>
       </c>
@@ -11064,12 +11177,14 @@
       <c r="U79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V79" s="10"/>
+      <c r="V79" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W79" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>111</v>
       </c>
@@ -11206,7 +11321,9 @@
       <c r="U81" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V81" s="9"/>
+      <c r="V81" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W81" s="9" t="s">
         <v>57</v>
       </c>
@@ -11276,7 +11393,9 @@
       <c r="U82" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V82" s="9"/>
+      <c r="V82" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W82" s="10" t="s">
         <v>60</v>
       </c>
@@ -11346,7 +11465,9 @@
       <c r="U83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V83" s="9"/>
+      <c r="V83" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W83" s="10" t="s">
         <v>60</v>
       </c>
@@ -11416,12 +11537,14 @@
       <c r="U84" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V84" s="9"/>
+      <c r="V84" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W84" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>111</v>
       </c>
@@ -11489,7 +11612,7 @@
       </c>
       <c r="W85" s="9"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>111</v>
       </c>
@@ -11557,7 +11680,7 @@
       </c>
       <c r="W86" s="9"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>111</v>
       </c>
@@ -11690,7 +11813,9 @@
       <c r="U88" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V88" s="9"/>
+      <c r="V88" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W88" s="9" t="s">
         <v>36</v>
       </c>
@@ -11760,12 +11885,14 @@
       <c r="U89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V89" s="9"/>
+      <c r="V89" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W89" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>239</v>
       </c>
@@ -11833,7 +11960,7 @@
       </c>
       <c r="W90" s="9"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>242</v>
       </c>
@@ -11970,12 +12097,14 @@
       <c r="U92" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V92" s="9"/>
+      <c r="V92" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W92" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>248</v>
       </c>
@@ -12043,7 +12172,7 @@
       </c>
       <c r="W93" s="9"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>251</v>
       </c>
@@ -12180,7 +12309,9 @@
       <c r="U95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V95" s="9"/>
+      <c r="V95" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W95" s="9" t="s">
         <v>76</v>
       </c>
@@ -12250,7 +12381,9 @@
       <c r="U96" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V96" s="9"/>
+      <c r="V96" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W96" s="9" t="s">
         <v>261</v>
       </c>
@@ -12320,12 +12453,14 @@
       <c r="U97" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V97" s="9"/>
+      <c r="V97" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W97" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>265</v>
       </c>
@@ -12458,7 +12593,9 @@
       <c r="U99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V99" s="9"/>
+      <c r="V99" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W99" s="9" t="s">
         <v>270</v>
       </c>
@@ -12528,7 +12665,9 @@
       <c r="U100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V100" s="9"/>
+      <c r="V100" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W100" s="9" t="s">
         <v>36</v>
       </c>
@@ -12598,12 +12737,14 @@
       <c r="U101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V101" s="9"/>
+      <c r="V101" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W101" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>276</v>
       </c>
@@ -12671,7 +12812,7 @@
       </c>
       <c r="W102" s="9"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>279</v>
       </c>
@@ -12808,7 +12949,9 @@
       <c r="U104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V104" s="9"/>
+      <c r="V104" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W104" s="9" t="s">
         <v>57</v>
       </c>
@@ -12878,12 +13021,14 @@
       <c r="U105" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V105" s="9"/>
+      <c r="V105" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W105" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>286</v>
       </c>
@@ -12951,7 +13096,7 @@
       </c>
       <c r="W106" s="9"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>286</v>
       </c>
@@ -13019,7 +13164,7 @@
       </c>
       <c r="W107" s="9"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>292</v>
       </c>
@@ -13087,7 +13232,7 @@
       </c>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>295</v>
       </c>
@@ -13220,7 +13365,9 @@
       <c r="U110" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V110" s="9"/>
+      <c r="V110" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W110" s="9" t="s">
         <v>36</v>
       </c>
@@ -13290,7 +13437,9 @@
       <c r="U111" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V111" s="9"/>
+      <c r="V111" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W111" s="9" t="s">
         <v>87</v>
       </c>
@@ -13360,12 +13509,14 @@
       <c r="U112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V112" s="9"/>
+      <c r="V112" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W112" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>308</v>
       </c>
@@ -13498,7 +13649,9 @@
       <c r="U114" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V114" s="9"/>
+      <c r="V114" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W114" s="9" t="s">
         <v>313</v>
       </c>
@@ -13568,7 +13721,9 @@
       <c r="U115" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V115" s="9"/>
+      <c r="V115" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W115" s="9" t="s">
         <v>313</v>
       </c>
@@ -13638,7 +13793,9 @@
       <c r="U116" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V116" s="9"/>
+      <c r="V116" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W116" s="9" t="s">
         <v>313</v>
       </c>
@@ -13708,12 +13865,14 @@
       <c r="U117" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V117" s="9"/>
+      <c r="V117" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W117" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>321</v>
       </c>
@@ -13846,7 +14005,9 @@
       <c r="U119" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V119" s="9"/>
+      <c r="V119" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W119" s="9" t="s">
         <v>83</v>
       </c>
@@ -13916,12 +14077,14 @@
       <c r="U120" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V120" s="9"/>
+      <c r="V120" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W120" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>329</v>
       </c>
@@ -14054,7 +14217,9 @@
       <c r="U122" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V122" s="9"/>
+      <c r="V122" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W122" s="9" t="s">
         <v>60</v>
       </c>
@@ -14124,7 +14289,9 @@
       <c r="U123" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V123" s="9"/>
+      <c r="V123" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W123" s="9" t="s">
         <v>60</v>
       </c>
@@ -14194,7 +14361,9 @@
       <c r="U124" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V124" s="9"/>
+      <c r="V124" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W124" s="9" t="s">
         <v>60</v>
       </c>
@@ -14264,7 +14433,9 @@
       <c r="U125" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V125" s="9"/>
+      <c r="V125" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W125" s="12" t="s">
         <v>31</v>
       </c>
@@ -14334,12 +14505,14 @@
       <c r="U126" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V126" s="9"/>
+      <c r="V126" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W126" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>346</v>
       </c>
@@ -14476,12 +14649,14 @@
       <c r="U128" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V128" s="9"/>
+      <c r="V128" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W128" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>351</v>
       </c>
@@ -14618,7 +14793,9 @@
       <c r="U130" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V130" s="9"/>
+      <c r="V130" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W130" s="9" t="s">
         <v>101</v>
       </c>
@@ -14688,7 +14865,9 @@
       <c r="U131" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V131" s="9"/>
+      <c r="V131" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W131" s="9" t="s">
         <v>36</v>
       </c>
@@ -14758,7 +14937,9 @@
       <c r="U132" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V132" s="9"/>
+      <c r="V132" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W132" s="9" t="s">
         <v>40</v>
       </c>
@@ -14828,12 +15009,14 @@
       <c r="U133" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V133" s="9"/>
+      <c r="V133" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W133" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>365</v>
       </c>
@@ -14905,7 +15088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>368</v>
       </c>
@@ -14977,7 +15160,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>371</v>
       </c>
@@ -15110,7 +15293,9 @@
       <c r="U137" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V137" s="10"/>
+      <c r="V137" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W137" s="9" t="s">
         <v>87</v>
       </c>
@@ -15180,7 +15365,9 @@
       <c r="U138" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V138" s="9"/>
+      <c r="V138" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W138" s="12" t="s">
         <v>107</v>
       </c>
@@ -15250,12 +15437,14 @@
       <c r="U139" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V139" s="9"/>
+      <c r="V139" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W139" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>381</v>
       </c>
@@ -15327,7 +15516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>384</v>
       </c>
@@ -15462,12 +15651,14 @@
       <c r="U142" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V142" s="9"/>
+      <c r="V142" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W142" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>390</v>
       </c>
@@ -15604,7 +15795,9 @@
       <c r="U144" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V144" s="9"/>
+      <c r="V144" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W144" s="9" t="s">
         <v>254</v>
       </c>
@@ -15674,7 +15867,9 @@
       <c r="U145" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V145" s="9"/>
+      <c r="V145" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W145" s="9" t="s">
         <v>36</v>
       </c>
@@ -15744,7 +15939,9 @@
       <c r="U146" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V146" s="9"/>
+      <c r="V146" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W146" s="9" t="s">
         <v>87</v>
       </c>
@@ -15814,7 +16011,9 @@
       <c r="U147" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V147" s="9"/>
+      <c r="V147" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W147" s="9" t="s">
         <v>95</v>
       </c>
@@ -15884,7 +16083,9 @@
       <c r="U148" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V148" s="10"/>
+      <c r="V148" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W148" s="9" t="s">
         <v>169</v>
       </c>
@@ -15954,7 +16155,9 @@
       <c r="U149" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V149" s="9"/>
+      <c r="V149" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W149" s="9" t="s">
         <v>349</v>
       </c>
@@ -16024,7 +16227,9 @@
       <c r="U150" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V150" s="9"/>
+      <c r="V150" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W150" s="9" t="s">
         <v>254</v>
       </c>
@@ -16094,12 +16299,14 @@
       <c r="U151" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V151" s="9"/>
+      <c r="V151" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W151" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>412</v>
       </c>
@@ -16232,7 +16439,9 @@
       <c r="U153" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V153" s="9"/>
+      <c r="V153" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W153" s="10" t="s">
         <v>60</v>
       </c>
@@ -16302,7 +16511,9 @@
       <c r="U154" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V154" s="10"/>
+      <c r="V154" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W154" s="10" t="s">
         <v>60</v>
       </c>
@@ -16372,12 +16583,14 @@
       <c r="U155" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V155" s="9"/>
+      <c r="V155" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W155" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>423</v>
       </c>
@@ -16510,7 +16723,9 @@
       <c r="U157" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V157" s="10"/>
+      <c r="V157" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W157" s="10" t="s">
         <v>60</v>
       </c>
@@ -16580,7 +16795,9 @@
       <c r="U158" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V158" s="9"/>
+      <c r="V158" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W158" s="9" t="s">
         <v>430</v>
       </c>
@@ -16650,12 +16867,14 @@
       <c r="U159" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V159" s="9"/>
+      <c r="V159" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W159" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>434</v>
       </c>
@@ -16727,7 +16946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>434</v>
       </c>
@@ -16860,7 +17079,9 @@
       <c r="U162" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V162" s="9"/>
+      <c r="V162" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W162" s="12" t="s">
         <v>31</v>
       </c>
@@ -16930,12 +17151,14 @@
       <c r="U163" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V163" s="9"/>
+      <c r="V163" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W163" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>445</v>
       </c>
@@ -17003,7 +17226,7 @@
       </c>
       <c r="W164" s="9"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>448</v>
       </c>
@@ -17136,7 +17359,9 @@
       <c r="U166" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V166" s="9"/>
+      <c r="V166" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W166" s="9" t="s">
         <v>36</v>
       </c>
@@ -17206,7 +17431,9 @@
       <c r="U167" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V167" s="9"/>
+      <c r="V167" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W167" s="10" t="s">
         <v>60</v>
       </c>
@@ -17276,12 +17503,14 @@
       <c r="U168" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V168" s="9"/>
+      <c r="V168" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W168" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>458</v>
       </c>
@@ -17353,7 +17582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>461</v>
       </c>
@@ -17486,7 +17715,9 @@
       <c r="U171" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V171" s="9"/>
+      <c r="V171" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W171" s="9" t="s">
         <v>36</v>
       </c>
@@ -17556,12 +17787,14 @@
       <c r="U172" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V172" s="9"/>
+      <c r="V172" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W172" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>469</v>
       </c>
@@ -17694,7 +17927,9 @@
       <c r="U174" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V174" s="9"/>
+      <c r="V174" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W174" s="9" t="s">
         <v>83</v>
       </c>
@@ -17764,7 +17999,9 @@
       <c r="U175" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V175" s="9"/>
+      <c r="V175" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W175" s="9" t="s">
         <v>83</v>
       </c>
@@ -17834,12 +18071,14 @@
       <c r="U176" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V176" s="9"/>
+      <c r="V176" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W176" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>481</v>
       </c>
@@ -17976,7 +18215,9 @@
       <c r="U178" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V178" s="9"/>
+      <c r="V178" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W178" s="9" t="s">
         <v>169</v>
       </c>
@@ -18046,12 +18287,14 @@
       <c r="U179" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V179" s="9"/>
+      <c r="V179" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W179" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>488</v>
       </c>
@@ -18119,7 +18362,7 @@
       </c>
       <c r="W180" s="9"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>488</v>
       </c>
@@ -18187,7 +18430,7 @@
       </c>
       <c r="W181" s="9"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>493</v>
       </c>
@@ -18324,7 +18567,9 @@
       <c r="U183" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V183" s="9"/>
+      <c r="V183" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W183" s="9" t="s">
         <v>60</v>
       </c>
@@ -18394,12 +18639,14 @@
       <c r="U184" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V184" s="9"/>
+      <c r="V184" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W184" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>499</v>
       </c>
@@ -18471,7 +18718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>499</v>
       </c>
@@ -18539,7 +18786,7 @@
       </c>
       <c r="W186" s="9"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>499</v>
       </c>
@@ -18676,7 +18923,9 @@
       <c r="U188" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V188" s="9"/>
+      <c r="V188" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W188" s="9" t="s">
         <v>57</v>
       </c>
@@ -18746,7 +18995,9 @@
       <c r="U189" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V189" s="10"/>
+      <c r="V189" s="10" t="s">
+        <v>1671</v>
+      </c>
       <c r="W189" s="10" t="s">
         <v>60</v>
       </c>
@@ -18891,7 +19142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>519</v>
       </c>
@@ -19028,7 +19279,7 @@
       <c r="U193" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V193" s="9"/>
+      <c r="V193" s="10"/>
       <c r="W193" s="10" t="s">
         <v>60</v>
       </c>
@@ -19098,7 +19349,7 @@
       <c r="U194" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V194" s="9"/>
+      <c r="V194" s="10"/>
       <c r="W194" s="9" t="s">
         <v>40</v>
       </c>
@@ -19168,7 +19419,7 @@
       <c r="U195" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V195" s="9"/>
+      <c r="V195" s="10"/>
       <c r="W195" s="9" t="s">
         <v>36</v>
       </c>
@@ -19238,12 +19489,12 @@
       <c r="U196" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V196" s="9"/>
+      <c r="V196" s="10"/>
       <c r="W196" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>533</v>
       </c>
@@ -19311,7 +19562,7 @@
       </c>
       <c r="W197" s="9"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>537</v>
       </c>
@@ -19444,7 +19695,7 @@
       <c r="U199" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V199" s="9"/>
+      <c r="V199" s="10"/>
       <c r="W199" s="9" t="s">
         <v>57</v>
       </c>
@@ -19514,12 +19765,12 @@
       <c r="U200" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V200" s="9"/>
+      <c r="V200" s="10"/>
       <c r="W200" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>545</v>
       </c>
@@ -19652,7 +19903,7 @@
       <c r="U202" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V202" s="9"/>
+      <c r="V202" s="10"/>
       <c r="W202" s="9" t="s">
         <v>101</v>
       </c>
@@ -19722,12 +19973,12 @@
       <c r="U203" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V203" s="9"/>
+      <c r="V203" s="10"/>
       <c r="W203" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>545</v>
       </c>
@@ -19860,7 +20111,7 @@
       <c r="U205" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V205" s="9"/>
+      <c r="V205" s="10"/>
       <c r="W205" s="10" t="s">
         <v>60</v>
       </c>
@@ -19930,7 +20181,7 @@
       <c r="U206" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V206" s="9"/>
+      <c r="V206" s="10"/>
       <c r="W206" s="9" t="s">
         <v>36</v>
       </c>
@@ -20000,12 +20251,12 @@
       <c r="U207" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V207" s="9"/>
+      <c r="V207" s="10"/>
       <c r="W207" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>562</v>
       </c>
@@ -20138,7 +20389,7 @@
       <c r="U209" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V209" s="9"/>
+      <c r="V209" s="10"/>
       <c r="W209" s="9" t="s">
         <v>87</v>
       </c>
@@ -20208,7 +20459,7 @@
       <c r="U210" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V210" s="9"/>
+      <c r="V210" s="10"/>
       <c r="W210" s="9" t="s">
         <v>36</v>
       </c>
@@ -20278,12 +20529,12 @@
       <c r="U211" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V211" s="9"/>
+      <c r="V211" s="10"/>
       <c r="W211" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>572</v>
       </c>
@@ -20420,7 +20671,7 @@
       <c r="U213" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V213" s="9"/>
+      <c r="V213" s="10"/>
       <c r="W213" s="12" t="s">
         <v>31</v>
       </c>
@@ -20490,7 +20741,7 @@
       <c r="U214" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V214" s="9"/>
+      <c r="V214" s="10"/>
       <c r="W214" s="9" t="s">
         <v>36</v>
       </c>
@@ -20560,7 +20811,7 @@
       <c r="U215" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V215" s="9"/>
+      <c r="V215" s="10"/>
       <c r="W215" s="9" t="s">
         <v>36</v>
       </c>
@@ -20630,7 +20881,7 @@
       <c r="U216" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V216" s="9"/>
+      <c r="V216" s="10"/>
       <c r="W216" s="10" t="s">
         <v>60</v>
       </c>
@@ -20700,12 +20951,12 @@
       <c r="U217" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V217" s="9"/>
+      <c r="V217" s="10"/>
       <c r="W217" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>587</v>
       </c>
@@ -20777,7 +21028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>587</v>
       </c>
@@ -20849,7 +21100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>587</v>
       </c>
@@ -20921,7 +21172,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>596</v>
       </c>
@@ -20989,7 +21240,7 @@
       </c>
       <c r="W221" s="9"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>599</v>
       </c>
@@ -21057,7 +21308,7 @@
       </c>
       <c r="W222" s="9"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>602</v>
       </c>
@@ -21129,7 +21380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>604</v>
       </c>
@@ -21266,12 +21517,12 @@
       <c r="U225" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V225" s="9"/>
+      <c r="V225" s="10"/>
       <c r="W225" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>610</v>
       </c>
@@ -21339,7 +21590,7 @@
       </c>
       <c r="W226" s="9"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>613</v>
       </c>
@@ -21476,7 +21727,7 @@
       <c r="U228" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V228" s="9"/>
+      <c r="V228" s="10"/>
       <c r="W228" s="9" t="s">
         <v>57</v>
       </c>
@@ -21546,7 +21797,7 @@
       <c r="U229" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V229" s="9"/>
+      <c r="V229" s="10"/>
       <c r="W229" s="10" t="s">
         <v>60</v>
       </c>
@@ -21616,7 +21867,7 @@
       <c r="U230" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V230" s="9"/>
+      <c r="V230" s="10"/>
       <c r="W230" s="10" t="s">
         <v>60</v>
       </c>
@@ -21686,7 +21937,7 @@
       <c r="U231" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V231" s="9"/>
+      <c r="V231" s="10"/>
       <c r="W231" s="9" t="s">
         <v>40</v>
       </c>
@@ -21756,12 +22007,12 @@
       <c r="U232" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V232" s="9"/>
+      <c r="V232" s="10"/>
       <c r="W232" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>628</v>
       </c>
@@ -21833,7 +22084,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>630</v>
       </c>
@@ -21905,7 +22156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>633</v>
       </c>
@@ -22038,7 +22289,7 @@
       <c r="U236" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V236" s="9"/>
+      <c r="V236" s="10"/>
       <c r="W236" s="9" t="s">
         <v>83</v>
       </c>
@@ -22113,7 +22364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>638</v>
       </c>
@@ -22250,7 +22501,7 @@
       <c r="U239" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V239" s="9"/>
+      <c r="V239" s="10"/>
       <c r="W239" s="9" t="s">
         <v>254</v>
       </c>
@@ -22320,12 +22571,12 @@
       <c r="U240" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V240" s="9"/>
+      <c r="V240" s="10"/>
       <c r="W240" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>638</v>
       </c>
@@ -22458,12 +22709,12 @@
       <c r="U242" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V242" s="9"/>
+      <c r="V242" s="10"/>
       <c r="W242" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>638</v>
       </c>
@@ -22598,7 +22849,7 @@
       <c r="U244" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V244" s="9"/>
+      <c r="V244" s="10"/>
       <c r="W244" s="10" t="s">
         <v>36</v>
       </c>
@@ -22668,7 +22919,7 @@
       <c r="U245" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V245" s="9"/>
+      <c r="V245" s="10"/>
       <c r="W245" s="12" t="s">
         <v>76</v>
       </c>
@@ -22738,7 +22989,7 @@
       <c r="U246" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V246" s="9"/>
+      <c r="V246" s="10"/>
       <c r="W246" s="9" t="s">
         <v>254</v>
       </c>
@@ -22808,7 +23059,7 @@
       <c r="U247" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V247" s="9"/>
+      <c r="V247" s="10"/>
       <c r="W247" s="9" t="s">
         <v>36</v>
       </c>
@@ -22878,12 +23129,12 @@
       <c r="U248" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V248" s="9"/>
+      <c r="V248" s="10"/>
       <c r="W248" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>638</v>
       </c>
@@ -23018,7 +23269,7 @@
       <c r="U250" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V250" s="9"/>
+      <c r="V250" s="10"/>
       <c r="W250" s="9" t="s">
         <v>36</v>
       </c>
@@ -23088,7 +23339,7 @@
       <c r="U251" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V251" s="9"/>
+      <c r="V251" s="10"/>
       <c r="W251" s="9" t="s">
         <v>36</v>
       </c>
@@ -23158,7 +23409,7 @@
       <c r="U252" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V252" s="9"/>
+      <c r="V252" s="10"/>
       <c r="W252" s="9" t="s">
         <v>36</v>
       </c>
@@ -23228,12 +23479,12 @@
       <c r="U253" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V253" s="9"/>
+      <c r="V253" s="10"/>
       <c r="W253" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>673</v>
       </c>
@@ -23301,7 +23552,7 @@
       </c>
       <c r="W254" s="9"/>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>673</v>
       </c>
@@ -23434,12 +23685,12 @@
       <c r="U256" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V256" s="9"/>
+      <c r="V256" s="10"/>
       <c r="W256" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>681</v>
       </c>
@@ -23572,7 +23823,7 @@
       <c r="U258" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V258" s="9"/>
+      <c r="V258" s="10"/>
       <c r="W258" s="12" t="s">
         <v>31</v>
       </c>
@@ -23642,7 +23893,7 @@
       <c r="U259" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V259" s="9"/>
+      <c r="V259" s="10"/>
       <c r="W259" s="10" t="s">
         <v>60</v>
       </c>
@@ -23712,12 +23963,12 @@
       <c r="U260" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V260" s="9"/>
+      <c r="V260" s="10"/>
       <c r="W260" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>690</v>
       </c>
@@ -23850,7 +24101,7 @@
       <c r="U262" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V262" s="9"/>
+      <c r="V262" s="10"/>
       <c r="W262" s="9" t="s">
         <v>169</v>
       </c>
@@ -23920,7 +24171,7 @@
       <c r="U263" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V263" s="9"/>
+      <c r="V263" s="10"/>
       <c r="W263" s="9" t="s">
         <v>76</v>
       </c>
@@ -23990,12 +24241,12 @@
       <c r="U264" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V264" s="9"/>
+      <c r="V264" s="10"/>
       <c r="W264" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>702</v>
       </c>
@@ -24067,7 +24318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>705</v>
       </c>
@@ -24135,7 +24386,7 @@
       </c>
       <c r="W266" s="9"/>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>707</v>
       </c>
@@ -24268,12 +24519,12 @@
       <c r="U268" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V268" s="9"/>
+      <c r="V268" s="10"/>
       <c r="W268" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>713</v>
       </c>
@@ -24341,7 +24592,7 @@
       </c>
       <c r="W269" s="9"/>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>716</v>
       </c>
@@ -24474,7 +24725,7 @@
       <c r="U271" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V271" s="9"/>
+      <c r="V271" s="10"/>
       <c r="W271" s="10" t="s">
         <v>60</v>
       </c>
@@ -24544,7 +24795,7 @@
       <c r="U272" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V272" s="9"/>
+      <c r="V272" s="10"/>
       <c r="W272" s="9" t="s">
         <v>101</v>
       </c>
@@ -24614,12 +24865,12 @@
       <c r="U273" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V273" s="9"/>
+      <c r="V273" s="10"/>
       <c r="W273" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>727</v>
       </c>
@@ -24752,12 +25003,12 @@
       <c r="U275" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V275" s="9"/>
+      <c r="V275" s="10"/>
       <c r="W275" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>732</v>
       </c>
@@ -24890,7 +25141,7 @@
       <c r="U277" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V277" s="9"/>
+      <c r="V277" s="10"/>
       <c r="W277" s="9" t="s">
         <v>101</v>
       </c>
@@ -24960,12 +25211,12 @@
       <c r="U278" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V278" s="9"/>
+      <c r="V278" s="10"/>
       <c r="W278" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>741</v>
       </c>
@@ -25033,7 +25284,7 @@
       </c>
       <c r="W279" s="9"/>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>744</v>
       </c>
@@ -25105,7 +25356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>747</v>
       </c>
@@ -25242,7 +25493,7 @@
       <c r="U282" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V282" s="9"/>
+      <c r="V282" s="10"/>
       <c r="W282" s="9" t="s">
         <v>87</v>
       </c>
@@ -25312,7 +25563,7 @@
       <c r="U283" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V283" s="9"/>
+      <c r="V283" s="10"/>
       <c r="W283" s="9" t="s">
         <v>87</v>
       </c>
@@ -25382,7 +25633,7 @@
       <c r="U284" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V284" s="9"/>
+      <c r="V284" s="10"/>
       <c r="W284" s="9" t="s">
         <v>76</v>
       </c>
@@ -25452,7 +25703,7 @@
       <c r="U285" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V285" s="9"/>
+      <c r="V285" s="10"/>
       <c r="W285" s="9" t="s">
         <v>261</v>
       </c>
@@ -25522,7 +25773,7 @@
       <c r="U286" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V286" s="9"/>
+      <c r="V286" s="10"/>
       <c r="W286" s="9" t="s">
         <v>36</v>
       </c>
@@ -25592,12 +25843,12 @@
       <c r="U287" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V287" s="9"/>
+      <c r="V287" s="10"/>
       <c r="W287" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>766</v>
       </c>
@@ -25730,12 +25981,12 @@
       <c r="U289" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V289" s="9"/>
+      <c r="V289" s="10"/>
       <c r="W289" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>772</v>
       </c>
@@ -25807,7 +26058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>775</v>
       </c>
@@ -25940,12 +26191,12 @@
       <c r="U292" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V292" s="9"/>
+      <c r="V292" s="10"/>
       <c r="W292" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>781</v>
       </c>
@@ -26017,7 +26268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>784</v>
       </c>
@@ -26085,7 +26336,7 @@
       </c>
       <c r="W294" s="9"/>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>787</v>
       </c>
@@ -26218,7 +26469,7 @@
       <c r="U296" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V296" s="9"/>
+      <c r="V296" s="10"/>
       <c r="W296" s="9" t="s">
         <v>430</v>
       </c>
@@ -26288,12 +26539,12 @@
       <c r="U297" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V297" s="9"/>
+      <c r="V297" s="10"/>
       <c r="W297" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>796</v>
       </c>
@@ -26430,7 +26681,7 @@
       <c r="U299" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V299" s="9"/>
+      <c r="V299" s="10"/>
       <c r="W299" s="12" t="s">
         <v>430</v>
       </c>
@@ -26500,12 +26751,12 @@
       <c r="U300" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V300" s="9"/>
+      <c r="V300" s="10"/>
       <c r="W300" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>804</v>
       </c>
@@ -26778,7 +27029,7 @@
       <c r="U304" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V304" s="9"/>
+      <c r="V304" s="10"/>
       <c r="W304" s="9" t="s">
         <v>36</v>
       </c>
@@ -26848,12 +27099,14 @@
       <c r="U305" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V305" s="9"/>
+      <c r="V305" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W305" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>820</v>
       </c>
@@ -26986,7 +27239,9 @@
       <c r="U307" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V307" s="9"/>
+      <c r="V307" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W307" s="9" t="s">
         <v>169</v>
       </c>
@@ -27056,12 +27311,14 @@
       <c r="U308" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V308" s="9"/>
+      <c r="V308" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W308" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>827</v>
       </c>
@@ -27198,7 +27455,9 @@
       <c r="U310" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V310" s="9"/>
+      <c r="V310" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W310" s="9" t="s">
         <v>76</v>
       </c>
@@ -27268,7 +27527,9 @@
       <c r="U311" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V311" s="9"/>
+      <c r="V311" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W311" s="10" t="s">
         <v>60</v>
       </c>
@@ -27338,7 +27599,9 @@
       <c r="U312" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V312" s="9"/>
+      <c r="V312" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W312" s="9" t="s">
         <v>83</v>
       </c>
@@ -27408,7 +27671,9 @@
       <c r="U313" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V313" s="9"/>
+      <c r="V313" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W313" s="9" t="s">
         <v>57</v>
       </c>
@@ -27478,7 +27743,9 @@
       <c r="U314" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V314" s="9"/>
+      <c r="V314" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W314" s="9" t="s">
         <v>83</v>
       </c>
@@ -27548,7 +27815,9 @@
       <c r="U315" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V315" s="9"/>
+      <c r="V315" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W315" s="9" t="s">
         <v>83</v>
       </c>
@@ -27618,12 +27887,14 @@
       <c r="U316" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V316" s="9"/>
+      <c r="V316" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W316" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>847</v>
       </c>
@@ -27695,7 +27966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>850</v>
       </c>
@@ -27767,7 +28038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>853</v>
       </c>
@@ -27900,12 +28171,14 @@
       <c r="U320" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V320" s="9"/>
+      <c r="V320" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W320" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>853</v>
       </c>
@@ -27973,7 +28246,7 @@
       </c>
       <c r="W321" s="9"/>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>853</v>
       </c>
@@ -28045,7 +28318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>862</v>
       </c>
@@ -28182,7 +28455,9 @@
       <c r="U324" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V324" s="9"/>
+      <c r="V324" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W324" s="9" t="s">
         <v>36</v>
       </c>
@@ -28252,12 +28527,14 @@
       <c r="U325" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V325" s="9"/>
+      <c r="V325" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W325" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>871</v>
       </c>
@@ -28390,7 +28667,9 @@
       <c r="U327" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V327" s="9"/>
+      <c r="V327" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W327" s="9" t="s">
         <v>261</v>
       </c>
@@ -28460,7 +28739,9 @@
       <c r="U328" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V328" s="9"/>
+      <c r="V328" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W328" s="9" t="s">
         <v>430</v>
       </c>
@@ -28530,12 +28811,14 @@
       <c r="U329" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V329" s="9"/>
+      <c r="V329" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W329" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>881</v>
       </c>
@@ -28672,12 +28955,14 @@
       <c r="U331" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V331" s="9"/>
+      <c r="V331" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W331" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>885</v>
       </c>
@@ -28814,7 +29099,9 @@
       <c r="U333" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V333" s="9"/>
+      <c r="V333" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W333" s="9" t="s">
         <v>36</v>
       </c>
@@ -28884,7 +29171,9 @@
       <c r="U334" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V334" s="9"/>
+      <c r="V334" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W334" s="9" t="s">
         <v>36</v>
       </c>
@@ -28954,12 +29243,14 @@
       <c r="U335" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V335" s="9"/>
+      <c r="V335" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W335" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>895</v>
       </c>
@@ -29031,7 +29322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>898</v>
       </c>
@@ -29099,7 +29390,7 @@
       </c>
       <c r="W337" s="9"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>901</v>
       </c>
@@ -29236,7 +29527,9 @@
       <c r="U339" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V339" s="9"/>
+      <c r="V339" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W339" s="9" t="s">
         <v>36</v>
       </c>
@@ -29306,7 +29599,9 @@
       <c r="U340" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V340" s="9"/>
+      <c r="V340" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W340" s="10" t="s">
         <v>60</v>
       </c>
@@ -29376,7 +29671,9 @@
       <c r="U341" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V341" s="9"/>
+      <c r="V341" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W341" s="9" t="s">
         <v>254</v>
       </c>
@@ -29446,12 +29743,14 @@
       <c r="U342" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V342" s="9"/>
+      <c r="V342" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W342" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>915</v>
       </c>
@@ -29519,7 +29818,7 @@
       </c>
       <c r="W343" s="9"/>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>918</v>
       </c>
@@ -29587,7 +29886,7 @@
       </c>
       <c r="W344" s="9"/>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>921</v>
       </c>
@@ -29655,7 +29954,7 @@
       </c>
       <c r="W345" s="9"/>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>924</v>
       </c>
@@ -29723,7 +30022,7 @@
       </c>
       <c r="W346" s="9"/>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>927</v>
       </c>
@@ -29856,7 +30155,9 @@
       <c r="U348" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V348" s="10"/>
+      <c r="V348" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W348" s="10" t="s">
         <v>60</v>
       </c>
@@ -29926,7 +30227,9 @@
       <c r="U349" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V349" s="9"/>
+      <c r="V349" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W349" s="9" t="s">
         <v>254</v>
       </c>
@@ -29996,7 +30299,9 @@
       <c r="U350" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V350" s="9"/>
+      <c r="V350" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W350" s="9" t="s">
         <v>95</v>
       </c>
@@ -30066,12 +30371,14 @@
       <c r="U351" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V351" s="9"/>
+      <c r="V351" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W351" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>940</v>
       </c>
@@ -30204,12 +30511,14 @@
       <c r="U353" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V353" s="9"/>
+      <c r="V353" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W353" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>943</v>
       </c>
@@ -30281,7 +30590,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>943</v>
       </c>
@@ -30418,7 +30727,9 @@
       <c r="U356" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V356" s="9"/>
+      <c r="V356" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W356" s="9" t="s">
         <v>349</v>
       </c>
@@ -30488,7 +30799,9 @@
       <c r="U357" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V357" s="9"/>
+      <c r="V357" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W357" s="18" t="s">
         <v>36</v>
       </c>
@@ -30558,7 +30871,9 @@
       <c r="U358" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V358" s="9"/>
+      <c r="V358" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W358" s="9" t="s">
         <v>313</v>
       </c>
@@ -30628,7 +30943,9 @@
       <c r="U359" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V359" s="9"/>
+      <c r="V359" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W359" s="9" t="s">
         <v>76</v>
       </c>
@@ -30698,7 +31015,9 @@
       <c r="U360" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V360" s="9"/>
+      <c r="V360" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W360" s="9" t="s">
         <v>36</v>
       </c>
@@ -30768,12 +31087,14 @@
       <c r="U361" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V361" s="9"/>
+      <c r="V361" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W361" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>966</v>
       </c>
@@ -30845,7 +31166,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>969</v>
       </c>
@@ -30978,7 +31299,9 @@
       <c r="U364" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V364" s="9"/>
+      <c r="V364" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W364" s="9" t="s">
         <v>57</v>
       </c>
@@ -31048,7 +31371,9 @@
       <c r="U365" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V365" s="9"/>
+      <c r="V365" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W365" s="9" t="s">
         <v>36</v>
       </c>
@@ -31118,12 +31443,14 @@
       <c r="U366" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V366" s="9"/>
+      <c r="V366" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W366" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>980</v>
       </c>
@@ -31195,7 +31522,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>983</v>
       </c>
@@ -31332,7 +31659,9 @@
       <c r="U369" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V369" s="9"/>
+      <c r="V369" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W369" s="10" t="s">
         <v>60</v>
       </c>
@@ -31402,7 +31731,9 @@
       <c r="U370" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V370" s="9"/>
+      <c r="V370" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W370" s="9" t="s">
         <v>40</v>
       </c>
@@ -31472,7 +31803,9 @@
       <c r="U371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V371" s="9"/>
+      <c r="V371" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W371" s="9" t="s">
         <v>101</v>
       </c>
@@ -31540,7 +31873,9 @@
       <c r="U372" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V372" s="9"/>
+      <c r="V372" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W372" s="12" t="s">
         <v>31</v>
       </c>
@@ -31610,7 +31945,9 @@
       <c r="U373" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V373" s="9"/>
+      <c r="V373" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W373" s="9" t="s">
         <v>36</v>
       </c>
@@ -31680,7 +32017,9 @@
       <c r="U374" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V374" s="9"/>
+      <c r="V374" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W374" s="9" t="s">
         <v>36</v>
       </c>
@@ -31750,12 +32089,14 @@
       <c r="U375" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V375" s="9"/>
+      <c r="V375" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W375" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>1004</v>
       </c>
@@ -31888,12 +32229,14 @@
       <c r="U377" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V377" s="9"/>
+      <c r="V377" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W377" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>1009</v>
       </c>
@@ -31961,7 +32304,7 @@
       </c>
       <c r="W378" s="9"/>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>1012</v>
       </c>
@@ -32098,7 +32441,9 @@
       <c r="U380" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V380" s="9"/>
+      <c r="V380" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W380" s="9" t="s">
         <v>36</v>
       </c>
@@ -32168,7 +32513,9 @@
       <c r="U381" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V381" s="9"/>
+      <c r="V381" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W381" s="9" t="s">
         <v>40</v>
       </c>
@@ -32238,7 +32585,9 @@
       <c r="U382" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V382" s="9"/>
+      <c r="V382" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W382" s="9" t="s">
         <v>87</v>
       </c>
@@ -32308,7 +32657,9 @@
       <c r="U383" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V383" s="9"/>
+      <c r="V383" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W383" s="9" t="s">
         <v>36</v>
       </c>
@@ -32378,7 +32729,9 @@
       <c r="U384" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V384" s="9"/>
+      <c r="V384" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W384" s="9" t="s">
         <v>40</v>
       </c>
@@ -32448,7 +32801,9 @@
       <c r="U385" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V385" s="9"/>
+      <c r="V385" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W385" s="9" t="s">
         <v>36</v>
       </c>
@@ -32518,12 +32873,14 @@
       <c r="U386" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V386" s="9"/>
+      <c r="V386" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W386" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>1035</v>
       </c>
@@ -32660,7 +33017,9 @@
       <c r="U388" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V388" s="9"/>
+      <c r="V388" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W388" s="9" t="s">
         <v>36</v>
       </c>
@@ -32730,12 +33089,14 @@
       <c r="U389" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V389" s="9"/>
+      <c r="V389" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W389" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>1043</v>
       </c>
@@ -32868,7 +33229,9 @@
       <c r="U391" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V391" s="9"/>
+      <c r="V391" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W391" s="9" t="s">
         <v>169</v>
       </c>
@@ -32938,12 +33301,14 @@
       <c r="U392" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V392" s="9"/>
+      <c r="V392" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W392" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>1051</v>
       </c>
@@ -33080,7 +33445,9 @@
       <c r="U394" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V394" s="9"/>
+      <c r="V394" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W394" s="9" t="s">
         <v>40</v>
       </c>
@@ -33150,7 +33517,9 @@
       <c r="U395" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V395" s="9"/>
+      <c r="V395" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W395" s="9" t="s">
         <v>87</v>
       </c>
@@ -33220,7 +33589,9 @@
       <c r="U396" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V396" s="9"/>
+      <c r="V396" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W396" s="9" t="s">
         <v>83</v>
       </c>
@@ -33290,12 +33661,14 @@
       <c r="U397" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V397" s="9"/>
+      <c r="V397" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W397" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>1062</v>
       </c>
@@ -33363,7 +33736,7 @@
       </c>
       <c r="W398" s="9"/>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>1065</v>
       </c>
@@ -33496,7 +33869,9 @@
       <c r="U400" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V400" s="10"/>
+      <c r="V400" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W400" s="10" t="s">
         <v>60</v>
       </c>
@@ -33566,7 +33941,9 @@
       <c r="U401" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V401" s="9"/>
+      <c r="V401" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W401" s="9" t="s">
         <v>76</v>
       </c>
@@ -33636,7 +34013,9 @@
       <c r="U402" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V402" s="10"/>
+      <c r="V402" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W402" s="10" t="s">
         <v>60</v>
       </c>
@@ -33706,12 +34085,14 @@
       <c r="U403" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V403" s="9"/>
+      <c r="V403" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W403" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>1079</v>
       </c>
@@ -33844,7 +34225,9 @@
       <c r="U405" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V405" s="9"/>
+      <c r="V405" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W405" s="9" t="s">
         <v>36</v>
       </c>
@@ -33914,12 +34297,14 @@
       <c r="U406" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V406" s="9"/>
+      <c r="V406" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W406" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>1088</v>
       </c>
@@ -33987,7 +34372,7 @@
       </c>
       <c r="W407" s="9"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>1088</v>
       </c>
@@ -34055,7 +34440,7 @@
       </c>
       <c r="W408" s="9"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>1093</v>
       </c>
@@ -34190,7 +34575,9 @@
       <c r="U410" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V410" s="9"/>
+      <c r="V410" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W410" s="9" t="s">
         <v>254</v>
       </c>
@@ -34260,12 +34647,14 @@
       <c r="U411" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V411" s="9"/>
+      <c r="V411" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W411" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>1098</v>
       </c>
@@ -34402,12 +34791,14 @@
       <c r="U413" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V413" s="9"/>
+      <c r="V413" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W413" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>1106</v>
       </c>
@@ -34540,12 +34931,14 @@
       <c r="U415" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V415" s="10"/>
+      <c r="V415" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W415" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>1111</v>
       </c>
@@ -34617,7 +35010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>1111</v>
       </c>
@@ -34754,12 +35147,14 @@
       <c r="U418" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V418" s="9"/>
+      <c r="V418" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W418" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>1111</v>
       </c>
@@ -34827,7 +35222,7 @@
       </c>
       <c r="W419" s="9"/>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>1111</v>
       </c>
@@ -34964,7 +35359,9 @@
       <c r="U421" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V421" s="9"/>
+      <c r="V421" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W421" s="9" t="s">
         <v>57</v>
       </c>
@@ -35034,7 +35431,9 @@
       <c r="U422" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V422" s="9"/>
+      <c r="V422" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W422" s="9" t="s">
         <v>76</v>
       </c>
@@ -35104,7 +35503,9 @@
       <c r="U423" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V423" s="9"/>
+      <c r="V423" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W423" s="9" t="s">
         <v>36</v>
       </c>
@@ -35174,12 +35575,14 @@
       <c r="U424" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V424" s="9"/>
+      <c r="V424" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W424" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>1131</v>
       </c>
@@ -35251,7 +35654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>1134</v>
       </c>
@@ -35323,7 +35726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>1137</v>
       </c>
@@ -35460,12 +35863,14 @@
       <c r="U428" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V428" s="9"/>
+      <c r="V428" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W428" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>1143</v>
       </c>
@@ -35598,7 +36003,9 @@
       <c r="U430" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V430" s="9"/>
+      <c r="V430" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W430" s="9" t="s">
         <v>36</v>
       </c>
@@ -35668,7 +36075,9 @@
       <c r="U431" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V431" s="9"/>
+      <c r="V431" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W431" s="9" t="s">
         <v>87</v>
       </c>
@@ -35738,12 +36147,14 @@
       <c r="U432" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V432" s="9"/>
+      <c r="V432" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W432" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="20" t="s">
         <v>1153</v>
       </c>
@@ -35811,7 +36222,7 @@
       </c>
       <c r="W433" s="9"/>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="20" t="s">
         <v>1153</v>
       </c>
@@ -35944,7 +36355,9 @@
       <c r="U435" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V435" s="9"/>
+      <c r="V435" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W435" s="10" t="s">
         <v>60</v>
       </c>
@@ -36014,7 +36427,9 @@
       <c r="U436" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V436" s="9"/>
+      <c r="V436" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W436" s="10" t="s">
         <v>60</v>
       </c>
@@ -36084,7 +36499,9 @@
       <c r="U437" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V437" s="9"/>
+      <c r="V437" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W437" s="9" t="s">
         <v>60</v>
       </c>
@@ -36154,7 +36571,9 @@
       <c r="U438" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V438" s="9"/>
+      <c r="V438" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W438" s="10" t="s">
         <v>60</v>
       </c>
@@ -36224,12 +36643,14 @@
       <c r="U439" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V439" s="9"/>
+      <c r="V439" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W439" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>1171</v>
       </c>
@@ -36366,7 +36787,9 @@
       <c r="U441" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V441" s="9"/>
+      <c r="V441" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W441" s="9" t="s">
         <v>261</v>
       </c>
@@ -36436,7 +36859,9 @@
       <c r="U442" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V442" s="9"/>
+      <c r="V442" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W442" s="9" t="s">
         <v>169</v>
       </c>
@@ -36506,7 +36931,9 @@
       <c r="U443" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V443" s="9"/>
+      <c r="V443" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W443" s="9" t="s">
         <v>169</v>
       </c>
@@ -36576,7 +37003,9 @@
       <c r="U444" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V444" s="9"/>
+      <c r="V444" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W444" s="9" t="s">
         <v>254</v>
       </c>
@@ -36646,7 +37075,9 @@
       <c r="U445" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V445" s="9"/>
+      <c r="V445" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W445" s="9" t="s">
         <v>36</v>
       </c>
@@ -36716,12 +37147,14 @@
       <c r="U446" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V446" s="9"/>
+      <c r="V446" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W446" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>1189</v>
       </c>
@@ -36789,7 +37222,7 @@
       </c>
       <c r="W447" s="9"/>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>1192</v>
       </c>
@@ -36857,7 +37290,7 @@
       </c>
       <c r="W448" s="9"/>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>1195</v>
       </c>
@@ -36990,12 +37423,14 @@
       <c r="U450" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V450" s="9"/>
+      <c r="V450" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W450" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>1200</v>
       </c>
@@ -37128,7 +37563,9 @@
       <c r="U452" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V452" s="9"/>
+      <c r="V452" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W452" s="9" t="s">
         <v>270</v>
       </c>
@@ -37198,12 +37635,14 @@
       <c r="U453" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V453" s="9"/>
+      <c r="V453" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W453" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>1205</v>
       </c>
@@ -37271,7 +37710,7 @@
       </c>
       <c r="W454" s="9"/>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>1207</v>
       </c>
@@ -37408,7 +37847,9 @@
       <c r="U456" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V456" s="9"/>
+      <c r="V456" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W456" s="10" t="s">
         <v>87</v>
       </c>
@@ -37478,7 +37919,9 @@
       <c r="U457" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V457" s="9"/>
+      <c r="V457" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W457" s="10" t="s">
         <v>60</v>
       </c>
@@ -37548,7 +37991,9 @@
       <c r="U458" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V458" s="9"/>
+      <c r="V458" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W458" s="9" t="s">
         <v>87</v>
       </c>
@@ -37618,12 +38063,14 @@
       <c r="U459" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V459" s="9"/>
+      <c r="V459" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W459" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>1220</v>
       </c>
@@ -37756,7 +38203,9 @@
       <c r="U461" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V461" s="9"/>
+      <c r="V461" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W461" s="10" t="s">
         <v>60</v>
       </c>
@@ -37826,7 +38275,9 @@
       <c r="U462" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V462" s="9"/>
+      <c r="V462" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W462" s="9" t="s">
         <v>36</v>
       </c>
@@ -37896,12 +38347,14 @@
       <c r="U463" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V463" s="9"/>
+      <c r="V463" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W463" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>1231</v>
       </c>
@@ -37973,7 +38426,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>1234</v>
       </c>
@@ -38110,7 +38563,9 @@
       <c r="U466" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V466" s="9"/>
+      <c r="V466" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W466" s="9" t="s">
         <v>60</v>
       </c>
@@ -38180,7 +38635,9 @@
       <c r="U467" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V467" s="10"/>
+      <c r="V467" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W467" s="10" t="s">
         <v>60</v>
       </c>
@@ -38250,7 +38707,9 @@
       <c r="U468" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V468" s="9"/>
+      <c r="V468" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W468" s="9" t="s">
         <v>36</v>
       </c>
@@ -38320,12 +38779,14 @@
       <c r="U469" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V469" s="9"/>
+      <c r="V469" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W469" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>1245</v>
       </c>
@@ -38462,12 +38923,14 @@
       <c r="U471" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V471" s="9"/>
+      <c r="V471" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W471" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>1249</v>
       </c>
@@ -38539,7 +39002,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>1253</v>
       </c>
@@ -38676,7 +39139,9 @@
       <c r="U474" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V474" s="9"/>
+      <c r="V474" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W474" s="9" t="s">
         <v>95</v>
       </c>
@@ -38746,7 +39211,9 @@
       <c r="U475" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V475" s="9"/>
+      <c r="V475" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W475" s="9" t="s">
         <v>36</v>
       </c>
@@ -38816,7 +39283,9 @@
       <c r="U476" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V476" s="9"/>
+      <c r="V476" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W476" s="9" t="s">
         <v>36</v>
       </c>
@@ -38886,7 +39355,9 @@
       <c r="U477" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V477" s="9"/>
+      <c r="V477" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W477" s="9" t="s">
         <v>101</v>
       </c>
@@ -38956,7 +39427,9 @@
       <c r="U478" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V478" s="9"/>
+      <c r="V478" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W478" s="9" t="s">
         <v>83</v>
       </c>
@@ -39026,7 +39499,9 @@
       <c r="U479" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V479" s="9"/>
+      <c r="V479" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W479" s="10" t="s">
         <v>1272</v>
       </c>
@@ -39096,7 +39571,9 @@
       <c r="U480" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V480" s="9"/>
+      <c r="V480" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W480" s="9" t="s">
         <v>60</v>
       </c>
@@ -39166,12 +39643,14 @@
       <c r="U481" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V481" s="10"/>
+      <c r="V481" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W481" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>1277</v>
       </c>
@@ -39239,7 +39718,7 @@
       </c>
       <c r="W482" s="9"/>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>1280</v>
       </c>
@@ -39376,7 +39855,9 @@
       <c r="U484" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V484" s="9"/>
+      <c r="V484" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W484" s="9" t="s">
         <v>36</v>
       </c>
@@ -39446,12 +39927,14 @@
       <c r="U485" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V485" s="9"/>
+      <c r="V485" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W485" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="25" t="s">
         <v>1287</v>
       </c>
@@ -39519,7 +40002,7 @@
       </c>
       <c r="W486" s="9"/>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>1287</v>
       </c>
@@ -39587,7 +40070,7 @@
       </c>
       <c r="W487" s="9"/>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>1287</v>
       </c>
@@ -39659,7 +40142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>1292</v>
       </c>
@@ -39731,7 +40214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1288</v>
       </c>
@@ -39864,7 +40347,9 @@
       <c r="U491" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V491" s="9"/>
+      <c r="V491" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W491" s="9" t="s">
         <v>36</v>
       </c>
@@ -39934,7 +40419,9 @@
       <c r="U492" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V492" s="9"/>
+      <c r="V492" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W492" s="9" t="s">
         <v>36</v>
       </c>
@@ -40004,7 +40491,9 @@
       <c r="U493" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V493" s="9"/>
+      <c r="V493" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W493" s="9" t="s">
         <v>76</v>
       </c>
@@ -40074,7 +40563,9 @@
       <c r="U494" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V494" s="9"/>
+      <c r="V494" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W494" s="9" t="s">
         <v>1252</v>
       </c>
@@ -40144,7 +40635,9 @@
       <c r="U495" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V495" s="9"/>
+      <c r="V495" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W495" s="9" t="s">
         <v>1252</v>
       </c>
@@ -40214,12 +40707,14 @@
       <c r="U496" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V496" s="9"/>
+      <c r="V496" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W496" s="9" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>1309</v>
       </c>
@@ -40352,12 +40847,14 @@
       <c r="U498" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V498" s="10"/>
+      <c r="V498" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W498" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>1314</v>
       </c>
@@ -40429,7 +40926,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>1317</v>
       </c>
@@ -40566,7 +41063,9 @@
       <c r="U501" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V501" s="9"/>
+      <c r="V501" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W501" s="9" t="s">
         <v>36</v>
       </c>
@@ -40636,7 +41135,9 @@
       <c r="U502" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V502" s="9"/>
+      <c r="V502" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W502" s="9" t="s">
         <v>36</v>
       </c>
@@ -40706,7 +41207,9 @@
       <c r="U503" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V503" s="9"/>
+      <c r="V503" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W503" s="10" t="s">
         <v>83</v>
       </c>
@@ -40776,7 +41279,9 @@
       <c r="U504" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V504" s="9"/>
+      <c r="V504" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W504" s="10" t="s">
         <v>60</v>
       </c>
@@ -40846,12 +41351,14 @@
       <c r="U505" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V505" s="9"/>
+      <c r="V505" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W505" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>1330</v>
       </c>
@@ -40982,7 +41489,9 @@
       <c r="U507" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V507" s="9"/>
+      <c r="V507" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W507" s="9" t="s">
         <v>36</v>
       </c>
@@ -41052,12 +41561,14 @@
       <c r="U508" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V508" s="9"/>
+      <c r="V508" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W508" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4" t="s">
         <v>1336</v>
       </c>
@@ -41129,7 +41640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
         <v>1339</v>
       </c>
@@ -41266,12 +41777,14 @@
       <c r="U511" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V511" s="9"/>
+      <c r="V511" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W511" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>1345</v>
       </c>
@@ -41404,7 +41917,9 @@
       <c r="U513" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V513" s="9"/>
+      <c r="V513" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W513" s="9" t="s">
         <v>169</v>
       </c>
@@ -41474,12 +41989,14 @@
       <c r="U514" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V514" s="9"/>
+      <c r="V514" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W514" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>1353</v>
       </c>
@@ -41612,7 +42129,9 @@
       <c r="U516" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V516" s="9"/>
+      <c r="V516" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W516" s="9" t="s">
         <v>83</v>
       </c>
@@ -41682,12 +42201,14 @@
       <c r="U517" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V517" s="9"/>
+      <c r="V517" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W517" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>1361</v>
       </c>
@@ -41820,7 +42341,9 @@
       <c r="U519" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V519" s="9"/>
+      <c r="V519" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W519" s="10" t="s">
         <v>60</v>
       </c>
@@ -41890,12 +42413,14 @@
       <c r="U520" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V520" s="9"/>
+      <c r="V520" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W520" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
         <v>1369</v>
       </c>
@@ -42028,7 +42553,9 @@
       <c r="U522" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V522" s="9"/>
+      <c r="V522" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W522" s="9" t="s">
         <v>36</v>
       </c>
@@ -42098,7 +42625,9 @@
       <c r="U523" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V523" s="9"/>
+      <c r="V523" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W523" s="9" t="s">
         <v>254</v>
       </c>
@@ -42168,7 +42697,9 @@
       <c r="U524" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V524" s="9"/>
+      <c r="V524" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W524" s="9" t="s">
         <v>261</v>
       </c>
@@ -42238,12 +42769,14 @@
       <c r="U525" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V525" s="9"/>
+      <c r="V525" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W525" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1384</v>
       </c>
@@ -42376,7 +42909,9 @@
       <c r="U527" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V527" s="9"/>
+      <c r="V527" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W527" s="9" t="s">
         <v>254</v>
       </c>
@@ -42446,12 +42981,14 @@
       <c r="U528" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V528" s="9"/>
+      <c r="V528" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W528" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
         <v>1391</v>
       </c>
@@ -42519,7 +43056,7 @@
       </c>
       <c r="W529" s="9"/>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>1394</v>
       </c>
@@ -42656,7 +43193,9 @@
       <c r="U531" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V531" s="9"/>
+      <c r="V531" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W531" s="9" t="s">
         <v>40</v>
       </c>
@@ -42726,7 +43265,9 @@
       <c r="U532" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V532" s="9"/>
+      <c r="V532" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W532" s="9" t="s">
         <v>254</v>
       </c>
@@ -42796,12 +43337,14 @@
       <c r="U533" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V533" s="9"/>
+      <c r="V533" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W533" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>1402</v>
       </c>
@@ -42934,12 +43477,14 @@
       <c r="U535" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V535" s="9"/>
+      <c r="V535" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W535" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
         <v>1409</v>
       </c>
@@ -43007,7 +43552,7 @@
       </c>
       <c r="W536" s="9"/>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
         <v>1409</v>
       </c>
@@ -43140,7 +43685,9 @@
       <c r="U538" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V538" s="10"/>
+      <c r="V538" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W538" s="9" t="s">
         <v>36</v>
       </c>
@@ -43210,7 +43757,9 @@
       <c r="U539" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V539" s="10"/>
+      <c r="V539" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W539" s="9" t="s">
         <v>36</v>
       </c>
@@ -43280,7 +43829,9 @@
       <c r="U540" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V540" s="10"/>
+      <c r="V540" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W540" s="9" t="s">
         <v>169</v>
       </c>
@@ -43350,12 +43901,14 @@
       <c r="U541" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V541" s="10"/>
+      <c r="V541" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W541" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4" t="s">
         <v>1423</v>
       </c>
@@ -43490,12 +44043,14 @@
       <c r="U543" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V543" s="9"/>
+      <c r="V543" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W543" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>1423</v>
       </c>
@@ -43563,7 +44118,7 @@
       </c>
       <c r="W544" s="9"/>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
         <v>1430</v>
       </c>
@@ -43633,7 +44188,7 @@
       </c>
       <c r="W545" s="9"/>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
         <v>1430</v>
       </c>
@@ -43701,7 +44256,7 @@
       </c>
       <c r="W546" s="9"/>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
         <v>1430</v>
       </c>
@@ -43834,7 +44389,9 @@
       <c r="U548" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V548" s="10"/>
+      <c r="V548" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W548" s="10" t="s">
         <v>36</v>
       </c>
@@ -43904,12 +44461,14 @@
       <c r="U549" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V549" s="10"/>
+      <c r="V549" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W549" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
         <v>1430</v>
       </c>
@@ -44042,7 +44601,9 @@
       <c r="U551" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V551" s="10"/>
+      <c r="V551" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W551" s="9" t="s">
         <v>83</v>
       </c>
@@ -44112,7 +44673,9 @@
       <c r="U552" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V552" s="10"/>
+      <c r="V552" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W552" s="9" t="s">
         <v>87</v>
       </c>
@@ -44182,12 +44745,14 @@
       <c r="U553" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V553" s="10"/>
+      <c r="V553" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W553" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4" t="s">
         <v>1430</v>
       </c>
@@ -44320,12 +44885,14 @@
       <c r="U555" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V555" s="10"/>
+      <c r="V555" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W555" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>1453</v>
       </c>
@@ -44458,12 +45025,14 @@
       <c r="U557" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V557" s="10"/>
+      <c r="V557" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W557" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
         <v>1459</v>
       </c>
@@ -44535,7 +45104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
         <v>1461</v>
       </c>
@@ -44603,7 +45172,7 @@
       </c>
       <c r="W559" s="9"/>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>1464</v>
       </c>
@@ -44671,7 +45240,7 @@
       </c>
       <c r="W560" s="9"/>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
         <v>1464</v>
       </c>
@@ -44739,7 +45308,7 @@
       </c>
       <c r="W561" s="9"/>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
         <v>1464</v>
       </c>
@@ -44807,7 +45376,7 @@
       </c>
       <c r="W562" s="9"/>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>1464</v>
       </c>
@@ -44875,7 +45444,7 @@
       </c>
       <c r="W563" s="9"/>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
         <v>1464</v>
       </c>
@@ -44943,7 +45512,7 @@
       </c>
       <c r="W564" s="9"/>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
         <v>1475</v>
       </c>
@@ -45015,7 +45584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
         <v>1476</v>
       </c>
@@ -45148,12 +45717,14 @@
       <c r="U567" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V567" s="9"/>
+      <c r="V567" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W567" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
         <v>1481</v>
       </c>
@@ -45225,7 +45796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
         <v>1484</v>
       </c>
@@ -45358,12 +45929,14 @@
       <c r="U570" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V570" s="9"/>
+      <c r="V570" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W570" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
         <v>1490</v>
       </c>
@@ -45496,12 +46069,14 @@
       <c r="U572" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V572" s="9"/>
+      <c r="V572" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W572" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
         <v>1496</v>
       </c>
@@ -45634,7 +46209,9 @@
       <c r="U574" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V574" s="9"/>
+      <c r="V574" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W574" s="9" t="s">
         <v>430</v>
       </c>
@@ -45704,7 +46281,9 @@
       <c r="U575" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V575" s="9"/>
+      <c r="V575" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W575" s="10" t="s">
         <v>60</v>
       </c>
@@ -45774,7 +46353,9 @@
       <c r="U576" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V576" s="9"/>
+      <c r="V576" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W576" s="9" t="s">
         <v>430</v>
       </c>
@@ -45844,7 +46425,9 @@
       <c r="U577" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V577" s="9"/>
+      <c r="V577" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W577" s="9" t="s">
         <v>261</v>
       </c>
@@ -45914,7 +46497,9 @@
       <c r="U578" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V578" s="9"/>
+      <c r="V578" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W578" s="9" t="s">
         <v>101</v>
       </c>
@@ -45984,12 +46569,14 @@
       <c r="U579" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V579" s="9"/>
+      <c r="V579" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W579" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>1516</v>
       </c>
@@ -46122,7 +46709,9 @@
       <c r="U581" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V581" s="9"/>
+      <c r="V581" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W581" s="9" t="s">
         <v>36</v>
       </c>
@@ -46192,7 +46781,9 @@
       <c r="U582" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V582" s="9"/>
+      <c r="V582" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W582" s="9" t="s">
         <v>261</v>
       </c>
@@ -46262,12 +46853,14 @@
       <c r="U583" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V583" s="9"/>
+      <c r="V583" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W583" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
         <v>1527</v>
       </c>
@@ -46339,7 +46932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
         <v>1529</v>
       </c>
@@ -46472,7 +47065,9 @@
       <c r="U586" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V586" s="9"/>
+      <c r="V586" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W586" s="9" t="s">
         <v>254</v>
       </c>
@@ -46542,12 +47137,14 @@
       <c r="U587" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V587" s="9"/>
+      <c r="V587" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W587" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
         <v>1537</v>
       </c>
@@ -46619,7 +47216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
         <v>1540</v>
       </c>
@@ -46756,7 +47353,9 @@
       <c r="U590" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V590" s="9"/>
+      <c r="V590" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W590" s="10" t="s">
         <v>76</v>
       </c>
@@ -46826,7 +47425,9 @@
       <c r="U591" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V591" s="10"/>
+      <c r="V591" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W591" s="10" t="s">
         <v>60</v>
       </c>
@@ -46896,12 +47497,14 @@
       <c r="U592" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V592" s="9"/>
+      <c r="V592" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W592" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
         <v>1551</v>
       </c>
@@ -46973,7 +47576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>1551</v>
       </c>
@@ -47106,12 +47709,14 @@
       <c r="U595" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V595" s="9"/>
+      <c r="V595" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W595" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>1558</v>
       </c>
@@ -47244,7 +47849,9 @@
       <c r="U597" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V597" s="9"/>
+      <c r="V597" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W597" s="9" t="s">
         <v>87</v>
       </c>
@@ -47314,7 +47921,9 @@
       <c r="U598" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V598" s="9"/>
+      <c r="V598" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W598" s="9" t="s">
         <v>254</v>
       </c>
@@ -47384,12 +47993,14 @@
       <c r="U599" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V599" s="9"/>
+      <c r="V599" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W599" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
         <v>1570</v>
       </c>
@@ -47526,7 +48137,9 @@
       <c r="U601" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V601" s="9"/>
+      <c r="V601" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W601" s="9" t="s">
         <v>101</v>
       </c>
@@ -47596,7 +48209,9 @@
       <c r="U602" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V602" s="9"/>
+      <c r="V602" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W602" s="9" t="s">
         <v>36</v>
       </c>
@@ -47666,7 +48281,9 @@
       <c r="U603" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V603" s="9"/>
+      <c r="V603" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W603" s="9" t="s">
         <v>36</v>
       </c>
@@ -47736,12 +48353,14 @@
       <c r="U604" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V604" s="9"/>
+      <c r="V604" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W604" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
         <v>1583</v>
       </c>
@@ -47809,7 +48428,7 @@
       </c>
       <c r="W605" s="9"/>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
         <v>1586</v>
       </c>
@@ -47942,7 +48561,9 @@
       <c r="U607" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V607" s="9"/>
+      <c r="V607" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W607" s="10" t="s">
         <v>95</v>
       </c>
@@ -48012,7 +48633,9 @@
       <c r="U608" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V608" s="10"/>
+      <c r="V608" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W608" s="10" t="s">
         <v>60</v>
       </c>
@@ -48082,7 +48705,9 @@
       <c r="U609" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V609" s="9"/>
+      <c r="V609" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W609" s="12" t="s">
         <v>60</v>
       </c>
@@ -48152,12 +48777,14 @@
       <c r="U610" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V610" s="9"/>
+      <c r="V610" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W610" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
         <v>1601</v>
       </c>
@@ -48225,7 +48852,7 @@
       </c>
       <c r="W611" s="30"/>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>1603</v>
       </c>
@@ -48362,7 +48989,9 @@
       <c r="U613" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V613" s="9"/>
+      <c r="V613" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W613" s="9" t="s">
         <v>36</v>
       </c>
@@ -48432,12 +49061,14 @@
       <c r="U614" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V614" s="9"/>
+      <c r="V614" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W614" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
         <v>1611</v>
       </c>
@@ -48574,12 +49205,14 @@
       <c r="U616" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V616" s="9"/>
+      <c r="V616" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W616" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
         <v>1616</v>
       </c>
@@ -48647,7 +49280,7 @@
       </c>
       <c r="W617" s="9"/>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1619</v>
       </c>
@@ -48715,7 +49348,7 @@
       </c>
       <c r="W618" s="9"/>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
         <v>1622</v>
       </c>
@@ -48848,7 +49481,9 @@
       <c r="U620" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V620" s="9"/>
+      <c r="V620" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W620" s="9" t="s">
         <v>57</v>
       </c>
@@ -48918,12 +49553,14 @@
       <c r="U621" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V621" s="9"/>
+      <c r="V621" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W621" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
         <v>1630</v>
       </c>
@@ -48991,7 +49628,7 @@
       </c>
       <c r="W622" s="9"/>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
         <v>1633</v>
       </c>
@@ -49059,7 +49696,7 @@
       </c>
       <c r="W623" s="9"/>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
         <v>1636</v>
       </c>
@@ -49129,7 +49766,7 @@
       </c>
       <c r="W624" s="30"/>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>1639</v>
       </c>
@@ -49266,7 +49903,9 @@
       <c r="U626" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V626" s="9"/>
+      <c r="V626" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W626" s="9" t="s">
         <v>83</v>
       </c>
@@ -49336,12 +49975,14 @@
       <c r="U627" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V627" s="9"/>
+      <c r="V627" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W627" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>1648</v>
       </c>
@@ -49413,7 +50054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4" t="s">
         <v>1651</v>
       </c>
@@ -49485,7 +50126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>1654</v>
       </c>
@@ -49618,7 +50259,9 @@
       <c r="U631" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V631" s="9"/>
+      <c r="V631" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W631" s="9" t="s">
         <v>87</v>
       </c>
@@ -49688,7 +50331,9 @@
       <c r="U632" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V632" s="9"/>
+      <c r="V632" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W632" s="10" t="s">
         <v>60</v>
       </c>
@@ -49758,7 +50403,9 @@
       <c r="U633" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V633" s="9"/>
+      <c r="V633" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W633" s="9" t="s">
         <v>57</v>
       </c>
@@ -49828,12 +50475,19 @@
       <c r="U634" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V634" s="9"/>
+      <c r="V634" s="10" t="s">
+        <v>1669</v>
+      </c>
       <c r="W634" s="9" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W634">
+    <filterColumn colId="21">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B374" r:id="rId1"/>
     <hyperlink ref="B542" r:id="rId2"/>

--- a/resources/annotated_java.xlsx
+++ b/resources/annotated_java.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="1670">
   <si>
     <t>owner</t>
   </si>
@@ -5073,13 +5073,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>Partii</t>
-  </si>
-  <si>
-    <t>PartI</t>
-  </si>
-  <si>
-    <t>PartII</t>
+    <t>Too Large</t>
   </si>
 </sst>
 </file>
@@ -5519,8 +5513,8 @@
   <dimension ref="A1:W634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U264" sqref="U264"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V380" sqref="V380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5753,9 +5747,7 @@
       <c r="U3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V3" s="10"/>
       <c r="W3" s="12" t="s">
         <v>31</v>
       </c>
@@ -5897,9 +5889,7 @@
       <c r="U5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V5" s="10"/>
       <c r="W5" s="9" t="s">
         <v>40</v>
       </c>
@@ -6105,9 +6095,7 @@
       <c r="U8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V8" s="10"/>
       <c r="W8" s="9" t="s">
         <v>36</v>
       </c>
@@ -6317,9 +6305,7 @@
       <c r="U11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V11" s="10"/>
       <c r="W11" s="9" t="s">
         <v>57</v>
       </c>
@@ -6389,9 +6375,7 @@
       <c r="U12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V12" s="10"/>
       <c r="W12" s="9" t="s">
         <v>60</v>
       </c>
@@ -6529,9 +6513,7 @@
       <c r="U14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V14" s="10"/>
       <c r="W14" s="9" t="s">
         <v>57</v>
       </c>
@@ -6601,9 +6583,7 @@
       <c r="U15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V15" s="10"/>
       <c r="W15" s="9" t="s">
         <v>60</v>
       </c>
@@ -6673,9 +6653,7 @@
       <c r="U16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V16" s="10"/>
       <c r="W16" s="9" t="s">
         <v>40</v>
       </c>
@@ -6745,9 +6723,7 @@
       <c r="U17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V17" s="10"/>
       <c r="W17" s="9" t="s">
         <v>76</v>
       </c>
@@ -6817,9 +6793,7 @@
       <c r="U18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V18" s="10"/>
       <c r="W18" s="9" t="s">
         <v>36</v>
       </c>
@@ -7309,9 +7283,7 @@
       <c r="U25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V25" s="10"/>
       <c r="W25" s="9" t="s">
         <v>101</v>
       </c>
@@ -7381,9 +7353,7 @@
       <c r="U26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V26" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V26" s="10"/>
       <c r="W26" s="9" t="s">
         <v>36</v>
       </c>
@@ -7453,9 +7423,7 @@
       <c r="U27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V27" s="10"/>
       <c r="W27" s="12" t="s">
         <v>107</v>
       </c>
@@ -7597,9 +7565,7 @@
       <c r="U29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V29" s="10"/>
       <c r="W29" s="9" t="s">
         <v>60</v>
       </c>
@@ -7669,9 +7635,7 @@
       <c r="U30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V30" s="10"/>
       <c r="W30" s="9" t="s">
         <v>60</v>
       </c>
@@ -7741,9 +7705,7 @@
       <c r="U31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V31" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V31" s="10"/>
       <c r="W31" s="9" t="s">
         <v>60</v>
       </c>
@@ -7813,9 +7775,7 @@
       <c r="U32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V32" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V32" s="10"/>
       <c r="W32" s="12" t="s">
         <v>31</v>
       </c>
@@ -7957,9 +7917,7 @@
       <c r="U34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V34" s="10"/>
       <c r="W34" s="9" t="s">
         <v>87</v>
       </c>
@@ -8029,9 +7987,7 @@
       <c r="U35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V35" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V35" s="10"/>
       <c r="W35" s="9" t="s">
         <v>95</v>
       </c>
@@ -8101,9 +8057,7 @@
       <c r="U36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V36" s="10"/>
       <c r="W36" s="9" t="s">
         <v>57</v>
       </c>
@@ -8173,9 +8127,7 @@
       <c r="U37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V37" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V37" s="10"/>
       <c r="W37" s="9" t="s">
         <v>60</v>
       </c>
@@ -8245,9 +8197,7 @@
       <c r="U38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V38" s="10"/>
       <c r="W38" s="9" t="s">
         <v>57</v>
       </c>
@@ -8389,9 +8339,7 @@
       <c r="U40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V40" s="10"/>
       <c r="W40" s="9" t="s">
         <v>60</v>
       </c>
@@ -8461,9 +8409,7 @@
       <c r="U41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V41" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V41" s="10"/>
       <c r="W41" s="9" t="s">
         <v>57</v>
       </c>
@@ -8533,9 +8479,7 @@
       <c r="U42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V42" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V42" s="10"/>
       <c r="W42" s="10" t="s">
         <v>36</v>
       </c>
@@ -8605,9 +8549,7 @@
       <c r="U43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V43" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V43" s="10"/>
       <c r="W43" s="9" t="s">
         <v>60</v>
       </c>
@@ -8677,9 +8619,7 @@
       <c r="U44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V44" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V44" s="10"/>
       <c r="W44" s="9" t="s">
         <v>57</v>
       </c>
@@ -8817,9 +8757,7 @@
       <c r="U46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V46" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V46" s="10"/>
       <c r="W46" s="10" t="s">
         <v>76</v>
       </c>
@@ -8889,9 +8827,7 @@
       <c r="U47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V47" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V47" s="10"/>
       <c r="W47" s="9" t="s">
         <v>60</v>
       </c>
@@ -8961,9 +8897,7 @@
       <c r="U48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V48" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V48" s="10"/>
       <c r="W48" s="10" t="s">
         <v>57</v>
       </c>
@@ -9033,9 +8967,7 @@
       <c r="U49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V49" s="10"/>
       <c r="W49" s="9" t="s">
         <v>60</v>
       </c>
@@ -9105,9 +9037,7 @@
       <c r="U50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V50" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V50" s="10"/>
       <c r="W50" s="10" t="s">
         <v>76</v>
       </c>
@@ -9313,9 +9243,7 @@
       <c r="U53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V53" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V53" s="10"/>
       <c r="W53" s="9" t="s">
         <v>60</v>
       </c>
@@ -9453,9 +9381,7 @@
       <c r="U55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V55" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V55" s="10"/>
       <c r="W55" s="9" t="s">
         <v>60</v>
       </c>
@@ -9525,9 +9451,7 @@
       <c r="U56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V56" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V56" s="10"/>
       <c r="W56" s="9" t="s">
         <v>169</v>
       </c>
@@ -9597,9 +9521,7 @@
       <c r="U57" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V57" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V57" s="10"/>
       <c r="W57" s="9" t="s">
         <v>60</v>
       </c>
@@ -9669,9 +9591,7 @@
       <c r="U58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V58" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V58" s="10"/>
       <c r="W58" s="9" t="s">
         <v>60</v>
       </c>
@@ -9813,9 +9733,7 @@
       <c r="U60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V60" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V60" s="10"/>
       <c r="W60" s="9" t="s">
         <v>36</v>
       </c>
@@ -9885,9 +9803,7 @@
       <c r="U61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V61" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V61" s="10"/>
       <c r="W61" s="9" t="s">
         <v>60</v>
       </c>
@@ -9957,9 +9873,7 @@
       <c r="U62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V62" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V62" s="10"/>
       <c r="W62" s="9" t="s">
         <v>36</v>
       </c>
@@ -10101,9 +10015,7 @@
       <c r="U64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V64" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V64" s="10"/>
       <c r="W64" s="9" t="s">
         <v>57</v>
       </c>
@@ -10245,9 +10157,7 @@
       <c r="U66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V66" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V66" s="10"/>
       <c r="W66" s="10" t="s">
         <v>60</v>
       </c>
@@ -10389,9 +10299,7 @@
       <c r="U68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V68" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V68" s="10"/>
       <c r="W68" s="9" t="s">
         <v>36</v>
       </c>
@@ -10461,9 +10369,7 @@
       <c r="U69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V69" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V69" s="10"/>
       <c r="W69" s="10" t="s">
         <v>60</v>
       </c>
@@ -10533,9 +10439,7 @@
       <c r="U70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V70" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V70" s="10"/>
       <c r="W70" s="9" t="s">
         <v>76</v>
       </c>
@@ -10605,9 +10509,7 @@
       <c r="U71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V71" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V71" s="10"/>
       <c r="W71" s="9" t="s">
         <v>36</v>
       </c>
@@ -10677,9 +10579,7 @@
       <c r="U72" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V72" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V72" s="10"/>
       <c r="W72" s="9" t="s">
         <v>36</v>
       </c>
@@ -10749,9 +10649,7 @@
       <c r="U73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V73" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V73" s="10"/>
       <c r="W73" s="9" t="s">
         <v>36</v>
       </c>
@@ -10821,9 +10719,7 @@
       <c r="U74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V74" s="10" t="s">
-        <v>1670</v>
-      </c>
+      <c r="V74" s="10"/>
       <c r="W74" s="10" t="s">
         <v>60</v>
       </c>
@@ -10893,9 +10789,7 @@
       <c r="U75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V75" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V75" s="10"/>
       <c r="W75" s="9" t="s">
         <v>36</v>
       </c>
@@ -10965,9 +10859,7 @@
       <c r="U76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V76" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V76" s="10"/>
       <c r="W76" s="9" t="s">
         <v>83</v>
       </c>
@@ -11105,9 +10997,7 @@
       <c r="U78" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V78" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V78" s="10"/>
       <c r="W78" s="10" t="s">
         <v>60</v>
       </c>
@@ -11177,9 +11067,7 @@
       <c r="U79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V79" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V79" s="10"/>
       <c r="W79" s="10" t="s">
         <v>60</v>
       </c>
@@ -11321,9 +11209,7 @@
       <c r="U81" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V81" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V81" s="10"/>
       <c r="W81" s="9" t="s">
         <v>57</v>
       </c>
@@ -11393,9 +11279,7 @@
       <c r="U82" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V82" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V82" s="10"/>
       <c r="W82" s="10" t="s">
         <v>60</v>
       </c>
@@ -11465,9 +11349,7 @@
       <c r="U83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V83" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V83" s="10"/>
       <c r="W83" s="10" t="s">
         <v>60</v>
       </c>
@@ -11537,9 +11419,7 @@
       <c r="U84" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V84" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V84" s="10"/>
       <c r="W84" s="9" t="s">
         <v>57</v>
       </c>
@@ -11813,9 +11693,7 @@
       <c r="U88" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V88" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V88" s="10"/>
       <c r="W88" s="9" t="s">
         <v>36</v>
       </c>
@@ -11885,9 +11763,7 @@
       <c r="U89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V89" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V89" s="10"/>
       <c r="W89" s="9" t="s">
         <v>87</v>
       </c>
@@ -12097,9 +11973,7 @@
       <c r="U92" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V92" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V92" s="10"/>
       <c r="W92" s="9" t="s">
         <v>101</v>
       </c>
@@ -12309,9 +12183,7 @@
       <c r="U95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V95" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V95" s="10"/>
       <c r="W95" s="9" t="s">
         <v>76</v>
       </c>
@@ -12381,9 +12253,7 @@
       <c r="U96" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V96" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V96" s="10"/>
       <c r="W96" s="9" t="s">
         <v>261</v>
       </c>
@@ -12453,9 +12323,7 @@
       <c r="U97" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V97" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V97" s="10"/>
       <c r="W97" s="9" t="s">
         <v>76</v>
       </c>
@@ -12593,9 +12461,7 @@
       <c r="U99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V99" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V99" s="10"/>
       <c r="W99" s="9" t="s">
         <v>270</v>
       </c>
@@ -12665,9 +12531,7 @@
       <c r="U100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V100" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V100" s="10"/>
       <c r="W100" s="9" t="s">
         <v>36</v>
       </c>
@@ -12737,9 +12601,7 @@
       <c r="U101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V101" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V101" s="10"/>
       <c r="W101" s="9" t="s">
         <v>57</v>
       </c>
@@ -12949,9 +12811,7 @@
       <c r="U104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V104" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V104" s="10"/>
       <c r="W104" s="9" t="s">
         <v>57</v>
       </c>
@@ -13021,9 +12881,7 @@
       <c r="U105" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V105" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V105" s="10"/>
       <c r="W105" s="9" t="s">
         <v>83</v>
       </c>
@@ -13365,9 +13223,7 @@
       <c r="U110" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V110" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V110" s="10"/>
       <c r="W110" s="9" t="s">
         <v>36</v>
       </c>
@@ -13437,9 +13293,7 @@
       <c r="U111" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V111" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V111" s="10"/>
       <c r="W111" s="9" t="s">
         <v>87</v>
       </c>
@@ -13509,9 +13363,7 @@
       <c r="U112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V112" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V112" s="10"/>
       <c r="W112" s="9" t="s">
         <v>57</v>
       </c>
@@ -13649,9 +13501,7 @@
       <c r="U114" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V114" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V114" s="10"/>
       <c r="W114" s="9" t="s">
         <v>313</v>
       </c>
@@ -13721,9 +13571,7 @@
       <c r="U115" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V115" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V115" s="10"/>
       <c r="W115" s="9" t="s">
         <v>313</v>
       </c>
@@ -13793,9 +13641,7 @@
       <c r="U116" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V116" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V116" s="10"/>
       <c r="W116" s="9" t="s">
         <v>313</v>
       </c>
@@ -13865,9 +13711,7 @@
       <c r="U117" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V117" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V117" s="10"/>
       <c r="W117" s="9" t="s">
         <v>36</v>
       </c>
@@ -14005,9 +13849,7 @@
       <c r="U119" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V119" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V119" s="10"/>
       <c r="W119" s="9" t="s">
         <v>83</v>
       </c>
@@ -14077,9 +13919,7 @@
       <c r="U120" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V120" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V120" s="10"/>
       <c r="W120" s="9" t="s">
         <v>36</v>
       </c>
@@ -14217,9 +14057,7 @@
       <c r="U122" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V122" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V122" s="10"/>
       <c r="W122" s="9" t="s">
         <v>60</v>
       </c>
@@ -14289,9 +14127,7 @@
       <c r="U123" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V123" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V123" s="10"/>
       <c r="W123" s="9" t="s">
         <v>60</v>
       </c>
@@ -14361,9 +14197,7 @@
       <c r="U124" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V124" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V124" s="10"/>
       <c r="W124" s="9" t="s">
         <v>60</v>
       </c>
@@ -14433,9 +14267,7 @@
       <c r="U125" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V125" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V125" s="10"/>
       <c r="W125" s="12" t="s">
         <v>31</v>
       </c>
@@ -14505,9 +14337,7 @@
       <c r="U126" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V126" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V126" s="10"/>
       <c r="W126" s="9" t="s">
         <v>254</v>
       </c>
@@ -14649,9 +14479,7 @@
       <c r="U128" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V128" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V128" s="10"/>
       <c r="W128" s="9" t="s">
         <v>40</v>
       </c>
@@ -14793,9 +14621,7 @@
       <c r="U130" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V130" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V130" s="10"/>
       <c r="W130" s="9" t="s">
         <v>101</v>
       </c>
@@ -14865,9 +14691,7 @@
       <c r="U131" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V131" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V131" s="10"/>
       <c r="W131" s="9" t="s">
         <v>36</v>
       </c>
@@ -14937,9 +14761,7 @@
       <c r="U132" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V132" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V132" s="10"/>
       <c r="W132" s="9" t="s">
         <v>40</v>
       </c>
@@ -15009,9 +14831,7 @@
       <c r="U133" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V133" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V133" s="10"/>
       <c r="W133" s="12" t="s">
         <v>31</v>
       </c>
@@ -15293,9 +15113,7 @@
       <c r="U137" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V137" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V137" s="10"/>
       <c r="W137" s="9" t="s">
         <v>87</v>
       </c>
@@ -15365,9 +15183,7 @@
       <c r="U138" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V138" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V138" s="10"/>
       <c r="W138" s="12" t="s">
         <v>107</v>
       </c>
@@ -15437,9 +15253,7 @@
       <c r="U139" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V139" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V139" s="10"/>
       <c r="W139" s="9" t="s">
         <v>254</v>
       </c>
@@ -15651,9 +15465,7 @@
       <c r="U142" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V142" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V142" s="10"/>
       <c r="W142" s="9" t="s">
         <v>389</v>
       </c>
@@ -15795,9 +15607,7 @@
       <c r="U144" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V144" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V144" s="10"/>
       <c r="W144" s="9" t="s">
         <v>254</v>
       </c>
@@ -15867,9 +15677,7 @@
       <c r="U145" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V145" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V145" s="10"/>
       <c r="W145" s="9" t="s">
         <v>36</v>
       </c>
@@ -15939,9 +15747,7 @@
       <c r="U146" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V146" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V146" s="10"/>
       <c r="W146" s="9" t="s">
         <v>87</v>
       </c>
@@ -16011,9 +15817,7 @@
       <c r="U147" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V147" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V147" s="10"/>
       <c r="W147" s="9" t="s">
         <v>95</v>
       </c>
@@ -16083,9 +15887,7 @@
       <c r="U148" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V148" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V148" s="10"/>
       <c r="W148" s="9" t="s">
         <v>169</v>
       </c>
@@ -16155,9 +15957,7 @@
       <c r="U149" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V149" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V149" s="10"/>
       <c r="W149" s="9" t="s">
         <v>349</v>
       </c>
@@ -16227,9 +16027,7 @@
       <c r="U150" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V150" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V150" s="10"/>
       <c r="W150" s="9" t="s">
         <v>254</v>
       </c>
@@ -16299,9 +16097,7 @@
       <c r="U151" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V151" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V151" s="10"/>
       <c r="W151" s="9" t="s">
         <v>76</v>
       </c>
@@ -16439,9 +16235,7 @@
       <c r="U153" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V153" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V153" s="10"/>
       <c r="W153" s="10" t="s">
         <v>60</v>
       </c>
@@ -16511,9 +16305,7 @@
       <c r="U154" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V154" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V154" s="10"/>
       <c r="W154" s="10" t="s">
         <v>60</v>
       </c>
@@ -16583,9 +16375,7 @@
       <c r="U155" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V155" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V155" s="10"/>
       <c r="W155" s="9" t="s">
         <v>76</v>
       </c>
@@ -16723,9 +16513,7 @@
       <c r="U157" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V157" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V157" s="10"/>
       <c r="W157" s="10" t="s">
         <v>60</v>
       </c>
@@ -16795,9 +16583,7 @@
       <c r="U158" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V158" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V158" s="10"/>
       <c r="W158" s="9" t="s">
         <v>430</v>
       </c>
@@ -16867,9 +16653,7 @@
       <c r="U159" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V159" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V159" s="10"/>
       <c r="W159" s="9" t="s">
         <v>87</v>
       </c>
@@ -17079,9 +16863,7 @@
       <c r="U162" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V162" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V162" s="10"/>
       <c r="W162" s="12" t="s">
         <v>31</v>
       </c>
@@ -17151,9 +16933,7 @@
       <c r="U163" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V163" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V163" s="10"/>
       <c r="W163" s="9" t="s">
         <v>254</v>
       </c>
@@ -17359,9 +17139,7 @@
       <c r="U166" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V166" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V166" s="10"/>
       <c r="W166" s="9" t="s">
         <v>36</v>
       </c>
@@ -17431,9 +17209,7 @@
       <c r="U167" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V167" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V167" s="10"/>
       <c r="W167" s="10" t="s">
         <v>60</v>
       </c>
@@ -17503,9 +17279,7 @@
       <c r="U168" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V168" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V168" s="10"/>
       <c r="W168" s="10" t="s">
         <v>60</v>
       </c>
@@ -17715,9 +17489,7 @@
       <c r="U171" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V171" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V171" s="10"/>
       <c r="W171" s="9" t="s">
         <v>36</v>
       </c>
@@ -17787,9 +17559,7 @@
       <c r="U172" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V172" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V172" s="10"/>
       <c r="W172" s="9" t="s">
         <v>57</v>
       </c>
@@ -17927,9 +17697,7 @@
       <c r="U174" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V174" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V174" s="10"/>
       <c r="W174" s="9" t="s">
         <v>83</v>
       </c>
@@ -17999,9 +17767,7 @@
       <c r="U175" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V175" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V175" s="10"/>
       <c r="W175" s="9" t="s">
         <v>83</v>
       </c>
@@ -18071,9 +17837,7 @@
       <c r="U176" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V176" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V176" s="10"/>
       <c r="W176" s="9" t="s">
         <v>101</v>
       </c>
@@ -18215,9 +17979,7 @@
       <c r="U178" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V178" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V178" s="10"/>
       <c r="W178" s="9" t="s">
         <v>169</v>
       </c>
@@ -18287,9 +18049,7 @@
       <c r="U179" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V179" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V179" s="10"/>
       <c r="W179" s="9" t="s">
         <v>57</v>
       </c>
@@ -18567,9 +18327,7 @@
       <c r="U183" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V183" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V183" s="10"/>
       <c r="W183" s="9" t="s">
         <v>60</v>
       </c>
@@ -18639,9 +18397,7 @@
       <c r="U184" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V184" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V184" s="10"/>
       <c r="W184" s="9" t="s">
         <v>36</v>
       </c>
@@ -18923,9 +18679,7 @@
       <c r="U188" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V188" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V188" s="10"/>
       <c r="W188" s="9" t="s">
         <v>57</v>
       </c>
@@ -18995,9 +18749,7 @@
       <c r="U189" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V189" s="10" t="s">
-        <v>1671</v>
-      </c>
+      <c r="V189" s="10"/>
       <c r="W189" s="10" t="s">
         <v>60</v>
       </c>
@@ -27099,9 +26851,7 @@
       <c r="U305" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V305" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V305" s="10"/>
       <c r="W305" s="9" t="s">
         <v>36</v>
       </c>
@@ -27239,9 +26989,7 @@
       <c r="U307" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V307" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V307" s="10"/>
       <c r="W307" s="9" t="s">
         <v>169</v>
       </c>
@@ -27311,9 +27059,7 @@
       <c r="U308" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V308" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V308" s="10"/>
       <c r="W308" s="9" t="s">
         <v>254</v>
       </c>
@@ -27455,9 +27201,7 @@
       <c r="U310" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V310" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V310" s="10"/>
       <c r="W310" s="9" t="s">
         <v>76</v>
       </c>
@@ -27527,9 +27271,7 @@
       <c r="U311" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V311" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V311" s="10"/>
       <c r="W311" s="10" t="s">
         <v>60</v>
       </c>
@@ -27599,9 +27341,7 @@
       <c r="U312" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V312" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V312" s="10"/>
       <c r="W312" s="9" t="s">
         <v>83</v>
       </c>
@@ -27671,9 +27411,7 @@
       <c r="U313" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V313" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V313" s="10"/>
       <c r="W313" s="9" t="s">
         <v>57</v>
       </c>
@@ -27743,9 +27481,7 @@
       <c r="U314" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V314" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V314" s="10"/>
       <c r="W314" s="9" t="s">
         <v>83</v>
       </c>
@@ -27815,9 +27551,7 @@
       <c r="U315" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V315" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V315" s="10"/>
       <c r="W315" s="9" t="s">
         <v>83</v>
       </c>
@@ -27887,9 +27621,7 @@
       <c r="U316" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V316" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V316" s="10"/>
       <c r="W316" s="9" t="s">
         <v>87</v>
       </c>
@@ -28171,9 +27903,7 @@
       <c r="U320" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V320" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V320" s="10"/>
       <c r="W320" s="9" t="s">
         <v>36</v>
       </c>
@@ -28455,9 +28185,7 @@
       <c r="U324" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V324" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V324" s="10"/>
       <c r="W324" s="9" t="s">
         <v>36</v>
       </c>
@@ -28527,9 +28255,7 @@
       <c r="U325" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V325" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V325" s="10"/>
       <c r="W325" s="9" t="s">
         <v>87</v>
       </c>
@@ -28667,9 +28393,7 @@
       <c r="U327" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V327" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V327" s="10"/>
       <c r="W327" s="9" t="s">
         <v>261</v>
       </c>
@@ -28739,9 +28463,7 @@
       <c r="U328" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V328" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V328" s="10"/>
       <c r="W328" s="9" t="s">
         <v>430</v>
       </c>
@@ -28811,9 +28533,7 @@
       <c r="U329" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V329" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V329" s="10"/>
       <c r="W329" s="9" t="s">
         <v>40</v>
       </c>
@@ -28955,9 +28675,7 @@
       <c r="U331" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V331" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V331" s="10"/>
       <c r="W331" s="9" t="s">
         <v>36</v>
       </c>
@@ -29099,9 +28817,7 @@
       <c r="U333" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V333" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V333" s="10"/>
       <c r="W333" s="9" t="s">
         <v>36</v>
       </c>
@@ -29171,9 +28887,7 @@
       <c r="U334" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V334" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V334" s="10"/>
       <c r="W334" s="9" t="s">
         <v>36</v>
       </c>
@@ -29243,9 +28957,7 @@
       <c r="U335" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V335" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V335" s="10"/>
       <c r="W335" s="9" t="s">
         <v>76</v>
       </c>
@@ -29527,9 +29239,7 @@
       <c r="U339" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V339" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V339" s="10"/>
       <c r="W339" s="9" t="s">
         <v>36</v>
       </c>
@@ -29599,9 +29309,7 @@
       <c r="U340" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V340" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V340" s="10"/>
       <c r="W340" s="10" t="s">
         <v>60</v>
       </c>
@@ -29671,9 +29379,7 @@
       <c r="U341" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V341" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V341" s="10"/>
       <c r="W341" s="9" t="s">
         <v>254</v>
       </c>
@@ -29743,9 +29449,7 @@
       <c r="U342" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V342" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V342" s="10"/>
       <c r="W342" s="9" t="s">
         <v>254</v>
       </c>
@@ -30155,9 +29859,7 @@
       <c r="U348" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V348" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V348" s="10"/>
       <c r="W348" s="10" t="s">
         <v>60</v>
       </c>
@@ -30227,9 +29929,7 @@
       <c r="U349" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V349" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V349" s="10"/>
       <c r="W349" s="9" t="s">
         <v>254</v>
       </c>
@@ -30299,9 +29999,7 @@
       <c r="U350" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V350" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V350" s="10"/>
       <c r="W350" s="9" t="s">
         <v>95</v>
       </c>
@@ -30371,9 +30069,7 @@
       <c r="U351" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V351" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V351" s="10"/>
       <c r="W351" s="9" t="s">
         <v>87</v>
       </c>
@@ -30511,9 +30207,7 @@
       <c r="U353" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V353" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V353" s="10"/>
       <c r="W353" s="12" t="s">
         <v>31</v>
       </c>
@@ -30727,9 +30421,7 @@
       <c r="U356" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V356" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V356" s="10"/>
       <c r="W356" s="9" t="s">
         <v>349</v>
       </c>
@@ -30799,9 +30491,7 @@
       <c r="U357" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V357" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V357" s="10"/>
       <c r="W357" s="18" t="s">
         <v>36</v>
       </c>
@@ -30871,9 +30561,7 @@
       <c r="U358" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V358" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V358" s="10"/>
       <c r="W358" s="9" t="s">
         <v>313</v>
       </c>
@@ -30943,9 +30631,7 @@
       <c r="U359" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V359" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V359" s="10"/>
       <c r="W359" s="9" t="s">
         <v>76</v>
       </c>
@@ -31015,9 +30701,7 @@
       <c r="U360" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V360" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V360" s="10"/>
       <c r="W360" s="9" t="s">
         <v>36</v>
       </c>
@@ -31087,9 +30771,7 @@
       <c r="U361" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V361" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V361" s="10"/>
       <c r="W361" s="9" t="s">
         <v>101</v>
       </c>
@@ -31299,9 +30981,7 @@
       <c r="U364" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V364" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V364" s="10"/>
       <c r="W364" s="9" t="s">
         <v>57</v>
       </c>
@@ -31371,9 +31051,7 @@
       <c r="U365" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V365" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V365" s="10"/>
       <c r="W365" s="9" t="s">
         <v>36</v>
       </c>
@@ -31443,9 +31121,7 @@
       <c r="U366" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V366" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V366" s="10"/>
       <c r="W366" s="9" t="s">
         <v>270</v>
       </c>
@@ -31659,9 +31335,7 @@
       <c r="U369" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V369" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V369" s="10"/>
       <c r="W369" s="10" t="s">
         <v>60</v>
       </c>
@@ -31731,9 +31405,7 @@
       <c r="U370" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V370" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V370" s="10"/>
       <c r="W370" s="9" t="s">
         <v>40</v>
       </c>
@@ -31803,14 +31475,12 @@
       <c r="U371" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V371" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V371" s="10"/>
       <c r="W371" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>994</v>
       </c>
@@ -31945,9 +31615,7 @@
       <c r="U373" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V373" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V373" s="10"/>
       <c r="W373" s="9" t="s">
         <v>36</v>
       </c>
@@ -32017,9 +31685,7 @@
       <c r="U374" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V374" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V374" s="10"/>
       <c r="W374" s="9" t="s">
         <v>36</v>
       </c>
@@ -32089,9 +31755,7 @@
       <c r="U375" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V375" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V375" s="10"/>
       <c r="W375" s="10" t="s">
         <v>60</v>
       </c>
@@ -32229,9 +31893,7 @@
       <c r="U377" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V377" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V377" s="10"/>
       <c r="W377" s="10" t="s">
         <v>60</v>
       </c>
@@ -32441,9 +32103,7 @@
       <c r="U380" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V380" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V380" s="10"/>
       <c r="W380" s="9" t="s">
         <v>36</v>
       </c>
@@ -32513,9 +32173,7 @@
       <c r="U381" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V381" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V381" s="10"/>
       <c r="W381" s="9" t="s">
         <v>40</v>
       </c>
@@ -32585,9 +32243,7 @@
       <c r="U382" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V382" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V382" s="10"/>
       <c r="W382" s="9" t="s">
         <v>87</v>
       </c>
@@ -32657,9 +32313,7 @@
       <c r="U383" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V383" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V383" s="10"/>
       <c r="W383" s="9" t="s">
         <v>36</v>
       </c>
@@ -32729,9 +32383,7 @@
       <c r="U384" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V384" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V384" s="10"/>
       <c r="W384" s="9" t="s">
         <v>40</v>
       </c>
@@ -32801,9 +32453,7 @@
       <c r="U385" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V385" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V385" s="10"/>
       <c r="W385" s="9" t="s">
         <v>36</v>
       </c>
@@ -32873,9 +32523,7 @@
       <c r="U386" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V386" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V386" s="10"/>
       <c r="W386" s="9" t="s">
         <v>36</v>
       </c>
@@ -33017,9 +32665,7 @@
       <c r="U388" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V388" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V388" s="10"/>
       <c r="W388" s="9" t="s">
         <v>36</v>
       </c>
@@ -33089,9 +32735,7 @@
       <c r="U389" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V389" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V389" s="10"/>
       <c r="W389" s="9" t="s">
         <v>270</v>
       </c>
@@ -33229,9 +32873,7 @@
       <c r="U391" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V391" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V391" s="10"/>
       <c r="W391" s="9" t="s">
         <v>169</v>
       </c>
@@ -33301,9 +32943,7 @@
       <c r="U392" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V392" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V392" s="10"/>
       <c r="W392" s="9" t="s">
         <v>57</v>
       </c>
@@ -33445,9 +33085,7 @@
       <c r="U394" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V394" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V394" s="10"/>
       <c r="W394" s="9" t="s">
         <v>40</v>
       </c>
@@ -33517,9 +33155,7 @@
       <c r="U395" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V395" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V395" s="10"/>
       <c r="W395" s="9" t="s">
         <v>87</v>
       </c>
@@ -33589,9 +33225,7 @@
       <c r="U396" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V396" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V396" s="10"/>
       <c r="W396" s="9" t="s">
         <v>83</v>
       </c>
@@ -33661,9 +33295,7 @@
       <c r="U397" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V397" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V397" s="10"/>
       <c r="W397" s="9" t="s">
         <v>254</v>
       </c>
@@ -33869,9 +33501,7 @@
       <c r="U400" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V400" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V400" s="10"/>
       <c r="W400" s="10" t="s">
         <v>60</v>
       </c>
@@ -33941,9 +33571,7 @@
       <c r="U401" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V401" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V401" s="10"/>
       <c r="W401" s="9" t="s">
         <v>76</v>
       </c>
@@ -34013,9 +33641,7 @@
       <c r="U402" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V402" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V402" s="10"/>
       <c r="W402" s="10" t="s">
         <v>60</v>
       </c>
@@ -34085,9 +33711,7 @@
       <c r="U403" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V403" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V403" s="10"/>
       <c r="W403" s="9" t="s">
         <v>40</v>
       </c>
@@ -34225,9 +33849,7 @@
       <c r="U405" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V405" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V405" s="10"/>
       <c r="W405" s="9" t="s">
         <v>36</v>
       </c>
@@ -34297,9 +33919,7 @@
       <c r="U406" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V406" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V406" s="10"/>
       <c r="W406" s="10" t="s">
         <v>60</v>
       </c>
@@ -34575,9 +34195,7 @@
       <c r="U410" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V410" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V410" s="10"/>
       <c r="W410" s="9" t="s">
         <v>254</v>
       </c>
@@ -34647,9 +34265,7 @@
       <c r="U411" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V411" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V411" s="10"/>
       <c r="W411" s="9" t="s">
         <v>83</v>
       </c>
@@ -34791,9 +34407,7 @@
       <c r="U413" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V413" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V413" s="10"/>
       <c r="W413" s="9" t="s">
         <v>270</v>
       </c>
@@ -34931,9 +34545,7 @@
       <c r="U415" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V415" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V415" s="10"/>
       <c r="W415" s="10" t="s">
         <v>60</v>
       </c>
@@ -35147,9 +34759,7 @@
       <c r="U418" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V418" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V418" s="10"/>
       <c r="W418" s="9" t="s">
         <v>57</v>
       </c>
@@ -35359,9 +34969,7 @@
       <c r="U421" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V421" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V421" s="10"/>
       <c r="W421" s="9" t="s">
         <v>57</v>
       </c>
@@ -35431,9 +35039,7 @@
       <c r="U422" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V422" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V422" s="10"/>
       <c r="W422" s="9" t="s">
         <v>76</v>
       </c>
@@ -35503,9 +35109,7 @@
       <c r="U423" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V423" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V423" s="10"/>
       <c r="W423" s="9" t="s">
         <v>36</v>
       </c>
@@ -35575,9 +35179,7 @@
       <c r="U424" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V424" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V424" s="10"/>
       <c r="W424" s="9" t="s">
         <v>430</v>
       </c>
@@ -35863,9 +35465,7 @@
       <c r="U428" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V428" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V428" s="10"/>
       <c r="W428" s="10" t="s">
         <v>36</v>
       </c>
@@ -36003,9 +35603,7 @@
       <c r="U430" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V430" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V430" s="10"/>
       <c r="W430" s="9" t="s">
         <v>36</v>
       </c>
@@ -36075,9 +35673,7 @@
       <c r="U431" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V431" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V431" s="10"/>
       <c r="W431" s="9" t="s">
         <v>87</v>
       </c>
@@ -36147,9 +35743,7 @@
       <c r="U432" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V432" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V432" s="10"/>
       <c r="W432" s="10" t="s">
         <v>36</v>
       </c>
@@ -36355,9 +35949,7 @@
       <c r="U435" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V435" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V435" s="10"/>
       <c r="W435" s="10" t="s">
         <v>60</v>
       </c>
@@ -36427,9 +36019,7 @@
       <c r="U436" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V436" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V436" s="10"/>
       <c r="W436" s="10" t="s">
         <v>60</v>
       </c>
@@ -36499,9 +36089,7 @@
       <c r="U437" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V437" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V437" s="10"/>
       <c r="W437" s="9" t="s">
         <v>60</v>
       </c>
@@ -36571,9 +36159,7 @@
       <c r="U438" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V438" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V438" s="10"/>
       <c r="W438" s="10" t="s">
         <v>60</v>
       </c>
@@ -36643,9 +36229,7 @@
       <c r="U439" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V439" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V439" s="10"/>
       <c r="W439" s="9" t="s">
         <v>60</v>
       </c>
@@ -36787,9 +36371,7 @@
       <c r="U441" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V441" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V441" s="10"/>
       <c r="W441" s="9" t="s">
         <v>261</v>
       </c>
@@ -36859,9 +36441,7 @@
       <c r="U442" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V442" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V442" s="10"/>
       <c r="W442" s="9" t="s">
         <v>169</v>
       </c>
@@ -36931,9 +36511,7 @@
       <c r="U443" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V443" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V443" s="10"/>
       <c r="W443" s="9" t="s">
         <v>169</v>
       </c>
@@ -37003,9 +36581,7 @@
       <c r="U444" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V444" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V444" s="10"/>
       <c r="W444" s="9" t="s">
         <v>254</v>
       </c>
@@ -37075,9 +36651,7 @@
       <c r="U445" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V445" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V445" s="10"/>
       <c r="W445" s="9" t="s">
         <v>36</v>
       </c>
@@ -37147,9 +36721,7 @@
       <c r="U446" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V446" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V446" s="10"/>
       <c r="W446" s="10" t="s">
         <v>169</v>
       </c>
@@ -37423,9 +36995,7 @@
       <c r="U450" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V450" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V450" s="10"/>
       <c r="W450" s="10" t="s">
         <v>57</v>
       </c>
@@ -37563,9 +37133,7 @@
       <c r="U452" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V452" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V452" s="10"/>
       <c r="W452" s="9" t="s">
         <v>270</v>
       </c>
@@ -37635,9 +37203,7 @@
       <c r="U453" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V453" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V453" s="10"/>
       <c r="W453" s="9" t="s">
         <v>36</v>
       </c>
@@ -37847,9 +37413,7 @@
       <c r="U456" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V456" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V456" s="10"/>
       <c r="W456" s="10" t="s">
         <v>87</v>
       </c>
@@ -37919,9 +37483,7 @@
       <c r="U457" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V457" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V457" s="10"/>
       <c r="W457" s="10" t="s">
         <v>60</v>
       </c>
@@ -37991,9 +37553,7 @@
       <c r="U458" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V458" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V458" s="10"/>
       <c r="W458" s="9" t="s">
         <v>87</v>
       </c>
@@ -38063,9 +37623,7 @@
       <c r="U459" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V459" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V459" s="10"/>
       <c r="W459" s="9" t="s">
         <v>36</v>
       </c>
@@ -38203,9 +37761,7 @@
       <c r="U461" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V461" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V461" s="10"/>
       <c r="W461" s="10" t="s">
         <v>60</v>
       </c>
@@ -38275,9 +37831,7 @@
       <c r="U462" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V462" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V462" s="10"/>
       <c r="W462" s="9" t="s">
         <v>36</v>
       </c>
@@ -38347,9 +37901,7 @@
       <c r="U463" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V463" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V463" s="10"/>
       <c r="W463" s="9" t="s">
         <v>254</v>
       </c>
@@ -38563,9 +38115,7 @@
       <c r="U466" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V466" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V466" s="10"/>
       <c r="W466" s="9" t="s">
         <v>60</v>
       </c>
@@ -38635,9 +38185,7 @@
       <c r="U467" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V467" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V467" s="10"/>
       <c r="W467" s="10" t="s">
         <v>60</v>
       </c>
@@ -38707,9 +38255,7 @@
       <c r="U468" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V468" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V468" s="10"/>
       <c r="W468" s="9" t="s">
         <v>36</v>
       </c>
@@ -38779,9 +38325,7 @@
       <c r="U469" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V469" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V469" s="10"/>
       <c r="W469" s="12" t="s">
         <v>36</v>
       </c>
@@ -38923,9 +38467,7 @@
       <c r="U471" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V471" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V471" s="10"/>
       <c r="W471" s="9" t="s">
         <v>169</v>
       </c>
@@ -39139,9 +38681,7 @@
       <c r="U474" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V474" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V474" s="10"/>
       <c r="W474" s="9" t="s">
         <v>95</v>
       </c>
@@ -39211,9 +38751,7 @@
       <c r="U475" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V475" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V475" s="10"/>
       <c r="W475" s="9" t="s">
         <v>36</v>
       </c>
@@ -39283,9 +38821,7 @@
       <c r="U476" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V476" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V476" s="10"/>
       <c r="W476" s="9" t="s">
         <v>36</v>
       </c>
@@ -39355,9 +38891,7 @@
       <c r="U477" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V477" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V477" s="10"/>
       <c r="W477" s="9" t="s">
         <v>101</v>
       </c>
@@ -39427,9 +38961,7 @@
       <c r="U478" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V478" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V478" s="10"/>
       <c r="W478" s="9" t="s">
         <v>83</v>
       </c>
@@ -39499,9 +39031,7 @@
       <c r="U479" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V479" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V479" s="10"/>
       <c r="W479" s="10" t="s">
         <v>1272</v>
       </c>
@@ -39571,9 +39101,7 @@
       <c r="U480" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V480" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V480" s="10"/>
       <c r="W480" s="9" t="s">
         <v>60</v>
       </c>
@@ -39643,9 +39171,7 @@
       <c r="U481" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V481" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V481" s="10"/>
       <c r="W481" s="10" t="s">
         <v>60</v>
       </c>
@@ -39855,9 +39381,7 @@
       <c r="U484" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V484" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V484" s="10"/>
       <c r="W484" s="9" t="s">
         <v>36</v>
       </c>
@@ -39927,9 +39451,7 @@
       <c r="U485" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V485" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V485" s="10"/>
       <c r="W485" s="10" t="s">
         <v>57</v>
       </c>
@@ -40347,9 +39869,7 @@
       <c r="U491" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V491" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V491" s="10"/>
       <c r="W491" s="9" t="s">
         <v>36</v>
       </c>
@@ -40419,9 +39939,7 @@
       <c r="U492" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V492" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V492" s="10"/>
       <c r="W492" s="9" t="s">
         <v>36</v>
       </c>
@@ -40491,9 +40009,7 @@
       <c r="U493" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V493" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V493" s="10"/>
       <c r="W493" s="9" t="s">
         <v>76</v>
       </c>
@@ -40563,9 +40079,7 @@
       <c r="U494" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V494" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V494" s="10"/>
       <c r="W494" s="9" t="s">
         <v>1252</v>
       </c>
@@ -40635,9 +40149,7 @@
       <c r="U495" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V495" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V495" s="10"/>
       <c r="W495" s="9" t="s">
         <v>1252</v>
       </c>
@@ -40707,9 +40219,7 @@
       <c r="U496" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V496" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V496" s="10"/>
       <c r="W496" s="9" t="s">
         <v>1252</v>
       </c>
@@ -40847,9 +40357,7 @@
       <c r="U498" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V498" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V498" s="10"/>
       <c r="W498" s="10" t="s">
         <v>60</v>
       </c>
@@ -41063,9 +40571,7 @@
       <c r="U501" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V501" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V501" s="10"/>
       <c r="W501" s="9" t="s">
         <v>36</v>
       </c>
@@ -41135,9 +40641,7 @@
       <c r="U502" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V502" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V502" s="10"/>
       <c r="W502" s="9" t="s">
         <v>36</v>
       </c>
@@ -41207,9 +40711,7 @@
       <c r="U503" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V503" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V503" s="10"/>
       <c r="W503" s="10" t="s">
         <v>83</v>
       </c>
@@ -41279,9 +40781,7 @@
       <c r="U504" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V504" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V504" s="10"/>
       <c r="W504" s="10" t="s">
         <v>60</v>
       </c>
@@ -41351,9 +40851,7 @@
       <c r="U505" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V505" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V505" s="10"/>
       <c r="W505" s="10" t="s">
         <v>254</v>
       </c>
@@ -41489,9 +40987,7 @@
       <c r="U507" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V507" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V507" s="10"/>
       <c r="W507" s="9" t="s">
         <v>36</v>
       </c>
@@ -41561,9 +41057,7 @@
       <c r="U508" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V508" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V508" s="10"/>
       <c r="W508" s="9" t="s">
         <v>40</v>
       </c>
@@ -41777,9 +41271,7 @@
       <c r="U511" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V511" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V511" s="10"/>
       <c r="W511" s="10" t="s">
         <v>60</v>
       </c>
@@ -41917,9 +41409,7 @@
       <c r="U513" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V513" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V513" s="10"/>
       <c r="W513" s="9" t="s">
         <v>169</v>
       </c>
@@ -41989,9 +41479,7 @@
       <c r="U514" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V514" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V514" s="10"/>
       <c r="W514" s="10" t="s">
         <v>36</v>
       </c>
@@ -42129,9 +41617,7 @@
       <c r="U516" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V516" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V516" s="10"/>
       <c r="W516" s="9" t="s">
         <v>83</v>
       </c>
@@ -42201,9 +41687,7 @@
       <c r="U517" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V517" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V517" s="10"/>
       <c r="W517" s="10" t="s">
         <v>83</v>
       </c>
@@ -42341,9 +41825,7 @@
       <c r="U519" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V519" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V519" s="10"/>
       <c r="W519" s="10" t="s">
         <v>60</v>
       </c>
@@ -42413,9 +41895,7 @@
       <c r="U520" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V520" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V520" s="10"/>
       <c r="W520" s="10" t="s">
         <v>87</v>
       </c>
@@ -42553,9 +42033,7 @@
       <c r="U522" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V522" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V522" s="10"/>
       <c r="W522" s="9" t="s">
         <v>36</v>
       </c>
@@ -42625,9 +42103,7 @@
       <c r="U523" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V523" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V523" s="10"/>
       <c r="W523" s="9" t="s">
         <v>254</v>
       </c>
@@ -42697,9 +42173,7 @@
       <c r="U524" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V524" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V524" s="10"/>
       <c r="W524" s="9" t="s">
         <v>261</v>
       </c>
@@ -42769,9 +42243,7 @@
       <c r="U525" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V525" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V525" s="10"/>
       <c r="W525" s="10" t="s">
         <v>87</v>
       </c>
@@ -42909,9 +42381,7 @@
       <c r="U527" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V527" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V527" s="10"/>
       <c r="W527" s="9" t="s">
         <v>254</v>
       </c>
@@ -42981,9 +42451,7 @@
       <c r="U528" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V528" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V528" s="10"/>
       <c r="W528" s="9" t="s">
         <v>254</v>
       </c>
@@ -43193,9 +42661,7 @@
       <c r="U531" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V531" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V531" s="10"/>
       <c r="W531" s="9" t="s">
         <v>40</v>
       </c>
@@ -43265,9 +42731,7 @@
       <c r="U532" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V532" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V532" s="10"/>
       <c r="W532" s="9" t="s">
         <v>254</v>
       </c>
@@ -43337,9 +42801,7 @@
       <c r="U533" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V533" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V533" s="10"/>
       <c r="W533" s="10" t="s">
         <v>40</v>
       </c>
@@ -43477,9 +42939,7 @@
       <c r="U535" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V535" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V535" s="10"/>
       <c r="W535" s="10" t="s">
         <v>254</v>
       </c>
@@ -43685,9 +43145,7 @@
       <c r="U538" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V538" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V538" s="10"/>
       <c r="W538" s="9" t="s">
         <v>36</v>
       </c>
@@ -43757,9 +43215,7 @@
       <c r="U539" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V539" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V539" s="10"/>
       <c r="W539" s="9" t="s">
         <v>36</v>
       </c>
@@ -43829,9 +43285,7 @@
       <c r="U540" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V540" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V540" s="10"/>
       <c r="W540" s="9" t="s">
         <v>169</v>
       </c>
@@ -43901,9 +43355,7 @@
       <c r="U541" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V541" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V541" s="10"/>
       <c r="W541" s="10" t="s">
         <v>57</v>
       </c>
@@ -44043,9 +43495,7 @@
       <c r="U543" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V543" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V543" s="10"/>
       <c r="W543" s="10" t="s">
         <v>36</v>
       </c>
@@ -44389,9 +43839,7 @@
       <c r="U548" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V548" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V548" s="10"/>
       <c r="W548" s="10" t="s">
         <v>36</v>
       </c>
@@ -44461,9 +43909,7 @@
       <c r="U549" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V549" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V549" s="10"/>
       <c r="W549" s="10" t="s">
         <v>60</v>
       </c>
@@ -44601,9 +44047,7 @@
       <c r="U551" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V551" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V551" s="10"/>
       <c r="W551" s="9" t="s">
         <v>83</v>
       </c>
@@ -44673,9 +44117,7 @@
       <c r="U552" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V552" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V552" s="10"/>
       <c r="W552" s="9" t="s">
         <v>87</v>
       </c>
@@ -44745,9 +44187,7 @@
       <c r="U553" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V553" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V553" s="10"/>
       <c r="W553" s="9" t="s">
         <v>36</v>
       </c>
@@ -44885,9 +44325,7 @@
       <c r="U555" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V555" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V555" s="10"/>
       <c r="W555" s="9" t="s">
         <v>36</v>
       </c>
@@ -45025,9 +44463,7 @@
       <c r="U557" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V557" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V557" s="10"/>
       <c r="W557" s="9" t="s">
         <v>36</v>
       </c>
@@ -45717,9 +45153,7 @@
       <c r="U567" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V567" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V567" s="10"/>
       <c r="W567" s="9" t="s">
         <v>389</v>
       </c>
@@ -45929,9 +45363,7 @@
       <c r="U570" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V570" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V570" s="10"/>
       <c r="W570" s="10" t="s">
         <v>57</v>
       </c>
@@ -46069,9 +45501,7 @@
       <c r="U572" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V572" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V572" s="10"/>
       <c r="W572" s="10" t="s">
         <v>36</v>
       </c>
@@ -46209,9 +45639,7 @@
       <c r="U574" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V574" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V574" s="10"/>
       <c r="W574" s="9" t="s">
         <v>430</v>
       </c>
@@ -46281,9 +45709,7 @@
       <c r="U575" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V575" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V575" s="10"/>
       <c r="W575" s="10" t="s">
         <v>60</v>
       </c>
@@ -46353,9 +45779,7 @@
       <c r="U576" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V576" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V576" s="10"/>
       <c r="W576" s="9" t="s">
         <v>430</v>
       </c>
@@ -46425,9 +45849,7 @@
       <c r="U577" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V577" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V577" s="10"/>
       <c r="W577" s="9" t="s">
         <v>261</v>
       </c>
@@ -46497,9 +45919,7 @@
       <c r="U578" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V578" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V578" s="10"/>
       <c r="W578" s="9" t="s">
         <v>101</v>
       </c>
@@ -46569,9 +45989,7 @@
       <c r="U579" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V579" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V579" s="10"/>
       <c r="W579" s="10" t="s">
         <v>36</v>
       </c>
@@ -46709,9 +46127,7 @@
       <c r="U581" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V581" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V581" s="10"/>
       <c r="W581" s="9" t="s">
         <v>36</v>
       </c>
@@ -46781,9 +46197,7 @@
       <c r="U582" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V582" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V582" s="10"/>
       <c r="W582" s="9" t="s">
         <v>261</v>
       </c>
@@ -46853,9 +46267,7 @@
       <c r="U583" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V583" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V583" s="10"/>
       <c r="W583" s="9" t="s">
         <v>95</v>
       </c>
@@ -47065,9 +46477,7 @@
       <c r="U586" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V586" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V586" s="10"/>
       <c r="W586" s="9" t="s">
         <v>254</v>
       </c>
@@ -47137,9 +46547,7 @@
       <c r="U587" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V587" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V587" s="10"/>
       <c r="W587" s="9" t="s">
         <v>254</v>
       </c>
@@ -47353,9 +46761,7 @@
       <c r="U590" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V590" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V590" s="10"/>
       <c r="W590" s="10" t="s">
         <v>76</v>
       </c>
@@ -47425,9 +46831,7 @@
       <c r="U591" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V591" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V591" s="10"/>
       <c r="W591" s="10" t="s">
         <v>60</v>
       </c>
@@ -47497,9 +46901,7 @@
       <c r="U592" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V592" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V592" s="10"/>
       <c r="W592" s="10" t="s">
         <v>313</v>
       </c>
@@ -47709,9 +47111,7 @@
       <c r="U595" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V595" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V595" s="10"/>
       <c r="W595" s="10" t="s">
         <v>101</v>
       </c>
@@ -47849,9 +47249,7 @@
       <c r="U597" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V597" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V597" s="10"/>
       <c r="W597" s="9" t="s">
         <v>87</v>
       </c>
@@ -47921,9 +47319,7 @@
       <c r="U598" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V598" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V598" s="10"/>
       <c r="W598" s="9" t="s">
         <v>254</v>
       </c>
@@ -47993,9 +47389,7 @@
       <c r="U599" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V599" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V599" s="10"/>
       <c r="W599" s="9" t="s">
         <v>57</v>
       </c>
@@ -48137,9 +47531,7 @@
       <c r="U601" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V601" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V601" s="10"/>
       <c r="W601" s="9" t="s">
         <v>101</v>
       </c>
@@ -48209,9 +47601,7 @@
       <c r="U602" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V602" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V602" s="10"/>
       <c r="W602" s="9" t="s">
         <v>36</v>
       </c>
@@ -48281,9 +47671,7 @@
       <c r="U603" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V603" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V603" s="10"/>
       <c r="W603" s="9" t="s">
         <v>36</v>
       </c>
@@ -48353,9 +47741,7 @@
       <c r="U604" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V604" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V604" s="10"/>
       <c r="W604" s="9" t="s">
         <v>36</v>
       </c>
@@ -48561,9 +47947,7 @@
       <c r="U607" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V607" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V607" s="10"/>
       <c r="W607" s="10" t="s">
         <v>95</v>
       </c>
@@ -48633,9 +48017,7 @@
       <c r="U608" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V608" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V608" s="10"/>
       <c r="W608" s="10" t="s">
         <v>60</v>
       </c>
@@ -48705,9 +48087,7 @@
       <c r="U609" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V609" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V609" s="10"/>
       <c r="W609" s="12" t="s">
         <v>60</v>
       </c>
@@ -48777,9 +48157,7 @@
       <c r="U610" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V610" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V610" s="10"/>
       <c r="W610" s="10" t="s">
         <v>83</v>
       </c>
@@ -48989,9 +48367,7 @@
       <c r="U613" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V613" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V613" s="10"/>
       <c r="W613" s="9" t="s">
         <v>36</v>
       </c>
@@ -49061,9 +48437,7 @@
       <c r="U614" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V614" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V614" s="10"/>
       <c r="W614" s="9" t="s">
         <v>254</v>
       </c>
@@ -49205,9 +48579,7 @@
       <c r="U616" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V616" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V616" s="10"/>
       <c r="W616" s="10" t="s">
         <v>40</v>
       </c>
@@ -49481,9 +48853,7 @@
       <c r="U620" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V620" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V620" s="10"/>
       <c r="W620" s="9" t="s">
         <v>57</v>
       </c>
@@ -49553,9 +48923,7 @@
       <c r="U621" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V621" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V621" s="10"/>
       <c r="W621" s="9" t="s">
         <v>83</v>
       </c>
@@ -49903,9 +49271,7 @@
       <c r="U626" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V626" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V626" s="10"/>
       <c r="W626" s="9" t="s">
         <v>83</v>
       </c>
@@ -49975,9 +49341,7 @@
       <c r="U627" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V627" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V627" s="10"/>
       <c r="W627" s="9" t="s">
         <v>57</v>
       </c>
@@ -50259,9 +49623,7 @@
       <c r="U631" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V631" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V631" s="10"/>
       <c r="W631" s="9" t="s">
         <v>87</v>
       </c>
@@ -50331,9 +49693,7 @@
       <c r="U632" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V632" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V632" s="10"/>
       <c r="W632" s="10" t="s">
         <v>60</v>
       </c>
@@ -50403,9 +49763,7 @@
       <c r="U633" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V633" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V633" s="10"/>
       <c r="W633" s="9" t="s">
         <v>57</v>
       </c>
@@ -50475,9 +49833,7 @@
       <c r="U634" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V634" s="10" t="s">
-        <v>1669</v>
-      </c>
+      <c r="V634" s="10"/>
       <c r="W634" s="9" t="s">
         <v>36</v>
       </c>
